--- a/certificates/HTML Code.xlsx
+++ b/certificates/HTML Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Dave B. Custodio\Google Drive\OtherFiles\05 GitHub\cmevsu.github.io\certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73C474E1-558E-4A59-8D4E-1834DE04177B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C72A0D-3252-4C6E-9E3F-9B23BDC48EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{292162B3-C305-466A-B9FF-5656A51BBEEC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="118">
   <si>
     <t>Name of Participants</t>
   </si>
@@ -109,9 +109,6 @@
     <t>ANGELICA JANE SUERTE</t>
   </si>
   <si>
-    <t>ANGELITO</t>
-  </si>
-  <si>
     <t>ANGIE LEPALAM</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>APRIL ROSE S. CANTUA</t>
   </si>
   <si>
-    <t>CABAÑAS, GEMMA L.</t>
-  </si>
-  <si>
     <t>CELINE VELASCO</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>JANELLE P. DUMPE</t>
   </si>
   <si>
-    <t>JASELLE</t>
-  </si>
-  <si>
     <t>JASTINE TUMAMPO</t>
   </si>
   <si>
@@ -349,9 +340,6 @@
     <t>RACHELL ANN T. UMBAO</t>
   </si>
   <si>
-    <t>RADENCLAVE1998@GMAIL.COM</t>
-  </si>
-  <si>
     <t>RAFAEL JUNNAR P. DUMALAN</t>
   </si>
   <si>
@@ -398,6 +386,9 @@
   </si>
   <si>
     <t>ZARLIN JECEL COMPENDIO</t>
+  </si>
+  <si>
+    <t>GEMMA L. CABAÑAS</t>
   </si>
 </sst>
 </file>
@@ -751,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68C929E-7BEE-4152-9345-49F24B995B7B}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61:E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +833,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ANGELITO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ANGIE LEPALAM&lt;/li&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,7 +848,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ANGIE LEPALAM&lt;/li&gt;</v>
+        <v>&lt;li&gt;APRIL JAE G. CUSTODIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,7 +863,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;APRIL JAE G. CUSTODIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;APRIL ROSE S. CANTUA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -887,7 +878,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;APRIL ROSE S. CANTUA&lt;/li&gt;</v>
+        <v>&lt;li&gt;CELINE VELASCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -902,12 +893,12 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CABAÑAS, GEMMA L.&lt;/li&gt;</v>
+        <v>&lt;li&gt;CHRISTOPHER LLONES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -917,12 +908,12 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CELINE VELASCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;CRISLIN CRUZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -932,12 +923,12 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CHRISTOPHER LLONES&lt;/li&gt;</v>
+        <v>&lt;li&gt;CRISTINA S. CASTAÑARES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -947,12 +938,12 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CRISLIN CRUZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;CRISTY ANN D. VARRON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -962,12 +953,12 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CRISTINA S. CASTAÑARES&lt;/li&gt;</v>
+        <v>&lt;li&gt;DAFFODIL S. TAMPUS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -977,12 +968,12 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CRISTY ANN D. VARRON&lt;/li&gt;</v>
+        <v>&lt;li&gt;DANIELA MARIE S. DAGOTDOT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -992,12 +983,12 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DAFFODIL S. TAMPUS&lt;/li&gt;</v>
+        <v>&lt;li&gt;DAZZILYN P MONTES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1007,12 +998,12 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DANIELA MARIE S. DAGOTDOT&lt;/li&gt;</v>
+        <v>&lt;li&gt;DELMA DELES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1022,12 +1013,12 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DAZZILYN P MONTES&lt;/li&gt;</v>
+        <v>&lt;li&gt;DIANNE M. DALIN-AS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1037,12 +1028,12 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DELMA DELES&lt;/li&gt;</v>
+        <v>&lt;li&gt;DIFFON CALUNGSOD&lt;/li&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1052,7 +1043,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DIANNE M. DALIN-AS&lt;/li&gt;</v>
+        <v>&lt;li&gt;ELMER C. LOPEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1067,7 +1058,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DIFFON CALUNGSOD&lt;/li&gt;</v>
+        <v>&lt;li&gt;ELVIN CABAÑERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,7 +1073,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ELMER C. LOPEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;EMMANUEL A. ENTERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,7 +1088,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ELVIN CABAÑERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ENCARNACION MECHELLE P.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1112,12 +1103,12 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;EMMANUEL A. ENTERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ERWIN E. TORRES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1127,12 +1118,12 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ENCARNACION MECHELLE P.&lt;/li&gt;</v>
+        <v>&lt;li&gt;ESTELITO R SALUT JR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1142,12 +1133,12 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ERWIN E. TORRES&lt;/li&gt;</v>
+        <v>&lt;li&gt;EUNICE KENEE L. SERIÑO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -1157,12 +1148,12 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ESTELITO R SALUT JR&lt;/li&gt;</v>
+        <v>&lt;li&gt;FHELROSE-ANNE A. YACAP&lt;/li&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1172,12 +1163,12 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;EUNICE KENEE L. SERIÑO&lt;/li&gt;</v>
+        <v>&lt;li&gt;FLORTIMAH P. OBADO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1187,12 +1178,12 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;FHELROSE-ANNE A. YACAP&lt;/li&gt;</v>
+        <v>&lt;li&gt;GEECEL F. GALVEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1202,12 +1193,12 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;FLORTIMAH P. OBADO&lt;/li&gt;</v>
+        <v>&lt;li&gt;GEMMA L. CABAÑAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1217,12 +1208,12 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;GEECEL F. GALVEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;GINA DELIMA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1232,12 +1223,12 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;GINA DELIMA&lt;/li&gt;</v>
+        <v>&lt;li&gt;HEIDI PALER&lt;/li&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1247,12 +1238,12 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;HEIDI PALER&lt;/li&gt;</v>
+        <v>&lt;li&gt;HELEN GRACE F. ORACION&lt;/li&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1262,12 +1253,12 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;HELEN GRACE F. ORACION&lt;/li&gt;</v>
+        <v>&lt;li&gt;ISABEL E. BIHAG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1277,12 +1268,12 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ISABEL E. BIHAG&lt;/li&gt;</v>
+        <v>&lt;li&gt;JAILENN JANNARAINE S. PURAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1292,12 +1283,12 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAILENN JANNARAINE S. PURAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;JANELLE P. DUMPE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -1307,12 +1298,12 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JANELLE P. DUMPE&lt;/li&gt;</v>
+        <v>&lt;li&gt;JASTINE TUMAMPO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -1322,12 +1313,12 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JASELLE&lt;/li&gt;</v>
+        <v>&lt;li&gt;JAY MAHUSAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1337,12 +1328,12 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JASTINE TUMAMPO&lt;/li&gt;</v>
+        <v>&lt;li&gt;JAY-AR O. RAGUB&lt;/li&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1352,12 +1343,12 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAY MAHUSAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;JAZZEL JANE M. PANERIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1367,12 +1358,12 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAY-AR O. RAGUB&lt;/li&gt;</v>
+        <v>&lt;li&gt;JEFFREY LLOYD L. CAGANDE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1382,12 +1373,12 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAZZEL JANE M. PANERIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;JEMAR O.CAGASAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -1397,12 +1388,12 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEFFREY LLOYD L. CAGANDE&lt;/li&gt;</v>
+        <v>&lt;li&gt;JEMUEL A. OCAÑADA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -1412,12 +1403,12 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEMAR O.CAGASAN&lt;/li&gt;</v>
+        <v>&lt;li&gt;JENNY B. MORALES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1427,12 +1418,12 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEMUEL A. OCAÑADA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JESELLE A. BUAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -1442,12 +1433,12 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JENNY B. MORALES&lt;/li&gt;</v>
+        <v>&lt;li&gt;JESSA MAE LIBRES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1457,12 +1448,12 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JESELLE A. BUAL&lt;/li&gt;</v>
+        <v>&lt;li&gt;JESSE OMAR L. UMDA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1472,12 +1463,12 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JESSA MAE LIBRES&lt;/li&gt;</v>
+        <v>&lt;li&gt;JEWEL LOUIE A. TOLIBAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1487,12 +1478,12 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JESSE OMAR L. UMDA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JHAIRA MAGLUPAY SAJULGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1502,12 +1493,12 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEWEL LOUIE A. TOLIBAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;JINKY TAFALLA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -1517,12 +1508,12 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JHAIRA MAGLUPAY SAJULGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOANE GAY L. ALIGWAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1532,12 +1523,12 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JINKY TAFALLA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOBHEL D. PARAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1547,12 +1538,12 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOANE GAY L. ALIGWAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOE-JET F. JACOLBIA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1562,12 +1553,12 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOBHEL D. PARAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOHN CHRISTIAN D. FERNANDEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -1577,12 +1568,12 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOE-JET F. JACOLBIA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOHN LOU B. DIAZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -1592,12 +1583,12 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOHN CHRISTIAN D. FERNANDEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;JONALYN TUMAMAK&lt;/li&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -1607,12 +1598,12 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOHN LOU B. DIAZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;JONNA MAY ANGCAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1622,12 +1613,12 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JONALYN TUMAMAK&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOSEPH ANDREY DACERA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1637,12 +1628,12 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JONNA MAY ANGCAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOVELYN TAÑOLA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -1652,12 +1643,12 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOSEPH ANDREY DACERA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JULIUS M. MACALE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -1667,12 +1658,12 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOVELYN TAÑOLA&lt;/li&gt;</v>
+        <v>&lt;li&gt;KAREN S. GONZALES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -1682,12 +1673,12 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JULIUS M. MACALE&lt;/li&gt;</v>
+        <v>&lt;li&gt;KIMBERLY YAP&lt;/li&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1697,12 +1688,12 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KAREN S. GONZALES&lt;/li&gt;</v>
+        <v>&lt;li&gt;KRIEZLYNN KIEL MARDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -1712,12 +1703,12 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KIMBERLY YAP&lt;/li&gt;</v>
+        <v>&lt;li&gt;KRISTEL MAY FLORES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1727,12 +1718,12 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KRIEZLYNN KIEL MARDO&lt;/li&gt;</v>
+        <v>&lt;li&gt;KRISTINE JOY OBRAR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -1742,12 +1733,12 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KRISTEL MAY FLORES&lt;/li&gt;</v>
+        <v>&lt;li&gt;LEAH ROSE GONZAGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -1757,12 +1748,12 @@
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="1">C67&amp;A67&amp;D67</f>
-        <v>&lt;li&gt;KRISTINE JOY OBRAR&lt;/li&gt;</v>
+        <v>&lt;li&gt;LELETTE LYLE O. CORONA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -1772,12 +1763,12 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LEAH ROSE GONZAGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;LELITH CONGSON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -1787,12 +1778,12 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LELETTE LYLE O. CORONA&lt;/li&gt;</v>
+        <v>&lt;li&gt;LEMUEL PRECIADOS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -1802,12 +1793,12 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LELITH CONGSON&lt;/li&gt;</v>
+        <v>&lt;li&gt;LINNITO PASCUAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1817,12 +1808,12 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LEMUEL PRECIADOS&lt;/li&gt;</v>
+        <v>&lt;li&gt;LOVELY JOY INTE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1832,12 +1823,12 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LINNITO PASCUAL&lt;/li&gt;</v>
+        <v>&lt;li&gt;LYKA ARTUGUE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -1847,12 +1838,12 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LOVELY JOY INTE&lt;/li&gt;</v>
+        <v>&lt;li&gt;LYRA KATRINA M. MALPAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -1862,12 +1853,12 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LYKA ARTUGUE&lt;/li&gt;</v>
+        <v>&lt;li&gt;MA. FE O. BASCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -1877,12 +1868,12 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LYRA KATRINA M. MALPAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;MA. ISTEFANIE ABELARDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1892,12 +1883,12 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MA. FE O. BASCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MA. THERESA P. LORETO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -1907,12 +1898,12 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MA. ISTEFANIE ABELARDO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MAE ANN A BRAVO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1922,12 +1913,12 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MA. THERESA P. LORETO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARDEE B. MELGAZO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1937,12 +1928,12 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MAE ANN A BRAVO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARIA CRISANDRA OLIVEROS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -1952,12 +1943,12 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARDEE B. MELGAZO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARIA LEVY CHAVEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1967,12 +1958,12 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIA CRISANDRA OLIVEROS&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARIE JOY P. SALUNDAGUIT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -1982,12 +1973,12 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIA LEVY CHAVEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARIELLE DIAZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -1997,12 +1988,12 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIE JOY P. SALUNDAGUIT&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARY GIL D. GORON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -2012,12 +2003,12 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIELLE DIAZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARY JANE SOLIS REVILLAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -2027,12 +2018,12 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARY GIL D. GORON&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARY REINA D. SUMAYA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -2042,12 +2033,12 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARY JANE SOLIS REVILLAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;MERLITA D. VELOSO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -2057,12 +2048,12 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARY REINA D. SUMAYA&lt;/li&gt;</v>
+        <v>&lt;li&gt;MICHELLE ABRIGANA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -2072,12 +2063,12 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MERLITA D. VELOSO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MICHELLE ANN J. BUOT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -2087,12 +2078,12 @@
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MICHELLE ABRIGANA&lt;/li&gt;</v>
+        <v>&lt;li&gt;MICHELLE ANN M. JUNCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -2102,12 +2093,12 @@
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MICHELLE ANN J. BUOT&lt;/li&gt;</v>
+        <v>&lt;li&gt;MIGUEL RAZAGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -2117,12 +2108,12 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MICHELLE ANN M. JUNCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;NATHANIEL C. CABAÑERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -2132,12 +2123,12 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MIGUEL RAZAGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;NIÑO JOHN C. VITOR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -2147,12 +2138,12 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;NATHANIEL C. CABAÑERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;NYMPHMARY DAPHNE SANTIAGO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -2162,12 +2153,12 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;NIÑO JOHN C. VITOR&lt;/li&gt;</v>
+        <v>&lt;li&gt;PAULINE KRIZZIA A. MAPULA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -2177,12 +2168,12 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;NYMPHMARY DAPHNE SANTIAGO&lt;/li&gt;</v>
+        <v>&lt;li&gt;QUENSTEIN D. LAUZON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -2192,12 +2183,12 @@
       </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;PAULINE KRIZZIA A. MAPULA&lt;/li&gt;</v>
+        <v>&lt;li&gt;RACHELL ANN T. UMBAO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -2207,12 +2198,12 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;QUENSTEIN D. LAUZON&lt;/li&gt;</v>
+        <v>&lt;li&gt;RACHELLE ANN L SANTOS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -2222,12 +2213,12 @@
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RACHELL ANN T. UMBAO&lt;/li&gt;</v>
+        <v>&lt;li&gt;RAFAEL JUNNAR P. DUMALAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2237,12 +2228,12 @@
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RACHELLE ANN L SANTOS&lt;/li&gt;</v>
+        <v>&lt;li&gt;RAMELYN ALBESA RICO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -2252,12 +2243,12 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RADENCLAVE1998@GMAIL.COM&lt;/li&gt;</v>
+        <v>&lt;li&gt;RHENA REY M. TUMULAK&lt;/li&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -2267,12 +2258,12 @@
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RAFAEL JUNNAR P. DUMALAN&lt;/li&gt;</v>
+        <v>&lt;li&gt;RICHARD Q. ONTOY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -2282,12 +2273,12 @@
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RAMELYN ALBESA RICO&lt;/li&gt;</v>
+        <v>&lt;li&gt;RIO ROSA B. SABANDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -2297,12 +2288,12 @@
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RHENA REY M. TUMULAK&lt;/li&gt;</v>
+        <v>&lt;li&gt;RIZA S. LAUDE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -2312,12 +2303,12 @@
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RICHARD Q. ONTOY&lt;/li&gt;</v>
+        <v>&lt;li&gt;ROLANDO C. NEGROSA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -2327,12 +2318,12 @@
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RIO ROSA B. SABANDO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ROLEN A. BOCOG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -2342,12 +2333,12 @@
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RIZA S. LAUDE&lt;/li&gt;</v>
+        <v>&lt;li&gt;ROYCE ALEXIS LUCAÑAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -2357,12 +2348,12 @@
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ROLANDO C. NEGROSA&lt;/li&gt;</v>
+        <v>&lt;li&gt;RUBEN S. DIANA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -2372,12 +2363,12 @@
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ROLEN A. BOCOG&lt;/li&gt;</v>
+        <v>&lt;li&gt;RUSSELL MARIE DONATO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -2387,12 +2378,12 @@
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ROYCE ALEXIS LUCAÑAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;SCZALI JEWESS FE L CAINTIC&lt;/li&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -2402,12 +2393,12 @@
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RUBEN S. DIANA&lt;/li&gt;</v>
+        <v>&lt;li&gt;STAECY A. MEJARES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -2417,12 +2408,12 @@
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RUSSELL MARIE DONATO&lt;/li&gt;</v>
+        <v>&lt;li&gt;STEPHANIE B. SABALZA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -2432,12 +2423,12 @@
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;SCZALI JEWESS FE L CAINTIC&lt;/li&gt;</v>
+        <v>&lt;li&gt;VINCE G. LAO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -2447,12 +2438,12 @@
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;STAECY A. MEJARES&lt;/li&gt;</v>
+        <v>&lt;li&gt;WYATTEARP A. GARCIA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -2462,12 +2453,12 @@
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;STEPHANIE B. SABALZA&lt;/li&gt;</v>
+        <v>&lt;li&gt;YSSAKHAR A. SALAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
@@ -2477,13 +2468,10 @@
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;VINCE G. LAO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ZARLIN JECEL COMPENDIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
@@ -2492,13 +2480,10 @@
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;WYATTEARP A. GARCIA&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>119</v>
-      </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
@@ -2507,13 +2492,10 @@
       </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;YSSAKHAR A. SALAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>119</v>
-      </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
@@ -2522,13 +2504,10 @@
       </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;YSSAKHAR A. SALAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>120</v>
-      </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
@@ -2537,7 +2516,7 @@
       </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ZARLIN JECEL COMPENDIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4713,8 +4692,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A120">
-    <sortCondition ref="A2:A120"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A115">
+    <sortCondition ref="A115"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/certificates/HTML Code.xlsx
+++ b/certificates/HTML Code.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Dave B. Custodio\Google Drive\OtherFiles\05 GitHub\cmevsu.github.io\certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C72A0D-3252-4C6E-9E3F-9B23BDC48EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A8992-8CDD-405B-AAE7-8274BC816FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{292162B3-C305-466A-B9FF-5656A51BBEEC}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{292162B3-C305-466A-B9FF-5656A51BBEEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="124">
   <si>
     <t>Name of Participants</t>
   </si>
@@ -389,6 +389,24 @@
   </si>
   <si>
     <t>GEMMA L. CABAÑAS</t>
+  </si>
+  <si>
+    <t>WENDY C. ENERLAN</t>
+  </si>
+  <si>
+    <t>IAN DAVE B. CUSTODIO</t>
+  </si>
+  <si>
+    <t>VERGIE ANN GALENZOGA</t>
+  </si>
+  <si>
+    <t>ANNA RECTO</t>
+  </si>
+  <si>
+    <t>RHENA JANE SORIA</t>
+  </si>
+  <si>
+    <t>GWENDOLYN OMALAY</t>
   </si>
 </sst>
 </file>
@@ -742,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68C929E-7BEE-4152-9345-49F24B995B7B}">
   <dimension ref="A1:E300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61:E115"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63:E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +856,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -848,12 +866,12 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;APRIL JAE G. CUSTODIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ANNA RECTO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -863,12 +881,12 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;APRIL ROSE S. CANTUA&lt;/li&gt;</v>
+        <v>&lt;li&gt;APRIL JAE G. CUSTODIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -878,12 +896,12 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CELINE VELASCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;APRIL ROSE S. CANTUA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -893,12 +911,12 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CHRISTOPHER LLONES&lt;/li&gt;</v>
+        <v>&lt;li&gt;CELINE VELASCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -908,12 +926,12 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CRISLIN CRUZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;CHRISTOPHER LLONES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -923,12 +941,12 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CRISTINA S. CASTAÑARES&lt;/li&gt;</v>
+        <v>&lt;li&gt;CRISLIN CRUZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -938,12 +956,12 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CRISTY ANN D. VARRON&lt;/li&gt;</v>
+        <v>&lt;li&gt;CRISTINA S. CASTAÑARES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -953,12 +971,12 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DAFFODIL S. TAMPUS&lt;/li&gt;</v>
+        <v>&lt;li&gt;CRISTY ANN D. VARRON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -968,12 +986,12 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DANIELA MARIE S. DAGOTDOT&lt;/li&gt;</v>
+        <v>&lt;li&gt;DAFFODIL S. TAMPUS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -983,12 +1001,12 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DAZZILYN P MONTES&lt;/li&gt;</v>
+        <v>&lt;li&gt;DANIELA MARIE S. DAGOTDOT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -998,12 +1016,12 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DELMA DELES&lt;/li&gt;</v>
+        <v>&lt;li&gt;DAZZILYN P MONTES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1013,12 +1031,12 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DIANNE M. DALIN-AS&lt;/li&gt;</v>
+        <v>&lt;li&gt;DELMA DELES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1028,12 +1046,12 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DIFFON CALUNGSOD&lt;/li&gt;</v>
+        <v>&lt;li&gt;DIANNE M. DALIN-AS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -1043,12 +1061,12 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ELMER C. LOPEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;DIFFON CALUNGSOD&lt;/li&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1058,12 +1076,12 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ELVIN CABAÑERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ELMER C. LOPEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -1073,12 +1091,12 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;EMMANUEL A. ENTERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ELVIN CABAÑERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -1088,12 +1106,12 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ENCARNACION MECHELLE P.&lt;/li&gt;</v>
+        <v>&lt;li&gt;EMMANUEL A. ENTERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -1103,12 +1121,12 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ERWIN E. TORRES&lt;/li&gt;</v>
+        <v>&lt;li&gt;ENCARNACION MECHELLE P.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -1118,12 +1136,12 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ESTELITO R SALUT JR&lt;/li&gt;</v>
+        <v>&lt;li&gt;ERWIN E. TORRES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -1133,12 +1151,12 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;EUNICE KENEE L. SERIÑO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ESTELITO R SALUT JR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -1148,12 +1166,12 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;FHELROSE-ANNE A. YACAP&lt;/li&gt;</v>
+        <v>&lt;li&gt;EUNICE KENEE L. SERIÑO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -1163,12 +1181,12 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;FLORTIMAH P. OBADO&lt;/li&gt;</v>
+        <v>&lt;li&gt;FHELROSE-ANNE A. YACAP&lt;/li&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -1178,12 +1196,12 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;GEECEL F. GALVEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;FLORTIMAH P. OBADO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -1193,12 +1211,12 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;GEMMA L. CABAÑAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;GEECEL F. GALVEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -1208,12 +1226,12 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;GINA DELIMA&lt;/li&gt;</v>
+        <v>&lt;li&gt;GEMMA L. CABAÑAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -1223,12 +1241,12 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;HEIDI PALER&lt;/li&gt;</v>
+        <v>&lt;li&gt;GINA DELIMA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
@@ -1238,12 +1256,12 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;HELEN GRACE F. ORACION&lt;/li&gt;</v>
+        <v>&lt;li&gt;GWENDOLYN OMALAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -1253,12 +1271,12 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ISABEL E. BIHAG&lt;/li&gt;</v>
+        <v>&lt;li&gt;HEIDI PALER&lt;/li&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>1</v>
@@ -1268,12 +1286,12 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAILENN JANNARAINE S. PURAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;HELEN GRACE F. ORACION&lt;/li&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
         <v>1</v>
@@ -1283,12 +1301,12 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JANELLE P. DUMPE&lt;/li&gt;</v>
+        <v>&lt;li&gt;IAN DAVE B. CUSTODIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
@@ -1298,12 +1316,12 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JASTINE TUMAMPO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ISABEL E. BIHAG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
@@ -1313,12 +1331,12 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAY MAHUSAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;JAILENN JANNARAINE S. PURAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
@@ -1328,12 +1346,12 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAY-AR O. RAGUB&lt;/li&gt;</v>
+        <v>&lt;li&gt;JANELLE P. DUMPE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
@@ -1343,12 +1361,12 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAZZEL JANE M. PANERIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;JASTINE TUMAMPO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -1358,12 +1376,12 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEFFREY LLOYD L. CAGANDE&lt;/li&gt;</v>
+        <v>&lt;li&gt;JAY MAHUSAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -1373,12 +1391,12 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEMAR O.CAGASAN&lt;/li&gt;</v>
+        <v>&lt;li&gt;JAY-AR O. RAGUB&lt;/li&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -1388,12 +1406,12 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEMUEL A. OCAÑADA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JAZZEL JANE M. PANERIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -1403,12 +1421,12 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JENNY B. MORALES&lt;/li&gt;</v>
+        <v>&lt;li&gt;JEFFREY LLOYD L. CAGANDE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -1418,12 +1436,12 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JESELLE A. BUAL&lt;/li&gt;</v>
+        <v>&lt;li&gt;JEMAR O.CAGASAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -1433,12 +1451,12 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JESSA MAE LIBRES&lt;/li&gt;</v>
+        <v>&lt;li&gt;JEMUEL A. OCAÑADA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -1448,12 +1466,12 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JESSE OMAR L. UMDA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JENNY B. MORALES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -1463,12 +1481,12 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEWEL LOUIE A. TOLIBAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;JESELLE A. BUAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
@@ -1478,12 +1496,12 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JHAIRA MAGLUPAY SAJULGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JESSA MAE LIBRES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -1493,12 +1511,12 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JINKY TAFALLA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JESSE OMAR L. UMDA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -1508,12 +1526,12 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOANE GAY L. ALIGWAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;JEWEL LOUIE A. TOLIBAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -1523,12 +1541,12 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOBHEL D. PARAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;JHAIRA MAGLUPAY SAJULGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -1538,12 +1556,12 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOE-JET F. JACOLBIA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JINKY TAFALLA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -1553,12 +1571,12 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOHN CHRISTIAN D. FERNANDEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOANE GAY L. ALIGWAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -1568,12 +1586,12 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOHN LOU B. DIAZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOBHEL D. PARAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
@@ -1583,12 +1601,12 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JONALYN TUMAMAK&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOE-JET F. JACOLBIA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -1598,12 +1616,12 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JONNA MAY ANGCAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOHN CHRISTIAN D. FERNANDEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -1613,12 +1631,12 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOSEPH ANDREY DACERA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOHN LOU B. DIAZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -1628,12 +1646,12 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOVELYN TAÑOLA&lt;/li&gt;</v>
+        <v>&lt;li&gt;JONALYN TUMAMAK&lt;/li&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -1643,12 +1661,12 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JULIUS M. MACALE&lt;/li&gt;</v>
+        <v>&lt;li&gt;JONNA MAY ANGCAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -1658,12 +1676,12 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KAREN S. GONZALES&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOSEPH ANDREY DACERA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -1673,12 +1691,12 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KIMBERLY YAP&lt;/li&gt;</v>
+        <v>&lt;li&gt;JOVELYN TAÑOLA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
@@ -1688,12 +1706,12 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KRIEZLYNN KIEL MARDO&lt;/li&gt;</v>
+        <v>&lt;li&gt;JULIUS M. MACALE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -1703,12 +1721,12 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KRISTEL MAY FLORES&lt;/li&gt;</v>
+        <v>&lt;li&gt;KAREN S. GONZALES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
         <v>1</v>
@@ -1718,12 +1736,12 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KRISTINE JOY OBRAR&lt;/li&gt;</v>
+        <v>&lt;li&gt;KIMBERLY YAP&lt;/li&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
         <v>1</v>
@@ -1733,12 +1751,12 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;LEAH ROSE GONZAGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;KRIEZLYNN KIEL MARDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
         <v>1</v>
@@ -1748,12 +1766,12 @@
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="1">C67&amp;A67&amp;D67</f>
-        <v>&lt;li&gt;LELETTE LYLE O. CORONA&lt;/li&gt;</v>
+        <v>&lt;li&gt;KRISTEL MAY FLORES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
         <v>1</v>
@@ -1763,12 +1781,12 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LELITH CONGSON&lt;/li&gt;</v>
+        <v>&lt;li&gt;KRISTINE JOY OBRAR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -1778,12 +1796,12 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LEMUEL PRECIADOS&lt;/li&gt;</v>
+        <v>&lt;li&gt;LEAH ROSE GONZAGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -1793,12 +1811,12 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LINNITO PASCUAL&lt;/li&gt;</v>
+        <v>&lt;li&gt;LELETTE LYLE O. CORONA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
@@ -1808,12 +1826,12 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LOVELY JOY INTE&lt;/li&gt;</v>
+        <v>&lt;li&gt;LELITH CONGSON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -1823,12 +1841,12 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LYKA ARTUGUE&lt;/li&gt;</v>
+        <v>&lt;li&gt;LEMUEL PRECIADOS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -1838,12 +1856,12 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LYRA KATRINA M. MALPAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;LINNITO PASCUAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -1853,12 +1871,12 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MA. FE O. BASCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;LOVELY JOY INTE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -1868,12 +1886,12 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MA. ISTEFANIE ABELARDO&lt;/li&gt;</v>
+        <v>&lt;li&gt;LYKA ARTUGUE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -1883,12 +1901,12 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MA. THERESA P. LORETO&lt;/li&gt;</v>
+        <v>&lt;li&gt;LYRA KATRINA M. MALPAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
@@ -1898,12 +1916,12 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MAE ANN A BRAVO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MA. FE O. BASCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -1913,12 +1931,12 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARDEE B. MELGAZO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MA. ISTEFANIE ABELARDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -1928,12 +1946,12 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIA CRISANDRA OLIVEROS&lt;/li&gt;</v>
+        <v>&lt;li&gt;MA. THERESA P. LORETO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -1943,12 +1961,12 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIA LEVY CHAVEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;MAE ANN A BRAVO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -1958,12 +1976,12 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIE JOY P. SALUNDAGUIT&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARDEE B. MELGAZO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -1973,12 +1991,12 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIELLE DIAZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARIA CRISANDRA OLIVEROS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -1988,12 +2006,12 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARY GIL D. GORON&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARIA LEVY CHAVEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
@@ -2003,12 +2021,12 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARY JANE SOLIS REVILLAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARIE JOY P. SALUNDAGUIT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
         <v>1</v>
@@ -2018,12 +2036,12 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARY REINA D. SUMAYA&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARIELLE DIAZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
         <v>1</v>
@@ -2033,12 +2051,12 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MERLITA D. VELOSO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARY GIL D. GORON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
         <v>1</v>
@@ -2048,12 +2066,12 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MICHELLE ABRIGANA&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARY JANE SOLIS REVILLAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
         <v>1</v>
@@ -2063,12 +2081,12 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MICHELLE ANN J. BUOT&lt;/li&gt;</v>
+        <v>&lt;li&gt;MARY REINA D. SUMAYA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
@@ -2078,12 +2096,12 @@
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MICHELLE ANN M. JUNCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MERLITA D. VELOSO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
@@ -2093,12 +2111,12 @@
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MIGUEL RAZAGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;MICHELLE ABRIGANA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
         <v>1</v>
@@ -2108,12 +2126,12 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;NATHANIEL C. CABAÑERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MICHELLE ANN J. BUOT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
@@ -2123,12 +2141,12 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;NIÑO JOHN C. VITOR&lt;/li&gt;</v>
+        <v>&lt;li&gt;MICHELLE ANN M. JUNCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
@@ -2138,12 +2156,12 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;NYMPHMARY DAPHNE SANTIAGO&lt;/li&gt;</v>
+        <v>&lt;li&gt;MIGUEL RAZAGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
@@ -2153,12 +2171,12 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;PAULINE KRIZZIA A. MAPULA&lt;/li&gt;</v>
+        <v>&lt;li&gt;NATHANIEL C. CABAÑERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
@@ -2168,12 +2186,12 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;QUENSTEIN D. LAUZON&lt;/li&gt;</v>
+        <v>&lt;li&gt;NIÑO JOHN C. VITOR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
@@ -2183,12 +2201,12 @@
       </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RACHELL ANN T. UMBAO&lt;/li&gt;</v>
+        <v>&lt;li&gt;NYMPHMARY DAPHNE SANTIAGO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
@@ -2198,12 +2216,12 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RACHELLE ANN L SANTOS&lt;/li&gt;</v>
+        <v>&lt;li&gt;PAULINE KRIZZIA A. MAPULA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
@@ -2213,12 +2231,12 @@
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RAFAEL JUNNAR P. DUMALAN&lt;/li&gt;</v>
+        <v>&lt;li&gt;QUENSTEIN D. LAUZON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
@@ -2228,12 +2246,12 @@
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RAMELYN ALBESA RICO&lt;/li&gt;</v>
+        <v>&lt;li&gt;RACHELL ANN T. UMBAO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
         <v>1</v>
@@ -2243,12 +2261,12 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RHENA REY M. TUMULAK&lt;/li&gt;</v>
+        <v>&lt;li&gt;RACHELLE ANN L SANTOS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
@@ -2258,12 +2276,12 @@
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RICHARD Q. ONTOY&lt;/li&gt;</v>
+        <v>&lt;li&gt;RAFAEL JUNNAR P. DUMALAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
@@ -2273,12 +2291,12 @@
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RIO ROSA B. SABANDO&lt;/li&gt;</v>
+        <v>&lt;li&gt;RAMELYN ALBESA RICO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
@@ -2288,12 +2306,12 @@
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RIZA S. LAUDE&lt;/li&gt;</v>
+        <v>&lt;li&gt;RHENA JANE SORIA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
@@ -2303,12 +2321,12 @@
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ROLANDO C. NEGROSA&lt;/li&gt;</v>
+        <v>&lt;li&gt;RHENA REY M. TUMULAK&lt;/li&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
@@ -2318,12 +2336,12 @@
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ROLEN A. BOCOG&lt;/li&gt;</v>
+        <v>&lt;li&gt;RICHARD Q. ONTOY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
@@ -2333,12 +2351,12 @@
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ROYCE ALEXIS LUCAÑAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;RIO ROSA B. SABANDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
@@ -2348,12 +2366,12 @@
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RUBEN S. DIANA&lt;/li&gt;</v>
+        <v>&lt;li&gt;RIZA S. LAUDE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
@@ -2363,12 +2381,12 @@
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RUSSELL MARIE DONATO&lt;/li&gt;</v>
+        <v>&lt;li&gt;ROLANDO C. NEGROSA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
@@ -2378,12 +2396,12 @@
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;SCZALI JEWESS FE L CAINTIC&lt;/li&gt;</v>
+        <v>&lt;li&gt;ROLEN A. BOCOG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
@@ -2393,12 +2411,12 @@
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;STAECY A. MEJARES&lt;/li&gt;</v>
+        <v>&lt;li&gt;ROYCE ALEXIS LUCAÑAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
@@ -2408,12 +2426,12 @@
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;STEPHANIE B. SABALZA&lt;/li&gt;</v>
+        <v>&lt;li&gt;RUBEN S. DIANA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
@@ -2423,12 +2441,12 @@
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;VINCE G. LAO&lt;/li&gt;</v>
+        <v>&lt;li&gt;RUSSELL MARIE DONATO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
@@ -2438,12 +2456,12 @@
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;WYATTEARP A. GARCIA&lt;/li&gt;</v>
+        <v>&lt;li&gt;SCZALI JEWESS FE L CAINTIC&lt;/li&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
@@ -2453,94 +2471,112 @@
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;YSSAKHAR A. SALAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;STAECY A. MEJARES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;STEPHANIE B. SABALZA&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;VERGIE ANN GALENZOGA&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>113</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;VINCE G. LAO&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;WENDY C. ENERLAN&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;WYATTEARP A. GARCIA&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;li&gt;YSSAKHAR A. SALAS&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>116</v>
       </c>
-      <c r="C115" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115" t="str">
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" t="str">
         <f t="shared" si="1"/>
         <v>&lt;li&gt;ZARLIN JECEL COMPENDIO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" t="s">
-        <v>2</v>
-      </c>
-      <c r="E116" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
-        <v>2</v>
-      </c>
-      <c r="E117" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>2</v>
-      </c>
-      <c r="E118" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>2</v>
-      </c>
-      <c r="E119" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120" t="s">
-        <v>2</v>
-      </c>
-      <c r="E120" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
-        <v>1</v>
-      </c>
-      <c r="D121" t="s">
-        <v>2</v>
-      </c>
-      <c r="E121" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -4692,8 +4728,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A115">
-    <sortCondition ref="A115"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A121">
+    <sortCondition ref="A121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/certificates/HTML Code.xlsx
+++ b/certificates/HTML Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Dave B. Custodio\Google Drive\OtherFiles\05 GitHub\cmevsu.github.io\certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9A8992-8CDD-405B-AAE7-8274BC816FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30CD47-8F39-4302-AB84-E438E56A7BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{292162B3-C305-466A-B9FF-5656A51BBEEC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="124">
   <si>
     <t>Name of Participants</t>
   </si>
@@ -758,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68C929E-7BEE-4152-9345-49F24B995B7B}">
-  <dimension ref="A1:E300"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63:E121"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,6 +783,9 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -790,14 +793,17 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <f>C2&amp;A2&amp;D2</f>
-        <v>&lt;li&gt;AL FRANCIS BIOC&lt;/li&gt;</v>
+        <f>C2&amp;"("&amp;B2&amp;") "&amp;A2&amp;D2</f>
+        <v>&lt;li&gt;(1) AL FRANCIS BIOC&lt;/li&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -805,14 +811,17 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">C3&amp;A3&amp;D3</f>
-        <v>&lt;li&gt;ALJEN C. BATICAN&lt;/li&gt;</v>
+        <f t="shared" ref="E3:E66" si="0">C3&amp;"("&amp;B3&amp;") "&amp;A3&amp;D3</f>
+        <v>&lt;li&gt;(2) ALJEN C. BATICAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -821,13 +830,16 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ALMAREJEN O. ABAYABAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(3) ALMAREJEN O. ABAYABAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -836,13 +848,16 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ANGELICA JANE SUERTE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(4) ANGELICA JANE SUERTE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -851,13 +866,16 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ANGIE LEPALAM&lt;/li&gt;</v>
+        <v>&lt;li&gt;(5) ANGIE LEPALAM&lt;/li&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>121</v>
       </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -866,13 +884,16 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ANNA RECTO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(6) ANNA RECTO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -881,13 +902,16 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;APRIL JAE G. CUSTODIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(7) APRIL JAE G. CUSTODIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
@@ -896,13 +920,16 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;APRIL ROSE S. CANTUA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(8) APRIL ROSE S. CANTUA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -911,13 +938,16 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CELINE VELASCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(9) CELINE VELASCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
@@ -926,13 +956,16 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CHRISTOPHER LLONES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(10) CHRISTOPHER LLONES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
@@ -941,13 +974,16 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CRISLIN CRUZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(11) CRISLIN CRUZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
@@ -956,13 +992,16 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CRISTINA S. CASTAÑARES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(12) CRISTINA S. CASTAÑARES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -971,13 +1010,16 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;CRISTY ANN D. VARRON&lt;/li&gt;</v>
+        <v>&lt;li&gt;(13) CRISTY ANN D. VARRON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
@@ -986,13 +1028,16 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DAFFODIL S. TAMPUS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(14) DAFFODIL S. TAMPUS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
@@ -1001,13 +1046,16 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DANIELA MARIE S. DAGOTDOT&lt;/li&gt;</v>
+        <v>&lt;li&gt;(15) DANIELA MARIE S. DAGOTDOT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -1016,13 +1064,16 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DAZZILYN P MONTES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(16) DAZZILYN P MONTES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
@@ -1031,13 +1082,16 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DELMA DELES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(17) DELMA DELES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
@@ -1046,13 +1100,16 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DIANNE M. DALIN-AS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(18) DIANNE M. DALIN-AS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
@@ -1061,13 +1118,16 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;DIFFON CALUNGSOD&lt;/li&gt;</v>
+        <v>&lt;li&gt;(19) DIFFON CALUNGSOD&lt;/li&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
@@ -1076,13 +1136,16 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ELMER C. LOPEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(20) ELMER C. LOPEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
@@ -1091,13 +1154,16 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ELVIN CABAÑERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(21) ELVIN CABAÑERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
@@ -1106,13 +1172,16 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;EMMANUEL A. ENTERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(22) EMMANUEL A. ENTERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
@@ -1121,13 +1190,16 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ENCARNACION MECHELLE P.&lt;/li&gt;</v>
+        <v>&lt;li&gt;(23) ENCARNACION MECHELLE P.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
@@ -1136,13 +1208,16 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ERWIN E. TORRES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(24) ERWIN E. TORRES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
@@ -1151,13 +1226,16 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ESTELITO R SALUT JR&lt;/li&gt;</v>
+        <v>&lt;li&gt;(25) ESTELITO R SALUT JR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
@@ -1166,13 +1244,16 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;EUNICE KENEE L. SERIÑO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(26) EUNICE KENEE L. SERIÑO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>11</v>
       </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
@@ -1181,13 +1262,16 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;FHELROSE-ANNE A. YACAP&lt;/li&gt;</v>
+        <v>&lt;li&gt;(27) FHELROSE-ANNE A. YACAP&lt;/li&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
       <c r="C29" t="s">
         <v>1</v>
       </c>
@@ -1196,13 +1280,16 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;FLORTIMAH P. OBADO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(28) FLORTIMAH P. OBADO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
       <c r="C30" t="s">
         <v>1</v>
       </c>
@@ -1211,13 +1298,16 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;GEECEL F. GALVEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(29) GEECEL F. GALVEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>117</v>
       </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
@@ -1226,13 +1316,16 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;GEMMA L. CABAÑAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(30) GEMMA L. CABAÑAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -1241,13 +1334,16 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;GINA DELIMA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(31) GINA DELIMA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>123</v>
       </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
@@ -1256,13 +1352,16 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;GWENDOLYN OMALAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(32) GWENDOLYN OMALAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
@@ -1271,13 +1370,16 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;HEIDI PALER&lt;/li&gt;</v>
+        <v>&lt;li&gt;(33) HEIDI PALER&lt;/li&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
       <c r="C35" t="s">
         <v>1</v>
       </c>
@@ -1286,13 +1388,16 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;HELEN GRACE F. ORACION&lt;/li&gt;</v>
+        <v>&lt;li&gt;(34) HELEN GRACE F. ORACION&lt;/li&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>119</v>
       </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
       <c r="C36" t="s">
         <v>1</v>
       </c>
@@ -1301,13 +1406,16 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;IAN DAVE B. CUSTODIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(35) IAN DAVE B. CUSTODIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
@@ -1316,13 +1424,16 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;ISABEL E. BIHAG&lt;/li&gt;</v>
+        <v>&lt;li&gt;(36) ISABEL E. BIHAG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
@@ -1331,13 +1442,16 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAILENN JANNARAINE S. PURAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(37) JAILENN JANNARAINE S. PURAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
@@ -1346,13 +1460,16 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JANELLE P. DUMPE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(38) JANELLE P. DUMPE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
@@ -1361,13 +1478,16 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JASTINE TUMAMPO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(39) JASTINE TUMAMPO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
@@ -1376,13 +1496,16 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAY MAHUSAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(40) JAY MAHUSAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
@@ -1391,13 +1514,16 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAY-AR O. RAGUB&lt;/li&gt;</v>
+        <v>&lt;li&gt;(41) JAY-AR O. RAGUB&lt;/li&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
@@ -1406,13 +1532,16 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JAZZEL JANE M. PANERIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(42) JAZZEL JANE M. PANERIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
@@ -1421,13 +1550,16 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEFFREY LLOYD L. CAGANDE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(43) JEFFREY LLOYD L. CAGANDE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>52</v>
       </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
@@ -1436,13 +1568,16 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEMAR O.CAGASAN&lt;/li&gt;</v>
+        <v>&lt;li&gt;(44) JEMAR O.CAGASAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
@@ -1451,13 +1586,16 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEMUEL A. OCAÑADA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(45) JEMUEL A. OCAÑADA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
@@ -1466,13 +1604,16 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JENNY B. MORALES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(46) JENNY B. MORALES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
       <c r="C48" t="s">
         <v>1</v>
       </c>
@@ -1481,13 +1622,16 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JESELLE A. BUAL&lt;/li&gt;</v>
+        <v>&lt;li&gt;(47) JESELLE A. BUAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>55</v>
       </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
@@ -1496,13 +1640,16 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JESSA MAE LIBRES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(48) JESSA MAE LIBRES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
       <c r="C50" t="s">
         <v>1</v>
       </c>
@@ -1511,13 +1658,16 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JESSE OMAR L. UMDA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(49) JESSE OMAR L. UMDA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>57</v>
       </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
@@ -1526,13 +1676,16 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JEWEL LOUIE A. TOLIBAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(50) JEWEL LOUIE A. TOLIBAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>58</v>
       </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
@@ -1541,13 +1694,16 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JHAIRA MAGLUPAY SAJULGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(51) JHAIRA MAGLUPAY SAJULGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
@@ -1556,13 +1712,16 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JINKY TAFALLA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(52) JINKY TAFALLA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
@@ -1571,13 +1730,16 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOANE GAY L. ALIGWAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(53) JOANE GAY L. ALIGWAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>60</v>
       </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
@@ -1586,13 +1748,16 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOBHEL D. PARAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(54) JOBHEL D. PARAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
@@ -1601,13 +1766,16 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOE-JET F. JACOLBIA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(55) JOE-JET F. JACOLBIA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
@@ -1616,13 +1784,16 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOHN CHRISTIAN D. FERNANDEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(56) JOHN CHRISTIAN D. FERNANDEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
       <c r="C58" t="s">
         <v>1</v>
       </c>
@@ -1631,13 +1802,16 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOHN LOU B. DIAZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(57) JOHN LOU B. DIAZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
       <c r="C59" t="s">
         <v>1</v>
       </c>
@@ -1646,13 +1820,16 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JONALYN TUMAMAK&lt;/li&gt;</v>
+        <v>&lt;li&gt;(58) JONALYN TUMAMAK&lt;/li&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
       <c r="C60" t="s">
         <v>1</v>
       </c>
@@ -1661,13 +1838,16 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JONNA MAY ANGCAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(59) JONNA MAY ANGCAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
@@ -1676,13 +1856,16 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOSEPH ANDREY DACERA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(60) JOSEPH ANDREY DACERA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
@@ -1691,13 +1874,16 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JOVELYN TAÑOLA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(61) JOVELYN TAÑOLA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
@@ -1706,13 +1892,16 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;JULIUS M. MACALE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(62) JULIUS M. MACALE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
@@ -1721,13 +1910,16 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KAREN S. GONZALES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(63) KAREN S. GONZALES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
       <c r="C65" t="s">
         <v>1</v>
       </c>
@@ -1736,13 +1928,16 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KIMBERLY YAP&lt;/li&gt;</v>
+        <v>&lt;li&gt;(64) KIMBERLY YAP&lt;/li&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
       <c r="C66" t="s">
         <v>1</v>
       </c>
@@ -1751,13 +1946,16 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;KRIEZLYNN KIEL MARDO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(65) KRIEZLYNN KIEL MARDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
       <c r="C67" t="s">
         <v>1</v>
       </c>
@@ -1765,14 +1963,17 @@
         <v>2</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">C67&amp;A67&amp;D67</f>
-        <v>&lt;li&gt;KRISTEL MAY FLORES&lt;/li&gt;</v>
+        <f t="shared" ref="E67:E130" si="1">C67&amp;"("&amp;B67&amp;") "&amp;A67&amp;D67</f>
+        <v>&lt;li&gt;(66) KRISTEL MAY FLORES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
       <c r="C68" t="s">
         <v>1</v>
       </c>
@@ -1781,13 +1982,16 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;KRISTINE JOY OBRAR&lt;/li&gt;</v>
+        <v>&lt;li&gt;(67) KRISTINE JOY OBRAR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
@@ -1796,13 +2000,16 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LEAH ROSE GONZAGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(68) LEAH ROSE GONZAGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
@@ -1811,13 +2018,16 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LELETTE LYLE O. CORONA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(69) LELETTE LYLE O. CORONA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
@@ -1826,13 +2036,16 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LELITH CONGSON&lt;/li&gt;</v>
+        <v>&lt;li&gt;(70) LELITH CONGSON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
@@ -1841,13 +2054,16 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LEMUEL PRECIADOS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(71) LEMUEL PRECIADOS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
@@ -1856,13 +2072,16 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LINNITO PASCUAL&lt;/li&gt;</v>
+        <v>&lt;li&gt;(72) LINNITO PASCUAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
@@ -1871,13 +2090,16 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LOVELY JOY INTE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(73) LOVELY JOY INTE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
@@ -1886,13 +2108,16 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LYKA ARTUGUE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(74) LYKA ARTUGUE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
@@ -1901,13 +2126,16 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;LYRA KATRINA M. MALPAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(75) LYRA KATRINA M. MALPAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
@@ -1916,13 +2144,16 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MA. FE O. BASCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(76) MA. FE O. BASCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
@@ -1931,13 +2162,16 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MA. ISTEFANIE ABELARDO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(77) MA. ISTEFANIE ABELARDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
@@ -1946,13 +2180,16 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MA. THERESA P. LORETO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(78) MA. THERESA P. LORETO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
@@ -1961,13 +2198,16 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MAE ANN A BRAVO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(79) MAE ANN A BRAVO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
@@ -1976,13 +2216,16 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARDEE B. MELGAZO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(80) MARDEE B. MELGAZO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
@@ -1991,13 +2234,16 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIA CRISANDRA OLIVEROS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(81) MARIA CRISANDRA OLIVEROS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
@@ -2006,13 +2252,16 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIA LEVY CHAVEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(82) MARIA LEVY CHAVEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
@@ -2021,13 +2270,16 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIE JOY P. SALUNDAGUIT&lt;/li&gt;</v>
+        <v>&lt;li&gt;(83) MARIE JOY P. SALUNDAGUIT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>87</v>
       </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
       <c r="C85" t="s">
         <v>1</v>
       </c>
@@ -2036,13 +2288,16 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARIELLE DIAZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(84) MARIELLE DIAZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
       <c r="C86" t="s">
         <v>1</v>
       </c>
@@ -2051,13 +2306,16 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARY GIL D. GORON&lt;/li&gt;</v>
+        <v>&lt;li&gt;(85) MARY GIL D. GORON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>89</v>
       </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
       <c r="C87" t="s">
         <v>1</v>
       </c>
@@ -2066,13 +2324,16 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARY JANE SOLIS REVILLAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(86) MARY JANE SOLIS REVILLAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>90</v>
       </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
       <c r="C88" t="s">
         <v>1</v>
       </c>
@@ -2081,13 +2342,16 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MARY REINA D. SUMAYA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(87) MARY REINA D. SUMAYA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>91</v>
       </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
@@ -2096,13 +2360,16 @@
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MERLITA D. VELOSO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(88) MERLITA D. VELOSO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>92</v>
       </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
@@ -2111,13 +2378,16 @@
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MICHELLE ABRIGANA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(89) MICHELLE ABRIGANA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>93</v>
       </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
       <c r="C91" t="s">
         <v>1</v>
       </c>
@@ -2126,13 +2396,16 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MICHELLE ANN J. BUOT&lt;/li&gt;</v>
+        <v>&lt;li&gt;(90) MICHELLE ANN J. BUOT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>94</v>
       </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
@@ -2141,13 +2414,16 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MICHELLE ANN M. JUNCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(91) MICHELLE ANN M. JUNCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>95</v>
       </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
@@ -2156,13 +2432,16 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;MIGUEL RAZAGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(92) MIGUEL RAZAGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>96</v>
       </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
@@ -2171,13 +2450,16 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;NATHANIEL C. CABAÑERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(93) NATHANIEL C. CABAÑERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>97</v>
       </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
@@ -2186,13 +2468,16 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;NIÑO JOHN C. VITOR&lt;/li&gt;</v>
+        <v>&lt;li&gt;(94) NIÑO JOHN C. VITOR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>98</v>
       </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
@@ -2201,13 +2486,16 @@
       </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;NYMPHMARY DAPHNE SANTIAGO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(95) NYMPHMARY DAPHNE SANTIAGO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>99</v>
       </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
@@ -2216,13 +2504,16 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;PAULINE KRIZZIA A. MAPULA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(96) PAULINE KRIZZIA A. MAPULA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>15</v>
       </c>
+      <c r="B98">
+        <v>97</v>
+      </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
@@ -2231,13 +2522,16 @@
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;QUENSTEIN D. LAUZON&lt;/li&gt;</v>
+        <v>&lt;li&gt;(97) QUENSTEIN D. LAUZON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
+      <c r="B99">
+        <v>98</v>
+      </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
@@ -2246,13 +2540,16 @@
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RACHELL ANN T. UMBAO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(98) RACHELL ANN T. UMBAO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
       <c r="C100" t="s">
         <v>1</v>
       </c>
@@ -2261,13 +2558,16 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RACHELLE ANN L SANTOS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(99) RACHELLE ANN L SANTOS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
@@ -2276,13 +2576,16 @@
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RAFAEL JUNNAR P. DUMALAN&lt;/li&gt;</v>
+        <v>&lt;li&gt;(100) RAFAEL JUNNAR P. DUMALAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
+      <c r="B102">
+        <v>101</v>
+      </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
@@ -2291,13 +2594,16 @@
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RAMELYN ALBESA RICO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(101) RAMELYN ALBESA RICO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>122</v>
       </c>
+      <c r="B103">
+        <v>102</v>
+      </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
@@ -2306,13 +2612,16 @@
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RHENA JANE SORIA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(102) RHENA JANE SORIA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
+      <c r="B104">
+        <v>103</v>
+      </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
@@ -2321,13 +2630,16 @@
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RHENA REY M. TUMULAK&lt;/li&gt;</v>
+        <v>&lt;li&gt;(103) RHENA REY M. TUMULAK&lt;/li&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
@@ -2336,13 +2648,16 @@
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RICHARD Q. ONTOY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(104) RICHARD Q. ONTOY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
+      <c r="B106">
+        <v>105</v>
+      </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
@@ -2351,13 +2666,16 @@
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RIO ROSA B. SABANDO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(105) RIO ROSA B. SABANDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>9</v>
       </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
@@ -2366,13 +2684,16 @@
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RIZA S. LAUDE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(106) RIZA S. LAUDE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
@@ -2381,13 +2702,16 @@
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ROLANDO C. NEGROSA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(107) ROLANDO C. NEGROSA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>106</v>
       </c>
+      <c r="B109">
+        <v>108</v>
+      </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
@@ -2396,13 +2720,16 @@
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ROLEN A. BOCOG&lt;/li&gt;</v>
+        <v>&lt;li&gt;(108) ROLEN A. BOCOG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>107</v>
       </c>
+      <c r="B110">
+        <v>109</v>
+      </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
@@ -2411,13 +2738,16 @@
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ROYCE ALEXIS LUCAÑAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(109) ROYCE ALEXIS LUCAÑAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>108</v>
       </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
@@ -2426,13 +2756,16 @@
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RUBEN S. DIANA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(110) RUBEN S. DIANA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>109</v>
       </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
@@ -2441,13 +2774,16 @@
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;RUSSELL MARIE DONATO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(111) RUSSELL MARIE DONATO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>110</v>
       </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
@@ -2456,13 +2792,16 @@
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;SCZALI JEWESS FE L CAINTIC&lt;/li&gt;</v>
+        <v>&lt;li&gt;(112) SCZALI JEWESS FE L CAINTIC&lt;/li&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>111</v>
       </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
@@ -2471,13 +2810,16 @@
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;STAECY A. MEJARES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(113) STAECY A. MEJARES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>112</v>
       </c>
+      <c r="B115">
+        <v>114</v>
+      </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
@@ -2486,13 +2828,16 @@
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;STEPHANIE B. SABALZA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(114) STEPHANIE B. SABALZA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>120</v>
       </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
@@ -2501,13 +2846,16 @@
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;VERGIE ANN GALENZOGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(115) VERGIE ANN GALENZOGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>113</v>
       </c>
+      <c r="B117">
+        <v>116</v>
+      </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
@@ -2516,13 +2864,16 @@
       </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;VINCE G. LAO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(116) VINCE G. LAO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
@@ -2531,13 +2882,16 @@
       </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;WENDY C. ENERLAN&lt;/li&gt;</v>
+        <v>&lt;li&gt;(117) WENDY C. ENERLAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>114</v>
       </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
@@ -2546,13 +2900,16 @@
       </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;WYATTEARP A. GARCIA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(118) WYATTEARP A. GARCIA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>115</v>
       </c>
+      <c r="B120">
+        <v>119</v>
+      </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
@@ -2561,13 +2918,16 @@
       </c>
       <c r="E120" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;YSSAKHAR A. SALAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(119) YSSAKHAR A. SALAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>116</v>
       </c>
+      <c r="B121">
+        <v>120</v>
+      </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
@@ -2576,10 +2936,13 @@
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;ZARLIN JECEL COMPENDIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(120) ZARLIN JECEL COMPENDIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>121</v>
+      </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
@@ -2588,10 +2951,13 @@
       </c>
       <c r="E122" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
+        <v>&lt;li&gt;(121) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>122</v>
+      </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
@@ -2600,10 +2966,13 @@
       </c>
       <c r="E123" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
+        <v>&lt;li&gt;(122) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>123</v>
+      </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
@@ -2612,10 +2981,13 @@
       </c>
       <c r="E124" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
+        <v>&lt;li&gt;(123) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>124</v>
+      </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
@@ -2624,10 +2996,13 @@
       </c>
       <c r="E125" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
+        <v>&lt;li&gt;(124) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>125</v>
+      </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
@@ -2636,10 +3011,13 @@
       </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
+        <v>&lt;li&gt;(125) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>126</v>
+      </c>
       <c r="C127" t="s">
         <v>1</v>
       </c>
@@ -2648,10 +3026,13 @@
       </c>
       <c r="E127" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
+        <v>&lt;li&gt;(126) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>127</v>
+      </c>
       <c r="C128" t="s">
         <v>1</v>
       </c>
@@ -2660,10 +3041,13 @@
       </c>
       <c r="E128" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(127) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>128</v>
+      </c>
       <c r="C129" t="s">
         <v>1</v>
       </c>
@@ -2672,10 +3056,13 @@
       </c>
       <c r="E129" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(128) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>129</v>
+      </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
@@ -2684,10 +3071,13 @@
       </c>
       <c r="E130" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(129) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>130</v>
+      </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
@@ -2695,11 +3085,14 @@
         <v>2</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="2">C131&amp;A131&amp;D131</f>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E131:E194" si="2">C131&amp;"("&amp;B131&amp;") "&amp;A131&amp;D131</f>
+        <v>&lt;li&gt;(130) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>131</v>
+      </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
@@ -2708,10 +3101,13 @@
       </c>
       <c r="E132" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(131) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>132</v>
+      </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
@@ -2720,10 +3116,13 @@
       </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(132) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>133</v>
+      </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
@@ -2732,10 +3131,13 @@
       </c>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(133) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>134</v>
+      </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
@@ -2744,10 +3146,13 @@
       </c>
       <c r="E135" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(134) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>135</v>
+      </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
@@ -2756,10 +3161,13 @@
       </c>
       <c r="E136" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(135) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>136</v>
+      </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
@@ -2768,10 +3176,13 @@
       </c>
       <c r="E137" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(136) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>137</v>
+      </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
@@ -2780,10 +3191,13 @@
       </c>
       <c r="E138" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(137) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>138</v>
+      </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
@@ -2792,10 +3206,13 @@
       </c>
       <c r="E139" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(138) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>139</v>
+      </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
@@ -2804,10 +3221,13 @@
       </c>
       <c r="E140" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(139) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>140</v>
+      </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
@@ -2816,10 +3236,13 @@
       </c>
       <c r="E141" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(140) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>141</v>
+      </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
@@ -2828,10 +3251,13 @@
       </c>
       <c r="E142" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(141) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>142</v>
+      </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
@@ -2840,10 +3266,13 @@
       </c>
       <c r="E143" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(142) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>143</v>
+      </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
@@ -2852,10 +3281,13 @@
       </c>
       <c r="E144" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(143) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>144</v>
+      </c>
       <c r="C145" t="s">
         <v>1</v>
       </c>
@@ -2864,10 +3296,13 @@
       </c>
       <c r="E145" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(144) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>145</v>
+      </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
@@ -2876,10 +3311,13 @@
       </c>
       <c r="E146" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(145) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>146</v>
+      </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
@@ -2888,10 +3326,13 @@
       </c>
       <c r="E147" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(146) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>147</v>
+      </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
@@ -2900,10 +3341,13 @@
       </c>
       <c r="E148" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(147) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>148</v>
+      </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
@@ -2912,10 +3356,13 @@
       </c>
       <c r="E149" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(148) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>149</v>
+      </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
@@ -2924,10 +3371,13 @@
       </c>
       <c r="E150" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(149) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>150</v>
+      </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
@@ -2936,10 +3386,13 @@
       </c>
       <c r="E151" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(150) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>151</v>
+      </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
@@ -2948,10 +3401,13 @@
       </c>
       <c r="E152" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(151) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>152</v>
+      </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
@@ -2960,10 +3416,13 @@
       </c>
       <c r="E153" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(152) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>153</v>
+      </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
@@ -2972,10 +3431,13 @@
       </c>
       <c r="E154" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(153) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>154</v>
+      </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
@@ -2984,10 +3446,13 @@
       </c>
       <c r="E155" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(154) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>155</v>
+      </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
@@ -2996,10 +3461,13 @@
       </c>
       <c r="E156" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(155) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>156</v>
+      </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
@@ -3008,10 +3476,13 @@
       </c>
       <c r="E157" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(156) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>157</v>
+      </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
@@ -3020,10 +3491,13 @@
       </c>
       <c r="E158" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(157) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>158</v>
+      </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
@@ -3032,10 +3506,13 @@
       </c>
       <c r="E159" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(158) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>159</v>
+      </c>
       <c r="C160" t="s">
         <v>1</v>
       </c>
@@ -3044,10 +3521,13 @@
       </c>
       <c r="E160" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(159) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>160</v>
+      </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
@@ -3056,10 +3536,13 @@
       </c>
       <c r="E161" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(160) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>161</v>
+      </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
@@ -3068,10 +3551,13 @@
       </c>
       <c r="E162" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(161) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>162</v>
+      </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
@@ -3080,10 +3566,13 @@
       </c>
       <c r="E163" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(162) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>163</v>
+      </c>
       <c r="C164" t="s">
         <v>1</v>
       </c>
@@ -3092,10 +3581,13 @@
       </c>
       <c r="E164" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(163) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>164</v>
+      </c>
       <c r="C165" t="s">
         <v>1</v>
       </c>
@@ -3104,10 +3596,13 @@
       </c>
       <c r="E165" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(164) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>165</v>
+      </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
@@ -3116,10 +3611,13 @@
       </c>
       <c r="E166" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(165) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>166</v>
+      </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
@@ -3128,10 +3626,13 @@
       </c>
       <c r="E167" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(166) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>167</v>
+      </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
@@ -3140,10 +3641,13 @@
       </c>
       <c r="E168" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(167) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>168</v>
+      </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
@@ -3152,10 +3656,13 @@
       </c>
       <c r="E169" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(168) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>169</v>
+      </c>
       <c r="C170" t="s">
         <v>1</v>
       </c>
@@ -3164,10 +3671,13 @@
       </c>
       <c r="E170" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(169) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>170</v>
+      </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
@@ -3176,10 +3686,13 @@
       </c>
       <c r="E171" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(170) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>171</v>
+      </c>
       <c r="C172" t="s">
         <v>1</v>
       </c>
@@ -3188,10 +3701,13 @@
       </c>
       <c r="E172" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(171) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>172</v>
+      </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
@@ -3200,10 +3716,13 @@
       </c>
       <c r="E173" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(172) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>173</v>
+      </c>
       <c r="C174" t="s">
         <v>1</v>
       </c>
@@ -3212,10 +3731,13 @@
       </c>
       <c r="E174" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(173) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>174</v>
+      </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
@@ -3224,10 +3746,13 @@
       </c>
       <c r="E175" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(174) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>175</v>
+      </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
@@ -3236,10 +3761,13 @@
       </c>
       <c r="E176" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(175) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>176</v>
+      </c>
       <c r="C177" t="s">
         <v>1</v>
       </c>
@@ -3248,10 +3776,13 @@
       </c>
       <c r="E177" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(176) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>177</v>
+      </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
@@ -3260,10 +3791,13 @@
       </c>
       <c r="E178" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(177) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>178</v>
+      </c>
       <c r="C179" t="s">
         <v>1</v>
       </c>
@@ -3272,10 +3806,13 @@
       </c>
       <c r="E179" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(178) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>179</v>
+      </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
@@ -3284,10 +3821,13 @@
       </c>
       <c r="E180" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(179) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>180</v>
+      </c>
       <c r="C181" t="s">
         <v>1</v>
       </c>
@@ -3296,10 +3836,13 @@
       </c>
       <c r="E181" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(180) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>181</v>
+      </c>
       <c r="C182" t="s">
         <v>1</v>
       </c>
@@ -3308,10 +3851,13 @@
       </c>
       <c r="E182" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(181) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>182</v>
+      </c>
       <c r="C183" t="s">
         <v>1</v>
       </c>
@@ -3320,10 +3866,13 @@
       </c>
       <c r="E183" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(182) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>183</v>
+      </c>
       <c r="C184" t="s">
         <v>1</v>
       </c>
@@ -3332,10 +3881,13 @@
       </c>
       <c r="E184" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(183) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>184</v>
+      </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
@@ -3344,10 +3896,13 @@
       </c>
       <c r="E185" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(184) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>185</v>
+      </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
@@ -3356,10 +3911,13 @@
       </c>
       <c r="E186" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(185) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>186</v>
+      </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
@@ -3368,10 +3926,13 @@
       </c>
       <c r="E187" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(186) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>187</v>
+      </c>
       <c r="C188" t="s">
         <v>1</v>
       </c>
@@ -3380,10 +3941,13 @@
       </c>
       <c r="E188" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(187) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>188</v>
+      </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
@@ -3392,10 +3956,13 @@
       </c>
       <c r="E189" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(188) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>189</v>
+      </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
@@ -3404,10 +3971,13 @@
       </c>
       <c r="E190" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(189) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>190</v>
+      </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
@@ -3416,10 +3986,13 @@
       </c>
       <c r="E191" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(190) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>191</v>
+      </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
@@ -3428,10 +4001,13 @@
       </c>
       <c r="E192" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(191) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>192</v>
+      </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
@@ -3440,10 +4016,13 @@
       </c>
       <c r="E193" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(192) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>193</v>
+      </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
@@ -3452,10 +4031,13 @@
       </c>
       <c r="E194" t="str">
         <f t="shared" si="2"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(193) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>194</v>
+      </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
@@ -3463,11 +4045,14 @@
         <v>2</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" ref="E195:E258" si="3">C195&amp;A195&amp;D195</f>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E195:E258" si="3">C195&amp;"("&amp;B195&amp;") "&amp;A195&amp;D195</f>
+        <v>&lt;li&gt;(194) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>195</v>
+      </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
@@ -3476,10 +4061,13 @@
       </c>
       <c r="E196" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(195) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>196</v>
+      </c>
       <c r="C197" t="s">
         <v>1</v>
       </c>
@@ -3488,10 +4076,13 @@
       </c>
       <c r="E197" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(196) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>197</v>
+      </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
@@ -3500,10 +4091,13 @@
       </c>
       <c r="E198" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(197) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>198</v>
+      </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
@@ -3512,10 +4106,13 @@
       </c>
       <c r="E199" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(198) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>199</v>
+      </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
@@ -3524,10 +4121,13 @@
       </c>
       <c r="E200" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(199) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>200</v>
+      </c>
       <c r="C201" t="s">
         <v>1</v>
       </c>
@@ -3536,10 +4136,13 @@
       </c>
       <c r="E201" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(200) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>201</v>
+      </c>
       <c r="C202" t="s">
         <v>1</v>
       </c>
@@ -3548,10 +4151,13 @@
       </c>
       <c r="E202" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(201) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>202</v>
+      </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
@@ -3560,10 +4166,13 @@
       </c>
       <c r="E203" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(202) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>203</v>
+      </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
@@ -3572,10 +4181,13 @@
       </c>
       <c r="E204" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(203) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>204</v>
+      </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
@@ -3584,10 +4196,13 @@
       </c>
       <c r="E205" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(204) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>205</v>
+      </c>
       <c r="C206" t="s">
         <v>1</v>
       </c>
@@ -3596,10 +4211,13 @@
       </c>
       <c r="E206" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(205) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>206</v>
+      </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
@@ -3608,10 +4226,13 @@
       </c>
       <c r="E207" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(206) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>207</v>
+      </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
@@ -3620,10 +4241,13 @@
       </c>
       <c r="E208" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(207) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>208</v>
+      </c>
       <c r="C209" t="s">
         <v>1</v>
       </c>
@@ -3632,10 +4256,13 @@
       </c>
       <c r="E209" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(208) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>209</v>
+      </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
@@ -3644,10 +4271,13 @@
       </c>
       <c r="E210" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(209) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>210</v>
+      </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
@@ -3656,10 +4286,13 @@
       </c>
       <c r="E211" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(210) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>211</v>
+      </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
@@ -3668,10 +4301,13 @@
       </c>
       <c r="E212" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(211) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>212</v>
+      </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
@@ -3680,10 +4316,13 @@
       </c>
       <c r="E213" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(212) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>213</v>
+      </c>
       <c r="C214" t="s">
         <v>1</v>
       </c>
@@ -3692,10 +4331,13 @@
       </c>
       <c r="E214" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(213) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>214</v>
+      </c>
       <c r="C215" t="s">
         <v>1</v>
       </c>
@@ -3704,10 +4346,13 @@
       </c>
       <c r="E215" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(214) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>215</v>
+      </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
@@ -3716,10 +4361,13 @@
       </c>
       <c r="E216" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(215) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>216</v>
+      </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
@@ -3728,10 +4376,13 @@
       </c>
       <c r="E217" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(216) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>217</v>
+      </c>
       <c r="C218" t="s">
         <v>1</v>
       </c>
@@ -3740,10 +4391,13 @@
       </c>
       <c r="E218" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(217) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>218</v>
+      </c>
       <c r="C219" t="s">
         <v>1</v>
       </c>
@@ -3752,10 +4406,13 @@
       </c>
       <c r="E219" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(218) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>219</v>
+      </c>
       <c r="C220" t="s">
         <v>1</v>
       </c>
@@ -3764,10 +4421,13 @@
       </c>
       <c r="E220" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(219) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>220</v>
+      </c>
       <c r="C221" t="s">
         <v>1</v>
       </c>
@@ -3776,10 +4436,13 @@
       </c>
       <c r="E221" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(220) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>221</v>
+      </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
@@ -3788,10 +4451,13 @@
       </c>
       <c r="E222" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(221) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>222</v>
+      </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
@@ -3800,10 +4466,13 @@
       </c>
       <c r="E223" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(222) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>223</v>
+      </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
@@ -3812,10 +4481,13 @@
       </c>
       <c r="E224" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(223) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>224</v>
+      </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
@@ -3824,10 +4496,13 @@
       </c>
       <c r="E225" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(224) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>225</v>
+      </c>
       <c r="C226" t="s">
         <v>1</v>
       </c>
@@ -3836,10 +4511,13 @@
       </c>
       <c r="E226" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(225) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>226</v>
+      </c>
       <c r="C227" t="s">
         <v>1</v>
       </c>
@@ -3848,10 +4526,13 @@
       </c>
       <c r="E227" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(226) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>227</v>
+      </c>
       <c r="C228" t="s">
         <v>1</v>
       </c>
@@ -3860,10 +4541,13 @@
       </c>
       <c r="E228" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(227) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>228</v>
+      </c>
       <c r="C229" t="s">
         <v>1</v>
       </c>
@@ -3872,10 +4556,13 @@
       </c>
       <c r="E229" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(228) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>229</v>
+      </c>
       <c r="C230" t="s">
         <v>1</v>
       </c>
@@ -3884,10 +4571,13 @@
       </c>
       <c r="E230" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(229) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>230</v>
+      </c>
       <c r="C231" t="s">
         <v>1</v>
       </c>
@@ -3896,10 +4586,13 @@
       </c>
       <c r="E231" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(230) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>231</v>
+      </c>
       <c r="C232" t="s">
         <v>1</v>
       </c>
@@ -3908,10 +4601,13 @@
       </c>
       <c r="E232" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(231) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>232</v>
+      </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
@@ -3920,10 +4616,13 @@
       </c>
       <c r="E233" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(232) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>233</v>
+      </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
@@ -3932,10 +4631,13 @@
       </c>
       <c r="E234" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(233) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>234</v>
+      </c>
       <c r="C235" t="s">
         <v>1</v>
       </c>
@@ -3944,10 +4646,13 @@
       </c>
       <c r="E235" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(234) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>235</v>
+      </c>
       <c r="C236" t="s">
         <v>1</v>
       </c>
@@ -3956,10 +4661,13 @@
       </c>
       <c r="E236" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(235) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>236</v>
+      </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
@@ -3968,10 +4676,13 @@
       </c>
       <c r="E237" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(236) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>237</v>
+      </c>
       <c r="C238" t="s">
         <v>1</v>
       </c>
@@ -3980,10 +4691,13 @@
       </c>
       <c r="E238" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(237) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>238</v>
+      </c>
       <c r="C239" t="s">
         <v>1</v>
       </c>
@@ -3992,10 +4706,13 @@
       </c>
       <c r="E239" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(238) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>239</v>
+      </c>
       <c r="C240" t="s">
         <v>1</v>
       </c>
@@ -4004,10 +4721,13 @@
       </c>
       <c r="E240" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(239) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>240</v>
+      </c>
       <c r="C241" t="s">
         <v>1</v>
       </c>
@@ -4016,10 +4736,13 @@
       </c>
       <c r="E241" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(240) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>241</v>
+      </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
@@ -4028,10 +4751,13 @@
       </c>
       <c r="E242" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(241) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>242</v>
+      </c>
       <c r="C243" t="s">
         <v>1</v>
       </c>
@@ -4040,10 +4766,13 @@
       </c>
       <c r="E243" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(242) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>243</v>
+      </c>
       <c r="C244" t="s">
         <v>1</v>
       </c>
@@ -4052,10 +4781,13 @@
       </c>
       <c r="E244" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(243) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>244</v>
+      </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
@@ -4064,10 +4796,13 @@
       </c>
       <c r="E245" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(244) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>245</v>
+      </c>
       <c r="C246" t="s">
         <v>1</v>
       </c>
@@ -4076,10 +4811,13 @@
       </c>
       <c r="E246" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(245) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>246</v>
+      </c>
       <c r="C247" t="s">
         <v>1</v>
       </c>
@@ -4088,10 +4826,13 @@
       </c>
       <c r="E247" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(246) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>247</v>
+      </c>
       <c r="C248" t="s">
         <v>1</v>
       </c>
@@ -4100,10 +4841,13 @@
       </c>
       <c r="E248" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(247) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>248</v>
+      </c>
       <c r="C249" t="s">
         <v>1</v>
       </c>
@@ -4112,10 +4856,13 @@
       </c>
       <c r="E249" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(248) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>249</v>
+      </c>
       <c r="C250" t="s">
         <v>1</v>
       </c>
@@ -4124,10 +4871,13 @@
       </c>
       <c r="E250" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(249) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>250</v>
+      </c>
       <c r="C251" t="s">
         <v>1</v>
       </c>
@@ -4136,10 +4886,13 @@
       </c>
       <c r="E251" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(250) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>251</v>
+      </c>
       <c r="C252" t="s">
         <v>1</v>
       </c>
@@ -4148,10 +4901,13 @@
       </c>
       <c r="E252" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(251) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>252</v>
+      </c>
       <c r="C253" t="s">
         <v>1</v>
       </c>
@@ -4160,10 +4916,13 @@
       </c>
       <c r="E253" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(252) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>253</v>
+      </c>
       <c r="C254" t="s">
         <v>1</v>
       </c>
@@ -4172,10 +4931,13 @@
       </c>
       <c r="E254" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(253) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>254</v>
+      </c>
       <c r="C255" t="s">
         <v>1</v>
       </c>
@@ -4184,10 +4946,13 @@
       </c>
       <c r="E255" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(254) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>255</v>
+      </c>
       <c r="C256" t="s">
         <v>1</v>
       </c>
@@ -4196,10 +4961,13 @@
       </c>
       <c r="E256" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(255) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>256</v>
+      </c>
       <c r="C257" t="s">
         <v>1</v>
       </c>
@@ -4208,10 +4976,13 @@
       </c>
       <c r="E257" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(256) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>257</v>
+      </c>
       <c r="C258" t="s">
         <v>1</v>
       </c>
@@ -4220,10 +4991,13 @@
       </c>
       <c r="E258" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(257) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>258</v>
+      </c>
       <c r="C259" t="s">
         <v>1</v>
       </c>
@@ -4231,11 +5005,14 @@
         <v>2</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" ref="E259:E300" si="4">C259&amp;A259&amp;D259</f>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E259:E300" si="4">C259&amp;"("&amp;B259&amp;") "&amp;A259&amp;D259</f>
+        <v>&lt;li&gt;(258) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>259</v>
+      </c>
       <c r="C260" t="s">
         <v>1</v>
       </c>
@@ -4244,10 +5021,13 @@
       </c>
       <c r="E260" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(259) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>260</v>
+      </c>
       <c r="C261" t="s">
         <v>1</v>
       </c>
@@ -4256,10 +5036,13 @@
       </c>
       <c r="E261" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(260) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>261</v>
+      </c>
       <c r="C262" t="s">
         <v>1</v>
       </c>
@@ -4268,10 +5051,13 @@
       </c>
       <c r="E262" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(261) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>262</v>
+      </c>
       <c r="C263" t="s">
         <v>1</v>
       </c>
@@ -4280,10 +5066,13 @@
       </c>
       <c r="E263" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(262) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>263</v>
+      </c>
       <c r="C264" t="s">
         <v>1</v>
       </c>
@@ -4292,10 +5081,13 @@
       </c>
       <c r="E264" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(263) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>264</v>
+      </c>
       <c r="C265" t="s">
         <v>1</v>
       </c>
@@ -4304,10 +5096,13 @@
       </c>
       <c r="E265" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(264) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>265</v>
+      </c>
       <c r="C266" t="s">
         <v>1</v>
       </c>
@@ -4316,10 +5111,13 @@
       </c>
       <c r="E266" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(265) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>266</v>
+      </c>
       <c r="C267" t="s">
         <v>1</v>
       </c>
@@ -4328,10 +5126,13 @@
       </c>
       <c r="E267" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(266) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>267</v>
+      </c>
       <c r="C268" t="s">
         <v>1</v>
       </c>
@@ -4340,10 +5141,13 @@
       </c>
       <c r="E268" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(267) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>268</v>
+      </c>
       <c r="C269" t="s">
         <v>1</v>
       </c>
@@ -4352,10 +5156,13 @@
       </c>
       <c r="E269" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(268) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>269</v>
+      </c>
       <c r="C270" t="s">
         <v>1</v>
       </c>
@@ -4364,10 +5171,13 @@
       </c>
       <c r="E270" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(269) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>270</v>
+      </c>
       <c r="C271" t="s">
         <v>1</v>
       </c>
@@ -4376,10 +5186,13 @@
       </c>
       <c r="E271" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(270) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>271</v>
+      </c>
       <c r="C272" t="s">
         <v>1</v>
       </c>
@@ -4388,10 +5201,13 @@
       </c>
       <c r="E272" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(271) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>272</v>
+      </c>
       <c r="C273" t="s">
         <v>1</v>
       </c>
@@ -4400,10 +5216,13 @@
       </c>
       <c r="E273" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(272) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>273</v>
+      </c>
       <c r="C274" t="s">
         <v>1</v>
       </c>
@@ -4412,10 +5231,13 @@
       </c>
       <c r="E274" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(273) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>274</v>
+      </c>
       <c r="C275" t="s">
         <v>1</v>
       </c>
@@ -4424,10 +5246,13 @@
       </c>
       <c r="E275" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(274) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>275</v>
+      </c>
       <c r="C276" t="s">
         <v>1</v>
       </c>
@@ -4436,10 +5261,13 @@
       </c>
       <c r="E276" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(275) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>276</v>
+      </c>
       <c r="C277" t="s">
         <v>1</v>
       </c>
@@ -4448,10 +5276,13 @@
       </c>
       <c r="E277" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(276) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>277</v>
+      </c>
       <c r="C278" t="s">
         <v>1</v>
       </c>
@@ -4460,10 +5291,13 @@
       </c>
       <c r="E278" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(277) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>278</v>
+      </c>
       <c r="C279" t="s">
         <v>1</v>
       </c>
@@ -4472,10 +5306,13 @@
       </c>
       <c r="E279" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(278) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>279</v>
+      </c>
       <c r="C280" t="s">
         <v>1</v>
       </c>
@@ -4484,10 +5321,13 @@
       </c>
       <c r="E280" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="281" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(279) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>280</v>
+      </c>
       <c r="C281" t="s">
         <v>1</v>
       </c>
@@ -4496,10 +5336,13 @@
       </c>
       <c r="E281" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="282" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(280) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>281</v>
+      </c>
       <c r="C282" t="s">
         <v>1</v>
       </c>
@@ -4508,10 +5351,13 @@
       </c>
       <c r="E282" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="283" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(281) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>282</v>
+      </c>
       <c r="C283" t="s">
         <v>1</v>
       </c>
@@ -4520,10 +5366,13 @@
       </c>
       <c r="E283" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="284" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(282) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>283</v>
+      </c>
       <c r="C284" t="s">
         <v>1</v>
       </c>
@@ -4532,10 +5381,13 @@
       </c>
       <c r="E284" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="285" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(283) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>284</v>
+      </c>
       <c r="C285" t="s">
         <v>1</v>
       </c>
@@ -4544,10 +5396,13 @@
       </c>
       <c r="E285" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="286" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(284) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>285</v>
+      </c>
       <c r="C286" t="s">
         <v>1</v>
       </c>
@@ -4556,10 +5411,13 @@
       </c>
       <c r="E286" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="287" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(285) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>286</v>
+      </c>
       <c r="C287" t="s">
         <v>1</v>
       </c>
@@ -4568,10 +5426,13 @@
       </c>
       <c r="E287" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="288" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(286) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>287</v>
+      </c>
       <c r="C288" t="s">
         <v>1</v>
       </c>
@@ -4580,10 +5441,13 @@
       </c>
       <c r="E288" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="289" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(287) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>288</v>
+      </c>
       <c r="C289" t="s">
         <v>1</v>
       </c>
@@ -4592,10 +5456,13 @@
       </c>
       <c r="E289" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="290" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(288) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>289</v>
+      </c>
       <c r="C290" t="s">
         <v>1</v>
       </c>
@@ -4604,10 +5471,13 @@
       </c>
       <c r="E290" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="291" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(289) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>290</v>
+      </c>
       <c r="C291" t="s">
         <v>1</v>
       </c>
@@ -4616,10 +5486,13 @@
       </c>
       <c r="E291" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="292" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(290) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>291</v>
+      </c>
       <c r="C292" t="s">
         <v>1</v>
       </c>
@@ -4628,10 +5501,13 @@
       </c>
       <c r="E292" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="293" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(291) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>292</v>
+      </c>
       <c r="C293" t="s">
         <v>1</v>
       </c>
@@ -4640,10 +5516,13 @@
       </c>
       <c r="E293" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="294" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(292) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>293</v>
+      </c>
       <c r="C294" t="s">
         <v>1</v>
       </c>
@@ -4652,10 +5531,13 @@
       </c>
       <c r="E294" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="295" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(293) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>294</v>
+      </c>
       <c r="C295" t="s">
         <v>1</v>
       </c>
@@ -4664,10 +5546,13 @@
       </c>
       <c r="E295" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="296" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(294) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>295</v>
+      </c>
       <c r="C296" t="s">
         <v>1</v>
       </c>
@@ -4676,10 +5561,13 @@
       </c>
       <c r="E296" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="297" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(295) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>296</v>
+      </c>
       <c r="C297" t="s">
         <v>1</v>
       </c>
@@ -4688,10 +5576,13 @@
       </c>
       <c r="E297" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="298" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(296) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>297</v>
+      </c>
       <c r="C298" t="s">
         <v>1</v>
       </c>
@@ -4700,10 +5591,13 @@
       </c>
       <c r="E298" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="299" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(297) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>298</v>
+      </c>
       <c r="C299" t="s">
         <v>1</v>
       </c>
@@ -4712,10 +5606,13 @@
       </c>
       <c r="E299" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="300" spans="3:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(298) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>299</v>
+      </c>
       <c r="C300" t="s">
         <v>1</v>
       </c>
@@ -4724,7 +5621,22 @@
       </c>
       <c r="E300" t="str">
         <f t="shared" si="4"/>
-        <v>&lt;li&gt;&lt;/li&gt;</v>
+        <v>&lt;li&gt;(299) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>300</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>2</v>
+      </c>
+      <c r="E301" t="str">
+        <f>C301&amp;"("&amp;B301&amp;") "&amp;A301&amp;D301</f>
+        <v>&lt;li&gt;(300) &lt;/li&gt;</v>
       </c>
     </row>
   </sheetData>

--- a/certificates/HTML Code.xlsx
+++ b/certificates/HTML Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Dave B. Custodio\Google Drive\OtherFiles\05 GitHub\cmevsu.github.io\certificates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iandavecustodio@gmail.com\OtherFiles\05 GitHub\cmevsu.github.io\certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F30CD47-8F39-4302-AB84-E438E56A7BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B0767-8B7F-4494-BB55-5972B688702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{292162B3-C305-466A-B9FF-5656A51BBEEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{292162B3-C305-466A-B9FF-5656A51BBEEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="57">
   <si>
     <t>Name of Participants</t>
   </si>
@@ -52,345 +52,60 @@
     <t>MARIE JOY P. SALUNDAGUIT</t>
   </si>
   <si>
-    <t>ROLANDO C. NEGROSA</t>
-  </si>
-  <si>
-    <t>MA. ISTEFANIE ABELARDO</t>
-  </si>
-  <si>
-    <t>ESTELITO R SALUT JR</t>
-  </si>
-  <si>
-    <t>DIANNE M. DALIN-AS</t>
-  </si>
-  <si>
     <t>RIZA S. LAUDE</t>
   </si>
   <si>
-    <t>DANIELA MARIE S. DAGOTDOT</t>
-  </si>
-  <si>
-    <t>FHELROSE-ANNE A. YACAP</t>
-  </si>
-  <si>
-    <t>CRISTY ANN D. VARRON</t>
-  </si>
-  <si>
-    <t>JOE-JET F. JACOLBIA</t>
-  </si>
-  <si>
-    <t>JINKY TAFALLA</t>
-  </si>
-  <si>
     <t>QUENSTEIN D. LAUZON</t>
   </si>
   <si>
-    <t>RACHELLE ANN L SANTOS</t>
-  </si>
-  <si>
     <t>JENNY B. MORALES</t>
   </si>
   <si>
-    <t>JAZZEL JANE M. PANERIO</t>
-  </si>
-  <si>
-    <t>CRISLIN CRUZ</t>
-  </si>
-  <si>
-    <t>AL FRANCIS BIOC</t>
-  </si>
-  <si>
-    <t>ALJEN C. BATICAN</t>
-  </si>
-  <si>
     <t>ALMAREJEN O. ABAYABAY</t>
   </si>
   <si>
-    <t>ANGELICA JANE SUERTE</t>
-  </si>
-  <si>
-    <t>ANGIE LEPALAM</t>
-  </si>
-  <si>
     <t>APRIL JAE G. CUSTODIO</t>
   </si>
   <si>
-    <t>APRIL ROSE S. CANTUA</t>
-  </si>
-  <si>
-    <t>CELINE VELASCO</t>
-  </si>
-  <si>
-    <t>CHRISTOPHER LLONES</t>
-  </si>
-  <si>
-    <t>CRISTINA S. CASTAÑARES</t>
-  </si>
-  <si>
-    <t>DAFFODIL S. TAMPUS</t>
-  </si>
-  <si>
-    <t>DAZZILYN P MONTES</t>
-  </si>
-  <si>
-    <t>DELMA DELES</t>
-  </si>
-  <si>
-    <t>DIFFON CALUNGSOD</t>
-  </si>
-  <si>
     <t>ELMER C. LOPEZ</t>
   </si>
   <si>
-    <t>ELVIN CABAÑERO</t>
-  </si>
-  <si>
-    <t>EMMANUEL A. ENTERO</t>
-  </si>
-  <si>
-    <t>ENCARNACION MECHELLE P.</t>
-  </si>
-  <si>
-    <t>ERWIN E. TORRES</t>
-  </si>
-  <si>
     <t>EUNICE KENEE L. SERIÑO</t>
   </si>
   <si>
     <t>FLORTIMAH P. OBADO</t>
   </si>
   <si>
-    <t>GEECEL F. GALVEZ</t>
-  </si>
-  <si>
-    <t>GINA DELIMA</t>
-  </si>
-  <si>
-    <t>HEIDI PALER</t>
-  </si>
-  <si>
-    <t>HELEN GRACE F. ORACION</t>
-  </si>
-  <si>
-    <t>ISABEL E. BIHAG</t>
-  </si>
-  <si>
-    <t>JAILENN JANNARAINE S. PURAY</t>
-  </si>
-  <si>
-    <t>JANELLE P. DUMPE</t>
-  </si>
-  <si>
-    <t>JASTINE TUMAMPO</t>
-  </si>
-  <si>
-    <t>JAY MAHUSAY</t>
-  </si>
-  <si>
     <t>JAY-AR O. RAGUB</t>
   </si>
   <si>
-    <t>JEFFREY LLOYD L. CAGANDE</t>
-  </si>
-  <si>
-    <t>JEMAR O.CAGASAN</t>
-  </si>
-  <si>
-    <t>JEMUEL A. OCAÑADA</t>
-  </si>
-  <si>
-    <t>JESELLE A. BUAL</t>
-  </si>
-  <si>
-    <t>JESSA MAE LIBRES</t>
-  </si>
-  <si>
-    <t>JESSE OMAR L. UMDA</t>
-  </si>
-  <si>
-    <t>JEWEL LOUIE A. TOLIBAS</t>
-  </si>
-  <si>
-    <t>JHAIRA MAGLUPAY SAJULGA</t>
-  </si>
-  <si>
-    <t>JOANE GAY L. ALIGWAY</t>
-  </si>
-  <si>
     <t>JOBHEL D. PARAS</t>
   </si>
   <si>
-    <t>JOHN CHRISTIAN D. FERNANDEZ</t>
-  </si>
-  <si>
     <t>JOHN LOU B. DIAZ</t>
   </si>
   <si>
-    <t>JONALYN TUMAMAK</t>
-  </si>
-  <si>
-    <t>JONNA MAY ANGCAY</t>
-  </si>
-  <si>
-    <t>JOSEPH ANDREY DACERA</t>
-  </si>
-  <si>
-    <t>JOVELYN TAÑOLA</t>
-  </si>
-  <si>
-    <t>JULIUS M. MACALE</t>
-  </si>
-  <si>
-    <t>KAREN S. GONZALES</t>
-  </si>
-  <si>
-    <t>KIMBERLY YAP</t>
-  </si>
-  <si>
-    <t>KRIEZLYNN KIEL MARDO</t>
-  </si>
-  <si>
-    <t>KRISTEL MAY FLORES</t>
-  </si>
-  <si>
-    <t>KRISTINE JOY OBRAR</t>
-  </si>
-  <si>
-    <t>LEAH ROSE GONZAGA</t>
-  </si>
-  <si>
-    <t>LELETTE LYLE O. CORONA</t>
-  </si>
-  <si>
-    <t>LELITH CONGSON</t>
-  </si>
-  <si>
-    <t>LEMUEL PRECIADOS</t>
-  </si>
-  <si>
-    <t>LINNITO PASCUAL</t>
-  </si>
-  <si>
-    <t>LOVELY JOY INTE</t>
-  </si>
-  <si>
-    <t>LYKA ARTUGUE</t>
-  </si>
-  <si>
     <t>LYRA KATRINA M. MALPAS</t>
   </si>
   <si>
-    <t>MA. FE O. BASCO</t>
-  </si>
-  <si>
     <t>MA. THERESA P. LORETO</t>
   </si>
   <si>
-    <t>MAE ANN A BRAVO</t>
-  </si>
-  <si>
-    <t>MARDEE B. MELGAZO</t>
-  </si>
-  <si>
-    <t>MARIA CRISANDRA OLIVEROS</t>
-  </si>
-  <si>
-    <t>MARIA LEVY CHAVEZ</t>
-  </si>
-  <si>
-    <t>MARIELLE DIAZ</t>
-  </si>
-  <si>
-    <t>MARY GIL D. GORON</t>
-  </si>
-  <si>
-    <t>MARY JANE SOLIS REVILLAS</t>
-  </si>
-  <si>
-    <t>MARY REINA D. SUMAYA</t>
-  </si>
-  <si>
-    <t>MERLITA D. VELOSO</t>
-  </si>
-  <si>
-    <t>MICHELLE ABRIGANA</t>
-  </si>
-  <si>
-    <t>MICHELLE ANN J. BUOT</t>
-  </si>
-  <si>
     <t>MICHELLE ANN M. JUNCO</t>
   </si>
   <si>
-    <t>MIGUEL RAZAGA</t>
-  </si>
-  <si>
-    <t>NATHANIEL C. CABAÑERO</t>
-  </si>
-  <si>
-    <t>NIÑO JOHN C. VITOR</t>
-  </si>
-  <si>
-    <t>NYMPHMARY DAPHNE SANTIAGO</t>
-  </si>
-  <si>
-    <t>PAULINE KRIZZIA A. MAPULA</t>
-  </si>
-  <si>
-    <t>RACHELL ANN T. UMBAO</t>
-  </si>
-  <si>
-    <t>RAFAEL JUNNAR P. DUMALAN</t>
-  </si>
-  <si>
     <t>RAMELYN ALBESA RICO</t>
   </si>
   <si>
-    <t>RHENA REY M. TUMULAK</t>
-  </si>
-  <si>
-    <t>RICHARD Q. ONTOY</t>
-  </si>
-  <si>
     <t>RIO ROSA B. SABANDO</t>
   </si>
   <si>
-    <t>ROLEN A. BOCOG</t>
-  </si>
-  <si>
-    <t>ROYCE ALEXIS LUCAÑAS</t>
-  </si>
-  <si>
-    <t>RUBEN S. DIANA</t>
-  </si>
-  <si>
-    <t>RUSSELL MARIE DONATO</t>
-  </si>
-  <si>
-    <t>SCZALI JEWESS FE L CAINTIC</t>
-  </si>
-  <si>
-    <t>STAECY A. MEJARES</t>
-  </si>
-  <si>
     <t>STEPHANIE B. SABALZA</t>
   </si>
   <si>
     <t>VINCE G. LAO</t>
   </si>
   <si>
-    <t>WYATTEARP A. GARCIA</t>
-  </si>
-  <si>
-    <t>YSSAKHAR A. SALAS</t>
-  </si>
-  <si>
-    <t>ZARLIN JECEL COMPENDIO</t>
-  </si>
-  <si>
-    <t>GEMMA L. CABAÑAS</t>
-  </si>
-  <si>
     <t>WENDY C. ENERLAN</t>
   </si>
   <si>
@@ -400,13 +115,97 @@
     <t>VERGIE ANN GALENZOGA</t>
   </si>
   <si>
-    <t>ANNA RECTO</t>
-  </si>
-  <si>
-    <t>RHENA JANE SORIA</t>
-  </si>
-  <si>
-    <t>GWENDOLYN OMALAY</t>
+    <t>ANNA BEA S. HOYLA</t>
+  </si>
+  <si>
+    <t>CHADEL C. VERDIDA</t>
+  </si>
+  <si>
+    <t>CHARISS C. VERDIDA</t>
+  </si>
+  <si>
+    <t>CHELOMAE LEBUMFACIL</t>
+  </si>
+  <si>
+    <t>CRISLIN B. CRUZ</t>
+  </si>
+  <si>
+    <t>CRISSA C. VERDIDA</t>
+  </si>
+  <si>
+    <t>DECEMARIE LAZAGA</t>
+  </si>
+  <si>
+    <t>DOREN BLORECIA VALLE</t>
+  </si>
+  <si>
+    <t>ERNESTO FUENTES BULAYOG</t>
+  </si>
+  <si>
+    <t>GWENDOLIN H. OMALAY</t>
+  </si>
+  <si>
+    <t>JESSA MAE Q. LIBRES</t>
+  </si>
+  <si>
+    <t>JINA MAY B. MORALES</t>
+  </si>
+  <si>
+    <t>JINKY C. TAFALLA</t>
+  </si>
+  <si>
+    <t>KIMBERLY S. YAP</t>
+  </si>
+  <si>
+    <t>KRISTINE JOY C. OBRAR</t>
+  </si>
+  <si>
+    <t>LEMUEL S. PRECIADOS</t>
+  </si>
+  <si>
+    <t>LOREGIN SALILI PUGOSA</t>
+  </si>
+  <si>
+    <t>MA. SALOME BULAYOG</t>
+  </si>
+  <si>
+    <t>MARIA HAZEL I. BELLEZAS</t>
+  </si>
+  <si>
+    <t>MARJORIE B. BUG-ATAN</t>
+  </si>
+  <si>
+    <t>MARLON T. ANDRINO</t>
+  </si>
+  <si>
+    <t>MARVIE R. GARZOTA</t>
+  </si>
+  <si>
+    <t>MARY GIL DUARTE GORON</t>
+  </si>
+  <si>
+    <t>NANCY V. DUMAGUING</t>
+  </si>
+  <si>
+    <t>NEMESA GRACIA S. CABAHIT</t>
+  </si>
+  <si>
+    <t>PAOLO FLAVIO SANCHO</t>
+  </si>
+  <si>
+    <t>RADEN LIGAO CLAVE</t>
+  </si>
+  <si>
+    <t>REYVIN SABANAL</t>
+  </si>
+  <si>
+    <t>RUFINA F. CAPUNO</t>
+  </si>
+  <si>
+    <t>SCZALI JEWESS FE L. CAINTIC</t>
+  </si>
+  <si>
+    <t>SHEILLO G. CATORCE</t>
   </si>
 </sst>
 </file>
@@ -760,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68C929E-7BEE-4152-9345-49F24B995B7B}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E304" sqref="E304"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +580,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -794,12 +593,12 @@
       </c>
       <c r="E2" t="str">
         <f>C2&amp;"("&amp;B2&amp;") "&amp;A2&amp;D2</f>
-        <v>&lt;li&gt;(1) AL FRANCIS BIOC&lt;/li&gt;</v>
+        <v>&lt;li&gt;(1) ALMAREJEN O. ABAYABAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -812,12 +611,12 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E66" si="0">C3&amp;"("&amp;B3&amp;") "&amp;A3&amp;D3</f>
-        <v>&lt;li&gt;(2) ALJEN C. BATICAN&lt;/li&gt;</v>
+        <v>&lt;li&gt;(2) ANNA BEA S. HOYLA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -830,12 +629,12 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(3) ALMAREJEN O. ABAYABAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(3) APRIL JAE G. CUSTODIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -848,12 +647,12 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(4) ANGELICA JANE SUERTE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(4) CHADEL C. VERDIDA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -866,12 +665,12 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(5) ANGIE LEPALAM&lt;/li&gt;</v>
+        <v>&lt;li&gt;(5) CHARISS C. VERDIDA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -884,12 +683,12 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(6) ANNA RECTO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(6) CHELOMAE LEBUMFACIL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -902,12 +701,12 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(7) APRIL JAE G. CUSTODIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(7) CRISLIN B. CRUZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -920,12 +719,12 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(8) APRIL ROSE S. CANTUA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(8) CRISSA C. VERDIDA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -938,12 +737,12 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(9) CELINE VELASCO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(9) DECEMARIE LAZAGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -956,12 +755,12 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(10) CHRISTOPHER LLONES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(10) DOREN BLORECIA VALLE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -974,12 +773,12 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(11) CRISLIN CRUZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(11) ELMER C. LOPEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -992,12 +791,12 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(12) CRISTINA S. CASTAÑARES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(12) ERNESTO FUENTES BULAYOG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1010,12 +809,12 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(13) CRISTY ANN D. VARRON&lt;/li&gt;</v>
+        <v>&lt;li&gt;(13) EUNICE KENEE L. SERIÑO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1028,12 +827,12 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(14) DAFFODIL S. TAMPUS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(14) FLORTIMAH P. OBADO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1046,12 +845,12 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(15) DANIELA MARIE S. DAGOTDOT&lt;/li&gt;</v>
+        <v>&lt;li&gt;(15) GWENDOLIN H. OMALAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1064,12 +863,12 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(16) DAZZILYN P MONTES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(16) IAN DAVE B. CUSTODIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1082,12 +881,12 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(17) DELMA DELES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(17) JAY-AR O. RAGUB&lt;/li&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1100,12 +899,12 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(18) DIANNE M. DALIN-AS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(18) JENNY B. MORALES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1118,12 +917,12 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(19) DIFFON CALUNGSOD&lt;/li&gt;</v>
+        <v>&lt;li&gt;(19) JESSA MAE Q. LIBRES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1136,12 +935,12 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(20) ELMER C. LOPEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(20) JINA MAY B. MORALES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -1154,12 +953,12 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(21) ELVIN CABAÑERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(21) JINKY C. TAFALLA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -1172,12 +971,12 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(22) EMMANUEL A. ENTERO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(22) JOBHEL D. PARAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -1190,12 +989,12 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(23) ENCARNACION MECHELLE P.&lt;/li&gt;</v>
+        <v>&lt;li&gt;(23) JOHN LOU B. DIAZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1208,12 +1007,12 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(24) ERWIN E. TORRES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(24) KIMBERLY S. YAP&lt;/li&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1226,12 +1025,12 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(25) ESTELITO R SALUT JR&lt;/li&gt;</v>
+        <v>&lt;li&gt;(25) KRISTINE JOY C. OBRAR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1244,12 +1043,12 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(26) EUNICE KENEE L. SERIÑO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(26) LEMUEL S. PRECIADOS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1262,12 +1061,12 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(27) FHELROSE-ANNE A. YACAP&lt;/li&gt;</v>
+        <v>&lt;li&gt;(27) LOREGIN SALILI PUGOSA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1280,12 +1079,12 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(28) FLORTIMAH P. OBADO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(28) LYRA KATRINA M. MALPAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -1298,12 +1097,12 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(29) GEECEL F. GALVEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(29) MA. SALOME BULAYOG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1316,12 +1115,12 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(30) GEMMA L. CABAÑAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(30) MA. THERESA P. LORETO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1334,12 +1133,12 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(31) GINA DELIMA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(31) MARIA HAZEL I. BELLEZAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -1352,12 +1151,12 @@
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(32) GWENDOLYN OMALAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(32) MARIE JOY P. SALUNDAGUIT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1370,12 +1169,12 @@
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(33) HEIDI PALER&lt;/li&gt;</v>
+        <v>&lt;li&gt;(33) MARJORIE B. BUG-ATAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1388,12 +1187,12 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(34) HELEN GRACE F. ORACION&lt;/li&gt;</v>
+        <v>&lt;li&gt;(34) MARLON T. ANDRINO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -1406,12 +1205,12 @@
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(35) IAN DAVE B. CUSTODIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(35) MARVIE R. GARZOTA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -1424,12 +1223,12 @@
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(36) ISABEL E. BIHAG&lt;/li&gt;</v>
+        <v>&lt;li&gt;(36) MARY GIL DUARTE GORON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -1442,12 +1241,12 @@
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(37) JAILENN JANNARAINE S. PURAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(37) MICHELLE ANN M. JUNCO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -1460,12 +1259,12 @@
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(38) JANELLE P. DUMPE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(38) NANCY V. DUMAGUING&lt;/li&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -1478,12 +1277,12 @@
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(39) JASTINE TUMAMPO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(39) NEMESA GRACIA S. CABAHIT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -1496,12 +1295,12 @@
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(40) JAY MAHUSAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(40) PAOLO FLAVIO SANCHO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -1514,12 +1313,12 @@
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(41) JAY-AR O. RAGUB&lt;/li&gt;</v>
+        <v>&lt;li&gt;(41) QUENSTEIN D. LAUZON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -1532,12 +1331,12 @@
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(42) JAZZEL JANE M. PANERIO&lt;/li&gt;</v>
+        <v>&lt;li&gt;(42) RADEN LIGAO CLAVE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -1550,12 +1349,12 @@
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(43) JEFFREY LLOYD L. CAGANDE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(43) RAMELYN ALBESA RICO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -1568,12 +1367,12 @@
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(44) JEMAR O.CAGASAN&lt;/li&gt;</v>
+        <v>&lt;li&gt;(44) REYVIN SABANAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -1586,12 +1385,12 @@
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(45) JEMUEL A. OCAÑADA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(45) RIO ROSA B. SABANDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -1604,7 +1403,7 @@
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(46) JENNY B. MORALES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(46) RIZA S. LAUDE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,7 +1421,7 @@
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(47) JESELLE A. BUAL&lt;/li&gt;</v>
+        <v>&lt;li&gt;(47) RUFINA F. CAPUNO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1640,7 +1439,7 @@
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(48) JESSA MAE LIBRES&lt;/li&gt;</v>
+        <v>&lt;li&gt;(48) SCZALI JEWESS FE L. CAINTIC&lt;/li&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1658,12 +1457,12 @@
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(49) JESSE OMAR L. UMDA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(49) SHEILLO G. CATORCE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -1676,12 +1475,12 @@
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(50) JEWEL LOUIE A. TOLIBAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(50) STEPHANIE B. SABALZA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -1694,12 +1493,12 @@
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(51) JHAIRA MAGLUPAY SAJULGA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(51) VERGIE ANN GALENZOGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -1712,12 +1511,12 @@
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(52) JINKY TAFALLA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(52) VINCE G. LAO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -1730,13 +1529,10 @@
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(53) JOANE GAY L. ALIGWAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(53) WENDY C. ENERLAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
       <c r="B55">
         <v>54</v>
       </c>
@@ -1748,13 +1544,10 @@
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(54) JOBHEL D. PARAS&lt;/li&gt;</v>
+        <v>&lt;li&gt;(54) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
       <c r="B56">
         <v>55</v>
       </c>
@@ -1766,13 +1559,10 @@
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(55) JOE-JET F. JACOLBIA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(55) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>61</v>
-      </c>
       <c r="B57">
         <v>56</v>
       </c>
@@ -1784,13 +1574,10 @@
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(56) JOHN CHRISTIAN D. FERNANDEZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(56) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>62</v>
-      </c>
       <c r="B58">
         <v>57</v>
       </c>
@@ -1802,13 +1589,10 @@
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(57) JOHN LOU B. DIAZ&lt;/li&gt;</v>
+        <v>&lt;li&gt;(57) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>63</v>
-      </c>
       <c r="B59">
         <v>58</v>
       </c>
@@ -1820,13 +1604,10 @@
       </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(58) JONALYN TUMAMAK&lt;/li&gt;</v>
+        <v>&lt;li&gt;(58) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>64</v>
-      </c>
       <c r="B60">
         <v>59</v>
       </c>
@@ -1838,13 +1619,10 @@
       </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(59) JONNA MAY ANGCAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(59) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>65</v>
-      </c>
       <c r="B61">
         <v>60</v>
       </c>
@@ -1856,13 +1634,10 @@
       </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(60) JOSEPH ANDREY DACERA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(60) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>66</v>
-      </c>
       <c r="B62">
         <v>61</v>
       </c>
@@ -1874,13 +1649,10 @@
       </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(61) JOVELYN TAÑOLA&lt;/li&gt;</v>
+        <v>&lt;li&gt;(61) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>67</v>
-      </c>
       <c r="B63">
         <v>62</v>
       </c>
@@ -1892,13 +1664,10 @@
       </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(62) JULIUS M. MACALE&lt;/li&gt;</v>
+        <v>&lt;li&gt;(62) &lt;/li&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>68</v>
-      </c>
       <c r="B64">
         <v>63</v>
       </c>
@@ -1910,13 +1679,10 @@
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(63) KAREN S. GONZALES&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>69</v>
-      </c>
+        <v>&lt;li&gt;(63) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>64</v>
       </c>
@@ -1928,13 +1694,10 @@
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(64) KIMBERLY YAP&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
+        <v>&lt;li&gt;(64) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>65</v>
       </c>
@@ -1946,13 +1709,10 @@
       </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;li&gt;(65) KRIEZLYNN KIEL MARDO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>71</v>
-      </c>
+        <v>&lt;li&gt;(65) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>66</v>
       </c>
@@ -1964,13 +1724,10 @@
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E130" si="1">C67&amp;"("&amp;B67&amp;") "&amp;A67&amp;D67</f>
-        <v>&lt;li&gt;(66) KRISTEL MAY FLORES&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
+        <v>&lt;li&gt;(66) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>67</v>
       </c>
@@ -1982,13 +1739,10 @@
       </c>
       <c r="E68" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(67) KRISTINE JOY OBRAR&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>73</v>
-      </c>
+        <v>&lt;li&gt;(67) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>68</v>
       </c>
@@ -2000,13 +1754,10 @@
       </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(68) LEAH ROSE GONZAGA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>74</v>
-      </c>
+        <v>&lt;li&gt;(68) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>69</v>
       </c>
@@ -2018,13 +1769,10 @@
       </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(69) LELETTE LYLE O. CORONA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
+        <v>&lt;li&gt;(69) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>70</v>
       </c>
@@ -2036,13 +1784,10 @@
       </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(70) LELITH CONGSON&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
+        <v>&lt;li&gt;(70) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>71</v>
       </c>
@@ -2054,13 +1799,10 @@
       </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(71) LEMUEL PRECIADOS&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>77</v>
-      </c>
+        <v>&lt;li&gt;(71) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>72</v>
       </c>
@@ -2072,13 +1814,10 @@
       </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(72) LINNITO PASCUAL&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>78</v>
-      </c>
+        <v>&lt;li&gt;(72) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>73</v>
       </c>
@@ -2090,13 +1829,10 @@
       </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(73) LOVELY JOY INTE&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>79</v>
-      </c>
+        <v>&lt;li&gt;(73) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>74</v>
       </c>
@@ -2108,13 +1844,10 @@
       </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(74) LYKA ARTUGUE&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>80</v>
-      </c>
+        <v>&lt;li&gt;(74) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>75</v>
       </c>
@@ -2126,13 +1859,10 @@
       </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(75) LYRA KATRINA M. MALPAS&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>81</v>
-      </c>
+        <v>&lt;li&gt;(75) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>76</v>
       </c>
@@ -2144,13 +1874,10 @@
       </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(76) MA. FE O. BASCO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
+        <v>&lt;li&gt;(76) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>77</v>
       </c>
@@ -2162,13 +1889,10 @@
       </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(77) MA. ISTEFANIE ABELARDO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>82</v>
-      </c>
+        <v>&lt;li&gt;(77) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>78</v>
       </c>
@@ -2180,13 +1904,10 @@
       </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(78) MA. THERESA P. LORETO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>83</v>
-      </c>
+        <v>&lt;li&gt;(78) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>79</v>
       </c>
@@ -2198,13 +1919,10 @@
       </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(79) MAE ANN A BRAVO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>84</v>
-      </c>
+        <v>&lt;li&gt;(79) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>80</v>
       </c>
@@ -2216,13 +1934,10 @@
       </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(80) MARDEE B. MELGAZO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>85</v>
-      </c>
+        <v>&lt;li&gt;(80) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>81</v>
       </c>
@@ -2234,13 +1949,10 @@
       </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(81) MARIA CRISANDRA OLIVEROS&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>86</v>
-      </c>
+        <v>&lt;li&gt;(81) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>82</v>
       </c>
@@ -2252,13 +1964,10 @@
       </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(82) MARIA LEVY CHAVEZ&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>4</v>
-      </c>
+        <v>&lt;li&gt;(82) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>83</v>
       </c>
@@ -2270,13 +1979,10 @@
       </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(83) MARIE JOY P. SALUNDAGUIT&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>87</v>
-      </c>
+        <v>&lt;li&gt;(83) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>84</v>
       </c>
@@ -2288,13 +1994,10 @@
       </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(84) MARIELLE DIAZ&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>88</v>
-      </c>
+        <v>&lt;li&gt;(84) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>85</v>
       </c>
@@ -2306,13 +2009,10 @@
       </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(85) MARY GIL D. GORON&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>89</v>
-      </c>
+        <v>&lt;li&gt;(85) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>86</v>
       </c>
@@ -2324,13 +2024,10 @@
       </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(86) MARY JANE SOLIS REVILLAS&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>90</v>
-      </c>
+        <v>&lt;li&gt;(86) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>87</v>
       </c>
@@ -2342,13 +2039,10 @@
       </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(87) MARY REINA D. SUMAYA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
+        <v>&lt;li&gt;(87) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>88</v>
       </c>
@@ -2360,13 +2054,10 @@
       </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(88) MERLITA D. VELOSO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>92</v>
-      </c>
+        <v>&lt;li&gt;(88) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>89</v>
       </c>
@@ -2378,13 +2069,10 @@
       </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(89) MICHELLE ABRIGANA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>93</v>
-      </c>
+        <v>&lt;li&gt;(89) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>90</v>
       </c>
@@ -2396,13 +2084,10 @@
       </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(90) MICHELLE ANN J. BUOT&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>94</v>
-      </c>
+        <v>&lt;li&gt;(90) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>91</v>
       </c>
@@ -2414,13 +2099,10 @@
       </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(91) MICHELLE ANN M. JUNCO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>95</v>
-      </c>
+        <v>&lt;li&gt;(91) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>92</v>
       </c>
@@ -2432,13 +2114,10 @@
       </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(92) MIGUEL RAZAGA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>96</v>
-      </c>
+        <v>&lt;li&gt;(92) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>93</v>
       </c>
@@ -2450,13 +2129,10 @@
       </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(93) NATHANIEL C. CABAÑERO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>97</v>
-      </c>
+        <v>&lt;li&gt;(93) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>94</v>
       </c>
@@ -2468,13 +2144,10 @@
       </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(94) NIÑO JOHN C. VITOR&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>98</v>
-      </c>
+        <v>&lt;li&gt;(94) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>95</v>
       </c>
@@ -2486,13 +2159,10 @@
       </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(95) NYMPHMARY DAPHNE SANTIAGO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>99</v>
-      </c>
+        <v>&lt;li&gt;(95) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>96</v>
       </c>
@@ -2504,13 +2174,10 @@
       </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(96) PAULINE KRIZZIA A. MAPULA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>15</v>
-      </c>
+        <v>&lt;li&gt;(96) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>97</v>
       </c>
@@ -2522,13 +2189,10 @@
       </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(97) QUENSTEIN D. LAUZON&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
+        <v>&lt;li&gt;(97) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>98</v>
       </c>
@@ -2540,13 +2204,10 @@
       </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(98) RACHELL ANN T. UMBAO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>16</v>
-      </c>
+        <v>&lt;li&gt;(98) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>99</v>
       </c>
@@ -2558,13 +2219,10 @@
       </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(99) RACHELLE ANN L SANTOS&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
+        <v>&lt;li&gt;(99) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>100</v>
       </c>
@@ -2576,13 +2234,10 @@
       </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(100) RAFAEL JUNNAR P. DUMALAN&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
+        <v>&lt;li&gt;(100) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>101</v>
       </c>
@@ -2594,13 +2249,10 @@
       </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(101) RAMELYN ALBESA RICO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>122</v>
-      </c>
+        <v>&lt;li&gt;(101) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>102</v>
       </c>
@@ -2612,13 +2264,10 @@
       </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(102) RHENA JANE SORIA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
+        <v>&lt;li&gt;(102) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>103</v>
       </c>
@@ -2630,13 +2279,10 @@
       </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(103) RHENA REY M. TUMULAK&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
+        <v>&lt;li&gt;(103) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>104</v>
       </c>
@@ -2648,13 +2294,10 @@
       </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(104) RICHARD Q. ONTOY&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
+        <v>&lt;li&gt;(104) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>105</v>
       </c>
@@ -2666,13 +2309,10 @@
       </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(105) RIO ROSA B. SABANDO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>9</v>
-      </c>
+        <v>&lt;li&gt;(105) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>106</v>
       </c>
@@ -2684,13 +2324,10 @@
       </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(106) RIZA S. LAUDE&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>5</v>
-      </c>
+        <v>&lt;li&gt;(106) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>107</v>
       </c>
@@ -2702,13 +2339,10 @@
       </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(107) ROLANDO C. NEGROSA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>106</v>
-      </c>
+        <v>&lt;li&gt;(107) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>108</v>
       </c>
@@ -2720,13 +2354,10 @@
       </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(108) ROLEN A. BOCOG&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>107</v>
-      </c>
+        <v>&lt;li&gt;(108) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>109</v>
       </c>
@@ -2738,13 +2369,10 @@
       </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(109) ROYCE ALEXIS LUCAÑAS&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>108</v>
-      </c>
+        <v>&lt;li&gt;(109) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>110</v>
       </c>
@@ -2756,13 +2384,10 @@
       </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(110) RUBEN S. DIANA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>109</v>
-      </c>
+        <v>&lt;li&gt;(110) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>111</v>
       </c>
@@ -2774,13 +2399,10 @@
       </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(111) RUSSELL MARIE DONATO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>110</v>
-      </c>
+        <v>&lt;li&gt;(111) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>112</v>
       </c>
@@ -2792,13 +2414,10 @@
       </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(112) SCZALI JEWESS FE L CAINTIC&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>111</v>
-      </c>
+        <v>&lt;li&gt;(112) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>113</v>
       </c>
@@ -2810,13 +2429,10 @@
       </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(113) STAECY A. MEJARES&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>112</v>
-      </c>
+        <v>&lt;li&gt;(113) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>114</v>
       </c>
@@ -2828,13 +2444,10 @@
       </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(114) STEPHANIE B. SABALZA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>120</v>
-      </c>
+        <v>&lt;li&gt;(114) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>115</v>
       </c>
@@ -2846,13 +2459,10 @@
       </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(115) VERGIE ANN GALENZOGA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>113</v>
-      </c>
+        <v>&lt;li&gt;(115) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>116</v>
       </c>
@@ -2864,13 +2474,10 @@
       </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(116) VINCE G. LAO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
+        <v>&lt;li&gt;(116) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>117</v>
       </c>
@@ -2882,13 +2489,10 @@
       </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(117) WENDY C. ENERLAN&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>114</v>
-      </c>
+        <v>&lt;li&gt;(117) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>118</v>
       </c>
@@ -2900,13 +2504,10 @@
       </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(118) WYATTEARP A. GARCIA&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>115</v>
-      </c>
+        <v>&lt;li&gt;(118) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>119</v>
       </c>
@@ -2918,13 +2519,10 @@
       </c>
       <c r="E120" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(119) YSSAKHAR A. SALAS&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>116</v>
-      </c>
+        <v>&lt;li&gt;(119) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>120</v>
       </c>
@@ -2936,10 +2534,10 @@
       </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;li&gt;(120) ZARLIN JECEL COMPENDIO&lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;li&gt;(120) &lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>121</v>
       </c>
@@ -2954,7 +2552,7 @@
         <v>&lt;li&gt;(121) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>122</v>
       </c>
@@ -2969,7 +2567,7 @@
         <v>&lt;li&gt;(122) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>123</v>
       </c>
@@ -2984,7 +2582,7 @@
         <v>&lt;li&gt;(123) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>124</v>
       </c>
@@ -2999,7 +2597,7 @@
         <v>&lt;li&gt;(124) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>125</v>
       </c>
@@ -3014,7 +2612,7 @@
         <v>&lt;li&gt;(125) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>126</v>
       </c>
@@ -3029,7 +2627,7 @@
         <v>&lt;li&gt;(126) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>127</v>
       </c>
@@ -5644,6 +5242,6 @@
     <sortCondition ref="A121"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/certificates/HTML Code.xlsx
+++ b/certificates/HTML Code.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iandavecustodio@gmail.com\OtherFiles\05 GitHub\cmevsu.github.io\certificates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Dave B. Custodio\Google Drive\OtherFiles\05 GitHub\cmevsu.github.io\certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B0767-8B7F-4494-BB55-5972B688702E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F4AFA6-C2E8-40F6-B2A8-1994EA231B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{292162B3-C305-466A-B9FF-5656A51BBEEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{292162B3-C305-466A-B9FF-5656A51BBEEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="76">
   <si>
     <t>Name of Participants</t>
   </si>
@@ -49,163 +49,220 @@
     <t>For HTML</t>
   </si>
   <si>
-    <t>MARIE JOY P. SALUNDAGUIT</t>
-  </si>
-  <si>
-    <t>RIZA S. LAUDE</t>
-  </si>
-  <si>
-    <t>QUENSTEIN D. LAUZON</t>
-  </si>
-  <si>
-    <t>JENNY B. MORALES</t>
-  </si>
-  <si>
-    <t>ALMAREJEN O. ABAYABAY</t>
-  </si>
-  <si>
-    <t>APRIL JAE G. CUSTODIO</t>
-  </si>
-  <si>
-    <t>ELMER C. LOPEZ</t>
-  </si>
-  <si>
-    <t>EUNICE KENEE L. SERIÑO</t>
-  </si>
-  <si>
-    <t>FLORTIMAH P. OBADO</t>
-  </si>
-  <si>
-    <t>JAY-AR O. RAGUB</t>
-  </si>
-  <si>
-    <t>JOBHEL D. PARAS</t>
-  </si>
-  <si>
-    <t>JOHN LOU B. DIAZ</t>
-  </si>
-  <si>
-    <t>LYRA KATRINA M. MALPAS</t>
-  </si>
-  <si>
-    <t>MA. THERESA P. LORETO</t>
-  </si>
-  <si>
-    <t>MICHELLE ANN M. JUNCO</t>
-  </si>
-  <si>
-    <t>RAMELYN ALBESA RICO</t>
-  </si>
-  <si>
-    <t>RIO ROSA B. SABANDO</t>
-  </si>
-  <si>
-    <t>STEPHANIE B. SABALZA</t>
-  </si>
-  <si>
-    <t>VINCE G. LAO</t>
-  </si>
-  <si>
     <t>WENDY C. ENERLAN</t>
   </si>
   <si>
     <t>IAN DAVE B. CUSTODIO</t>
   </si>
   <si>
-    <t>VERGIE ANN GALENZOGA</t>
-  </si>
-  <si>
-    <t>ANNA BEA S. HOYLA</t>
-  </si>
-  <si>
-    <t>CHADEL C. VERDIDA</t>
-  </si>
-  <si>
-    <t>CHARISS C. VERDIDA</t>
-  </si>
-  <si>
-    <t>CHELOMAE LEBUMFACIL</t>
-  </si>
-  <si>
-    <t>CRISLIN B. CRUZ</t>
-  </si>
-  <si>
-    <t>CRISSA C. VERDIDA</t>
-  </si>
-  <si>
-    <t>DECEMARIE LAZAGA</t>
-  </si>
-  <si>
-    <t>DOREN BLORECIA VALLE</t>
-  </si>
-  <si>
-    <t>ERNESTO FUENTES BULAYOG</t>
-  </si>
-  <si>
-    <t>GWENDOLIN H. OMALAY</t>
-  </si>
-  <si>
-    <t>JESSA MAE Q. LIBRES</t>
-  </si>
-  <si>
-    <t>JINA MAY B. MORALES</t>
-  </si>
-  <si>
-    <t>JINKY C. TAFALLA</t>
-  </si>
-  <si>
-    <t>KIMBERLY S. YAP</t>
-  </si>
-  <si>
-    <t>KRISTINE JOY C. OBRAR</t>
-  </si>
-  <si>
-    <t>LEMUEL S. PRECIADOS</t>
-  </si>
-  <si>
-    <t>LOREGIN SALILI PUGOSA</t>
-  </si>
-  <si>
-    <t>MA. SALOME BULAYOG</t>
-  </si>
-  <si>
-    <t>MARIA HAZEL I. BELLEZAS</t>
-  </si>
-  <si>
-    <t>MARJORIE B. BUG-ATAN</t>
-  </si>
-  <si>
-    <t>MARLON T. ANDRINO</t>
-  </si>
-  <si>
-    <t>MARVIE R. GARZOTA</t>
-  </si>
-  <si>
-    <t>MARY GIL DUARTE GORON</t>
-  </si>
-  <si>
-    <t>NANCY V. DUMAGUING</t>
-  </si>
-  <si>
-    <t>NEMESA GRACIA S. CABAHIT</t>
-  </si>
-  <si>
-    <t>PAOLO FLAVIO SANCHO</t>
-  </si>
-  <si>
-    <t>RADEN LIGAO CLAVE</t>
-  </si>
-  <si>
     <t>REYVIN SABANAL</t>
   </si>
   <si>
-    <t>RUFINA F. CAPUNO</t>
-  </si>
-  <si>
-    <t>SCZALI JEWESS FE L. CAINTIC</t>
-  </si>
-  <si>
-    <t>SHEILLO G. CATORCE</t>
+    <t>HAZEL T. VICTORIANO</t>
+  </si>
+  <si>
+    <t>LADY MARGRETT G. CAGAPE</t>
+  </si>
+  <si>
+    <t>JESSELLE S. LARANAS</t>
+  </si>
+  <si>
+    <t>MARY RODELYN A. CARIAGA</t>
+  </si>
+  <si>
+    <t>LEO A. MAMOLO</t>
+  </si>
+  <si>
+    <t>MARVIN M. CRUZ, MBA, DBA</t>
+  </si>
+  <si>
+    <t>CRISANTO L ABAS</t>
+  </si>
+  <si>
+    <t>HARRY JAY M. CAVITE</t>
+  </si>
+  <si>
+    <t>ROMEL G. QUINTE</t>
+  </si>
+  <si>
+    <t>DAFFODIL S. TAMPUS</t>
+  </si>
+  <si>
+    <t>SHEMAIAH GAIL P. PLACENCIA</t>
+  </si>
+  <si>
+    <t>AMELITA A. TINGZON</t>
+  </si>
+  <si>
+    <t>NYMPHMARY DAPHNE J. SANTIAGO</t>
+  </si>
+  <si>
+    <t>DANNICA ROSE G. AQUINO</t>
+  </si>
+  <si>
+    <t>KIM JOSEPH S. SADOMIA</t>
+  </si>
+  <si>
+    <t>ADRIANE JOHN P. LUNCIDO</t>
+  </si>
+  <si>
+    <t>NYLE PARDILLO</t>
+  </si>
+  <si>
+    <t>CARL JOSEPH IGNACIO</t>
+  </si>
+  <si>
+    <t>KYLENE B. CAPIN</t>
+  </si>
+  <si>
+    <t>ROY ROGER B. JAIME</t>
+  </si>
+  <si>
+    <t>MARRIZ M. GARCIANO</t>
+  </si>
+  <si>
+    <t>MARIANNE KATREEN RAMOS CABAÑERO</t>
+  </si>
+  <si>
+    <t>JOY A. BELLEN</t>
+  </si>
+  <si>
+    <t>DAHLIA D. FERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARIA KATRINA L. COSTINIANO, RN, MAN</t>
+  </si>
+  <si>
+    <t>LOREGIN S. PUGOSA</t>
+  </si>
+  <si>
+    <t>RODULFO T. AUNZO, JR.</t>
+  </si>
+  <si>
+    <t>KIMBERLY MICHELLE QUINTUA OPERARIO</t>
+  </si>
+  <si>
+    <t>NYLREM JANNE G. LLAGAS</t>
+  </si>
+  <si>
+    <t>DHANICCA AMOR M. DOMINGO</t>
+  </si>
+  <si>
+    <t>NORDEN LEPCHA</t>
+  </si>
+  <si>
+    <t>KATHLEEN IVY Z BOLOTAOLO</t>
+  </si>
+  <si>
+    <t>THEA GALOS</t>
+  </si>
+  <si>
+    <t>JAY P. PICARDAL</t>
+  </si>
+  <si>
+    <t>ERICA MAE CUABO</t>
+  </si>
+  <si>
+    <t>MARCHEE T. PICARDAL</t>
+  </si>
+  <si>
+    <t>DAISY T. BESING</t>
+  </si>
+  <si>
+    <t>JAAZIEL U. BOHOLST</t>
+  </si>
+  <si>
+    <t>DR. JAMES H. SAMILLANO</t>
+  </si>
+  <si>
+    <t>ARIEL O. TINAPAY</t>
+  </si>
+  <si>
+    <t>SHIELA LO-ON TIROL</t>
+  </si>
+  <si>
+    <t>CRISTINA S. CASTAÑARES</t>
+  </si>
+  <si>
+    <t>WILMINA B. DAVID</t>
+  </si>
+  <si>
+    <t>TRISTAN L. ABANDO</t>
+  </si>
+  <si>
+    <t>ALME GRACE B. WENCESLAO</t>
+  </si>
+  <si>
+    <t>FRANCISCO F. BUCTOT JR</t>
+  </si>
+  <si>
+    <t>JEZHABETH M. VILLEGAS</t>
+  </si>
+  <si>
+    <t>DHEYVID C. FACUNDO</t>
+  </si>
+  <si>
+    <t>RONNEL C. NOLOS</t>
+  </si>
+  <si>
+    <t>MARK VINCENT LATRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RICKI MAE O. GUILING </t>
+  </si>
+  <si>
+    <t>JOHANNAH MARIZ J. LUMANOG</t>
+  </si>
+  <si>
+    <t>ERN LOIS NICOLE M. BUGAYONG</t>
+  </si>
+  <si>
+    <t>CHRISTIA BALTAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIMMY J. SAÑOSA, JR. </t>
+  </si>
+  <si>
+    <t>MA. ANGELICA ONDE</t>
+  </si>
+  <si>
+    <t>ERWIN E. TORRES</t>
+  </si>
+  <si>
+    <t>ROCHELLE C. OLANA</t>
+  </si>
+  <si>
+    <t>KENNY ORIEL A. OLANA</t>
+  </si>
+  <si>
+    <t>STEPHEN PAUL G. CAJIGAS</t>
+  </si>
+  <si>
+    <t>EDELYN NUÑEZ</t>
+  </si>
+  <si>
+    <t>KEANE AGRAVANTE</t>
+  </si>
+  <si>
+    <t>RANDY OROT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REY A. CASTILLO </t>
+  </si>
+  <si>
+    <t>EUGENE M. BIJE</t>
+  </si>
+  <si>
+    <t>SANCE J. SECONDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYMPHNA ANN C. CALUMPIANO </t>
+  </si>
+  <si>
+    <t>FRANCIS JOHN F. FADEROGAO</t>
+  </si>
+  <si>
+    <t>RODULFO TUMACAY AUNZO</t>
   </si>
 </sst>
 </file>
@@ -559,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68C929E-7BEE-4152-9345-49F24B995B7B}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E54"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +637,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -593,12 +650,12 @@
       </c>
       <c r="E2" t="str">
         <f>C2&amp;"("&amp;B2&amp;") "&amp;A2&amp;D2</f>
-        <v>&lt;li&gt;(1) ALMAREJEN O. ABAYABAY&lt;/li&gt;</v>
+        <v>&lt;li&gt;(1) ADRIANE JOHN P. LUNCIDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -610,13 +667,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">C3&amp;"("&amp;B3&amp;") "&amp;A3&amp;D3</f>
-        <v>&lt;li&gt;(2) ANNA BEA S. HOYLA&lt;/li&gt;</v>
+        <f>C3&amp;"("&amp;B3&amp;") "&amp;A3&amp;D3</f>
+        <v>&lt;li&gt;(2) ALME GRACE B. WENCESLAO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -628,13 +685,13 @@
         <v>2</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(3) APRIL JAE G. CUSTODIO&lt;/li&gt;</v>
+        <f>C4&amp;"("&amp;B4&amp;") "&amp;A4&amp;D4</f>
+        <v>&lt;li&gt;(3) AMELITA A. TINGZON&lt;/li&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -646,13 +703,13 @@
         <v>2</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(4) CHADEL C. VERDIDA&lt;/li&gt;</v>
+        <f>C5&amp;"("&amp;B5&amp;") "&amp;A5&amp;D5</f>
+        <v>&lt;li&gt;(4) ARIEL O. TINAPAY&lt;/li&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -664,13 +721,13 @@
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(5) CHARISS C. VERDIDA&lt;/li&gt;</v>
+        <f>C6&amp;"("&amp;B6&amp;") "&amp;A6&amp;D6</f>
+        <v>&lt;li&gt;(5) CARL JOSEPH IGNACIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -682,13 +739,13 @@
         <v>2</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(6) CHELOMAE LEBUMFACIL&lt;/li&gt;</v>
+        <f>C7&amp;"("&amp;B7&amp;") "&amp;A7&amp;D7</f>
+        <v>&lt;li&gt;(6) CHRISTIA BALTAR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -700,13 +757,13 @@
         <v>2</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(7) CRISLIN B. CRUZ&lt;/li&gt;</v>
+        <f>C8&amp;"("&amp;B8&amp;") "&amp;A8&amp;D8</f>
+        <v>&lt;li&gt;(7) CRISANTO L ABAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -718,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(8) CRISSA C. VERDIDA&lt;/li&gt;</v>
+        <f>C9&amp;"("&amp;B9&amp;") "&amp;A9&amp;D9</f>
+        <v>&lt;li&gt;(8) CRISTINA S. CASTAÑARES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -736,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(9) DECEMARIE LAZAGA&lt;/li&gt;</v>
+        <f>C10&amp;"("&amp;B10&amp;") "&amp;A10&amp;D10</f>
+        <v>&lt;li&gt;(9) DAFFODIL S. TAMPUS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -754,13 +811,13 @@
         <v>2</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(10) DOREN BLORECIA VALLE&lt;/li&gt;</v>
+        <f>C11&amp;"("&amp;B11&amp;") "&amp;A11&amp;D11</f>
+        <v>&lt;li&gt;(10) DAHLIA D. FERNANDEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -772,13 +829,13 @@
         <v>2</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(11) ELMER C. LOPEZ&lt;/li&gt;</v>
+        <f>C12&amp;"("&amp;B12&amp;") "&amp;A12&amp;D12</f>
+        <v>&lt;li&gt;(11) DAISY T. BESING&lt;/li&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -790,13 +847,13 @@
         <v>2</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(12) ERNESTO FUENTES BULAYOG&lt;/li&gt;</v>
+        <f>C13&amp;"("&amp;B13&amp;") "&amp;A13&amp;D13</f>
+        <v>&lt;li&gt;(12) DANNICA ROSE G. AQUINO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -808,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(13) EUNICE KENEE L. SERIÑO&lt;/li&gt;</v>
+        <f>C14&amp;"("&amp;B14&amp;") "&amp;A14&amp;D14</f>
+        <v>&lt;li&gt;(13) DHANICCA AMOR M. DOMINGO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -826,13 +883,13 @@
         <v>2</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(14) FLORTIMAH P. OBADO&lt;/li&gt;</v>
+        <f>C15&amp;"("&amp;B15&amp;") "&amp;A15&amp;D15</f>
+        <v>&lt;li&gt;(14) DHEYVID C. FACUNDO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -844,13 +901,13 @@
         <v>2</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(15) GWENDOLIN H. OMALAY&lt;/li&gt;</v>
+        <f>C16&amp;"("&amp;B16&amp;") "&amp;A16&amp;D16</f>
+        <v>&lt;li&gt;(15) DR. JAMES H. SAMILLANO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -862,13 +919,13 @@
         <v>2</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(16) IAN DAVE B. CUSTODIO&lt;/li&gt;</v>
+        <f>C17&amp;"("&amp;B17&amp;") "&amp;A17&amp;D17</f>
+        <v>&lt;li&gt;(16) DYMPHNA ANN C. CALUMPIANO &lt;/li&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -880,13 +937,13 @@
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(17) JAY-AR O. RAGUB&lt;/li&gt;</v>
+        <f>C18&amp;"("&amp;B18&amp;") "&amp;A18&amp;D18</f>
+        <v>&lt;li&gt;(17) EDELYN NUÑEZ&lt;/li&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -898,13 +955,13 @@
         <v>2</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(18) JENNY B. MORALES&lt;/li&gt;</v>
+        <f>C19&amp;"("&amp;B19&amp;") "&amp;A19&amp;D19</f>
+        <v>&lt;li&gt;(18) ERICA MAE CUABO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -916,13 +973,13 @@
         <v>2</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(19) JESSA MAE Q. LIBRES&lt;/li&gt;</v>
+        <f>C20&amp;"("&amp;B20&amp;") "&amp;A20&amp;D20</f>
+        <v>&lt;li&gt;(19) ERN LOIS NICOLE M. BUGAYONG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -934,13 +991,13 @@
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(20) JINA MAY B. MORALES&lt;/li&gt;</v>
+        <f>C21&amp;"("&amp;B21&amp;") "&amp;A21&amp;D21</f>
+        <v>&lt;li&gt;(20) ERWIN E. TORRES&lt;/li&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -952,13 +1009,13 @@
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(21) JINKY C. TAFALLA&lt;/li&gt;</v>
+        <f>C22&amp;"("&amp;B22&amp;") "&amp;A22&amp;D22</f>
+        <v>&lt;li&gt;(21) EUGENE M. BIJE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -970,13 +1027,13 @@
         <v>2</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(22) JOBHEL D. PARAS&lt;/li&gt;</v>
+        <f>C23&amp;"("&amp;B23&amp;") "&amp;A23&amp;D23</f>
+        <v>&lt;li&gt;(22) FRANCIS JOHN F. FADEROGAO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -988,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(23) JOHN LOU B. DIAZ&lt;/li&gt;</v>
+        <f>C24&amp;"("&amp;B24&amp;") "&amp;A24&amp;D24</f>
+        <v>&lt;li&gt;(23) FRANCISCO F. BUCTOT JR&lt;/li&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -1006,13 +1063,13 @@
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(24) KIMBERLY S. YAP&lt;/li&gt;</v>
+        <f>C25&amp;"("&amp;B25&amp;") "&amp;A25&amp;D25</f>
+        <v>&lt;li&gt;(24) HARRY JAY M. CAVITE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1024,13 +1081,13 @@
         <v>2</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(25) KRISTINE JOY C. OBRAR&lt;/li&gt;</v>
+        <f>C26&amp;"("&amp;B26&amp;") "&amp;A26&amp;D26</f>
+        <v>&lt;li&gt;(25) HAZEL T. VICTORIANO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -1042,13 +1099,13 @@
         <v>2</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(26) LEMUEL S. PRECIADOS&lt;/li&gt;</v>
+        <f>C27&amp;"("&amp;B27&amp;") "&amp;A27&amp;D27</f>
+        <v>&lt;li&gt;(26) IAN DAVE B. CUSTODIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -1060,13 +1117,13 @@
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(27) LOREGIN SALILI PUGOSA&lt;/li&gt;</v>
+        <f>C28&amp;"("&amp;B28&amp;") "&amp;A28&amp;D28</f>
+        <v>&lt;li&gt;(27) JAAZIEL U. BOHOLST&lt;/li&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -1078,13 +1135,13 @@
         <v>2</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(28) LYRA KATRINA M. MALPAS&lt;/li&gt;</v>
+        <f>C29&amp;"("&amp;B29&amp;") "&amp;A29&amp;D29</f>
+        <v>&lt;li&gt;(28) JAY P. PICARDAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -1096,13 +1153,13 @@
         <v>2</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(29) MA. SALOME BULAYOG&lt;/li&gt;</v>
+        <f>C30&amp;"("&amp;B30&amp;") "&amp;A30&amp;D30</f>
+        <v>&lt;li&gt;(29) JESSELLE S. LARANAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -1114,13 +1171,13 @@
         <v>2</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(30) MA. THERESA P. LORETO&lt;/li&gt;</v>
+        <f>C31&amp;"("&amp;B31&amp;") "&amp;A31&amp;D31</f>
+        <v>&lt;li&gt;(30) JEZHABETH M. VILLEGAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -1132,13 +1189,13 @@
         <v>2</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(31) MARIA HAZEL I. BELLEZAS&lt;/li&gt;</v>
+        <f>C32&amp;"("&amp;B32&amp;") "&amp;A32&amp;D32</f>
+        <v>&lt;li&gt;(31) JIMMY J. SAÑOSA, JR. &lt;/li&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -1150,13 +1207,13 @@
         <v>2</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(32) MARIE JOY P. SALUNDAGUIT&lt;/li&gt;</v>
+        <f>C33&amp;"("&amp;B33&amp;") "&amp;A33&amp;D33</f>
+        <v>&lt;li&gt;(32) JOHANNAH MARIZ J. LUMANOG&lt;/li&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -1168,13 +1225,13 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(33) MARJORIE B. BUG-ATAN&lt;/li&gt;</v>
+        <f>C34&amp;"("&amp;B34&amp;") "&amp;A34&amp;D34</f>
+        <v>&lt;li&gt;(33) JOY A. BELLEN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -1186,13 +1243,13 @@
         <v>2</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(34) MARLON T. ANDRINO&lt;/li&gt;</v>
+        <f>C35&amp;"("&amp;B35&amp;") "&amp;A35&amp;D35</f>
+        <v>&lt;li&gt;(34) KATHLEEN IVY Z BOLOTAOLO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -1204,13 +1261,13 @@
         <v>2</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(35) MARVIE R. GARZOTA&lt;/li&gt;</v>
+        <f>C36&amp;"("&amp;B36&amp;") "&amp;A36&amp;D36</f>
+        <v>&lt;li&gt;(35) KEANE AGRAVANTE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -1222,13 +1279,13 @@
         <v>2</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(36) MARY GIL DUARTE GORON&lt;/li&gt;</v>
+        <f>C37&amp;"("&amp;B37&amp;") "&amp;A37&amp;D37</f>
+        <v>&lt;li&gt;(36) KENNY ORIEL A. OLANA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -1240,13 +1297,13 @@
         <v>2</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(37) MICHELLE ANN M. JUNCO&lt;/li&gt;</v>
+        <f>C38&amp;"("&amp;B38&amp;") "&amp;A38&amp;D38</f>
+        <v>&lt;li&gt;(37) KIM JOSEPH S. SADOMIA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -1258,13 +1315,13 @@
         <v>2</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(38) NANCY V. DUMAGUING&lt;/li&gt;</v>
+        <f>C39&amp;"("&amp;B39&amp;") "&amp;A39&amp;D39</f>
+        <v>&lt;li&gt;(38) KIMBERLY MICHELLE QUINTUA OPERARIO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -1276,13 +1333,13 @@
         <v>2</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(39) NEMESA GRACIA S. CABAHIT&lt;/li&gt;</v>
+        <f>C40&amp;"("&amp;B40&amp;") "&amp;A40&amp;D40</f>
+        <v>&lt;li&gt;(39) KYLENE B. CAPIN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -1294,13 +1351,13 @@
         <v>2</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(40) PAOLO FLAVIO SANCHO&lt;/li&gt;</v>
+        <f>C41&amp;"("&amp;B41&amp;") "&amp;A41&amp;D41</f>
+        <v>&lt;li&gt;(40) LADY MARGRETT G. CAGAPE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -1312,13 +1369,13 @@
         <v>2</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(41) QUENSTEIN D. LAUZON&lt;/li&gt;</v>
+        <f>C42&amp;"("&amp;B42&amp;") "&amp;A42&amp;D42</f>
+        <v>&lt;li&gt;(41) LEO A. MAMOLO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -1330,13 +1387,13 @@
         <v>2</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(42) RADEN LIGAO CLAVE&lt;/li&gt;</v>
+        <f>C43&amp;"("&amp;B43&amp;") "&amp;A43&amp;D43</f>
+        <v>&lt;li&gt;(42) LOREGIN S. PUGOSA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -1348,13 +1405,13 @@
         <v>2</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(43) RAMELYN ALBESA RICO&lt;/li&gt;</v>
+        <f>C44&amp;"("&amp;B44&amp;") "&amp;A44&amp;D44</f>
+        <v>&lt;li&gt;(43) MA. ANGELICA ONDE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -1366,13 +1423,13 @@
         <v>2</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(44) REYVIN SABANAL&lt;/li&gt;</v>
+        <f>C45&amp;"("&amp;B45&amp;") "&amp;A45&amp;D45</f>
+        <v>&lt;li&gt;(44) MARCHEE T. PICARDAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -1384,13 +1441,13 @@
         <v>2</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(45) RIO ROSA B. SABANDO&lt;/li&gt;</v>
+        <f>C46&amp;"("&amp;B46&amp;") "&amp;A46&amp;D46</f>
+        <v>&lt;li&gt;(45) MARIA KATRINA L. COSTINIANO, RN, MAN&lt;/li&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -1402,13 +1459,13 @@
         <v>2</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(46) RIZA S. LAUDE&lt;/li&gt;</v>
+        <f>C47&amp;"("&amp;B47&amp;") "&amp;A47&amp;D47</f>
+        <v>&lt;li&gt;(46) MARIANNE KATREEN RAMOS CABAÑERO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -1420,13 +1477,13 @@
         <v>2</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(47) RUFINA F. CAPUNO&lt;/li&gt;</v>
+        <f>C48&amp;"("&amp;B48&amp;") "&amp;A48&amp;D48</f>
+        <v>&lt;li&gt;(47) MARK VINCENT LATRAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -1438,13 +1495,13 @@
         <v>2</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(48) SCZALI JEWESS FE L. CAINTIC&lt;/li&gt;</v>
+        <f>C49&amp;"("&amp;B49&amp;") "&amp;A49&amp;D49</f>
+        <v>&lt;li&gt;(48) MARRIZ M. GARCIANO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -1456,13 +1513,13 @@
         <v>2</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(49) SHEILLO G. CATORCE&lt;/li&gt;</v>
+        <f>C50&amp;"("&amp;B50&amp;") "&amp;A50&amp;D50</f>
+        <v>&lt;li&gt;(49) MARVIN M. CRUZ, MBA, DBA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -1474,13 +1531,13 @@
         <v>2</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(50) STEPHANIE B. SABALZA&lt;/li&gt;</v>
+        <f>C51&amp;"("&amp;B51&amp;") "&amp;A51&amp;D51</f>
+        <v>&lt;li&gt;(50) MARY RODELYN A. CARIAGA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -1492,13 +1549,13 @@
         <v>2</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(51) VERGIE ANN GALENZOGA&lt;/li&gt;</v>
+        <f>C52&amp;"("&amp;B52&amp;") "&amp;A52&amp;D52</f>
+        <v>&lt;li&gt;(51) NORDEN LEPCHA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -1510,13 +1567,13 @@
         <v>2</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(52) VINCE G. LAO&lt;/li&gt;</v>
+        <f>C53&amp;"("&amp;B53&amp;") "&amp;A53&amp;D53</f>
+        <v>&lt;li&gt;(52) NYLE PARDILLO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -1528,11 +1585,14 @@
         <v>2</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(53) WENDY C. ENERLAN&lt;/li&gt;</v>
+        <f>C54&amp;"("&amp;B54&amp;") "&amp;A54&amp;D54</f>
+        <v>&lt;li&gt;(53) NYLREM JANNE G. LLAGAS&lt;/li&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
       <c r="B55">
         <v>54</v>
       </c>
@@ -1543,11 +1603,14 @@
         <v>2</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(54) &lt;/li&gt;</v>
+        <f>C55&amp;"("&amp;B55&amp;") "&amp;A55&amp;D55</f>
+        <v>&lt;li&gt;(54) NYMPHMARY DAPHNE J. SANTIAGO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
       <c r="B56">
         <v>55</v>
       </c>
@@ -1558,11 +1621,14 @@
         <v>2</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(55) &lt;/li&gt;</v>
+        <f>C56&amp;"("&amp;B56&amp;") "&amp;A56&amp;D56</f>
+        <v>&lt;li&gt;(55) RANDY OROT&lt;/li&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
       <c r="B57">
         <v>56</v>
       </c>
@@ -1573,11 +1639,14 @@
         <v>2</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(56) &lt;/li&gt;</v>
+        <f>C57&amp;"("&amp;B57&amp;") "&amp;A57&amp;D57</f>
+        <v>&lt;li&gt;(56) REY A. CASTILLO &lt;/li&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
       <c r="B58">
         <v>57</v>
       </c>
@@ -1588,11 +1657,14 @@
         <v>2</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(57) &lt;/li&gt;</v>
+        <f>C58&amp;"("&amp;B58&amp;") "&amp;A58&amp;D58</f>
+        <v>&lt;li&gt;(57) REYVIN SABANAL&lt;/li&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
       <c r="B59">
         <v>58</v>
       </c>
@@ -1603,11 +1675,14 @@
         <v>2</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(58) &lt;/li&gt;</v>
+        <f>C59&amp;"("&amp;B59&amp;") "&amp;A59&amp;D59</f>
+        <v>&lt;li&gt;(58) RICKI MAE O. GUILING &lt;/li&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
       <c r="B60">
         <v>59</v>
       </c>
@@ -1618,11 +1693,14 @@
         <v>2</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(59) &lt;/li&gt;</v>
+        <f>C60&amp;"("&amp;B60&amp;") "&amp;A60&amp;D60</f>
+        <v>&lt;li&gt;(59) ROCHELLE C. OLANA&lt;/li&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>33</v>
+      </c>
       <c r="B61">
         <v>60</v>
       </c>
@@ -1633,11 +1711,14 @@
         <v>2</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(60) &lt;/li&gt;</v>
+        <f>C61&amp;"("&amp;B61&amp;") "&amp;A61&amp;D61</f>
+        <v>&lt;li&gt;(60) RODULFO T. AUNZO, JR.&lt;/li&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
       <c r="B62">
         <v>61</v>
       </c>
@@ -1648,11 +1729,14 @@
         <v>2</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(61) &lt;/li&gt;</v>
+        <f>C62&amp;"("&amp;B62&amp;") "&amp;A62&amp;D62</f>
+        <v>&lt;li&gt;(61) RODULFO TUMACAY AUNZO&lt;/li&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>15</v>
+      </c>
       <c r="B63">
         <v>62</v>
       </c>
@@ -1663,11 +1747,14 @@
         <v>2</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(62) &lt;/li&gt;</v>
+        <f>C63&amp;"("&amp;B63&amp;") "&amp;A63&amp;D63</f>
+        <v>&lt;li&gt;(62) ROMEL G. QUINTE&lt;/li&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
       <c r="B64">
         <v>63</v>
       </c>
@@ -1678,11 +1765,14 @@
         <v>2</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(63) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C64&amp;"("&amp;B64&amp;") "&amp;A64&amp;D64</f>
+        <v>&lt;li&gt;(63) RONNEL C. NOLOS&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
       <c r="B65">
         <v>64</v>
       </c>
@@ -1693,11 +1783,14 @@
         <v>2</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(64) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C65&amp;"("&amp;B65&amp;") "&amp;A65&amp;D65</f>
+        <v>&lt;li&gt;(64) ROY ROGER B. JAIME&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
       <c r="B66">
         <v>65</v>
       </c>
@@ -1708,11 +1801,14 @@
         <v>2</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="0"/>
-        <v>&lt;li&gt;(65) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C66&amp;"("&amp;B66&amp;") "&amp;A66&amp;D66</f>
+        <v>&lt;li&gt;(65) SANCE J. SECONDEZ&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>17</v>
+      </c>
       <c r="B67">
         <v>66</v>
       </c>
@@ -1723,11 +1819,14 @@
         <v>2</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">C67&amp;"("&amp;B67&amp;") "&amp;A67&amp;D67</f>
-        <v>&lt;li&gt;(66) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C67&amp;"("&amp;B67&amp;") "&amp;A67&amp;D67</f>
+        <v>&lt;li&gt;(66) SHEMAIAH GAIL P. PLACENCIA&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>47</v>
+      </c>
       <c r="B68">
         <v>67</v>
       </c>
@@ -1738,11 +1837,14 @@
         <v>2</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;(67) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C68&amp;"("&amp;B68&amp;") "&amp;A68&amp;D68</f>
+        <v>&lt;li&gt;(67) SHIELA LO-ON TIROL&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
       <c r="B69">
         <v>68</v>
       </c>
@@ -1753,11 +1855,14 @@
         <v>2</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;(68) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C69&amp;"("&amp;B69&amp;") "&amp;A69&amp;D69</f>
+        <v>&lt;li&gt;(68) STEPHEN PAUL G. CAJIGAS&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>39</v>
+      </c>
       <c r="B70">
         <v>69</v>
       </c>
@@ -1768,11 +1873,14 @@
         <v>2</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;(69) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C70&amp;"("&amp;B70&amp;") "&amp;A70&amp;D70</f>
+        <v>&lt;li&gt;(69) THEA GALOS&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
       <c r="B71">
         <v>70</v>
       </c>
@@ -1783,11 +1891,14 @@
         <v>2</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;(70) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C71&amp;"("&amp;B71&amp;") "&amp;A71&amp;D71</f>
+        <v>&lt;li&gt;(70) TRISTAN L. ABANDO&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
       <c r="B72">
         <v>71</v>
       </c>
@@ -1798,11 +1909,14 @@
         <v>2</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;(71) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C72&amp;"("&amp;B72&amp;") "&amp;A72&amp;D72</f>
+        <v>&lt;li&gt;(71) WENDY C. ENERLAN&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>49</v>
+      </c>
       <c r="B73">
         <v>72</v>
       </c>
@@ -1813,11 +1927,11 @@
         <v>2</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;li&gt;(72) &lt;/li&gt;</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+        <f>C73&amp;"("&amp;B73&amp;") "&amp;A73&amp;D73</f>
+        <v>&lt;li&gt;(72) WILMINA B. DAVID&lt;/li&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>73</v>
       </c>
@@ -1828,11 +1942,11 @@
         <v>2</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="1"/>
+        <f>C74&amp;"("&amp;B74&amp;") "&amp;A74&amp;D74</f>
         <v>&lt;li&gt;(73) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>74</v>
       </c>
@@ -1843,11 +1957,11 @@
         <v>2</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="1"/>
+        <f>C75&amp;"("&amp;B75&amp;") "&amp;A75&amp;D75</f>
         <v>&lt;li&gt;(74) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>75</v>
       </c>
@@ -1858,11 +1972,11 @@
         <v>2</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="1"/>
+        <f>C76&amp;"("&amp;B76&amp;") "&amp;A76&amp;D76</f>
         <v>&lt;li&gt;(75) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>76</v>
       </c>
@@ -1873,11 +1987,11 @@
         <v>2</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="1"/>
+        <f>C77&amp;"("&amp;B77&amp;") "&amp;A77&amp;D77</f>
         <v>&lt;li&gt;(76) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>77</v>
       </c>
@@ -1888,11 +2002,11 @@
         <v>2</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="1"/>
+        <f>C78&amp;"("&amp;B78&amp;") "&amp;A78&amp;D78</f>
         <v>&lt;li&gt;(77) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>78</v>
       </c>
@@ -1903,11 +2017,11 @@
         <v>2</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="1"/>
+        <f>C79&amp;"("&amp;B79&amp;") "&amp;A79&amp;D79</f>
         <v>&lt;li&gt;(78) &lt;/li&gt;</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>79</v>
       </c>
@@ -1918,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="1"/>
+        <f>C80&amp;"("&amp;B80&amp;") "&amp;A80&amp;D80</f>
         <v>&lt;li&gt;(79) &lt;/li&gt;</v>
       </c>
     </row>
@@ -1933,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="1"/>
+        <f>C81&amp;"("&amp;B81&amp;") "&amp;A81&amp;D81</f>
         <v>&lt;li&gt;(80) &lt;/li&gt;</v>
       </c>
     </row>
@@ -1948,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="1"/>
+        <f>C82&amp;"("&amp;B82&amp;") "&amp;A82&amp;D82</f>
         <v>&lt;li&gt;(81) &lt;/li&gt;</v>
       </c>
     </row>
@@ -1963,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="1"/>
+        <f>C83&amp;"("&amp;B83&amp;") "&amp;A83&amp;D83</f>
         <v>&lt;li&gt;(82) &lt;/li&gt;</v>
       </c>
     </row>
@@ -1978,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="1"/>
+        <f>C84&amp;"("&amp;B84&amp;") "&amp;A84&amp;D84</f>
         <v>&lt;li&gt;(83) &lt;/li&gt;</v>
       </c>
     </row>
@@ -1993,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="1"/>
+        <f>C85&amp;"("&amp;B85&amp;") "&amp;A85&amp;D85</f>
         <v>&lt;li&gt;(84) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2008,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="1"/>
+        <f>C86&amp;"("&amp;B86&amp;") "&amp;A86&amp;D86</f>
         <v>&lt;li&gt;(85) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2023,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="1"/>
+        <f>C87&amp;"("&amp;B87&amp;") "&amp;A87&amp;D87</f>
         <v>&lt;li&gt;(86) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2038,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="1"/>
+        <f>C88&amp;"("&amp;B88&amp;") "&amp;A88&amp;D88</f>
         <v>&lt;li&gt;(87) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2053,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="1"/>
+        <f>C89&amp;"("&amp;B89&amp;") "&amp;A89&amp;D89</f>
         <v>&lt;li&gt;(88) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2068,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="1"/>
+        <f>C90&amp;"("&amp;B90&amp;") "&amp;A90&amp;D90</f>
         <v>&lt;li&gt;(89) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2083,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="1"/>
+        <f>C91&amp;"("&amp;B91&amp;") "&amp;A91&amp;D91</f>
         <v>&lt;li&gt;(90) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2098,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="1"/>
+        <f>C92&amp;"("&amp;B92&amp;") "&amp;A92&amp;D92</f>
         <v>&lt;li&gt;(91) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2113,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="1"/>
+        <f>C93&amp;"("&amp;B93&amp;") "&amp;A93&amp;D93</f>
         <v>&lt;li&gt;(92) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2128,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="1"/>
+        <f>C94&amp;"("&amp;B94&amp;") "&amp;A94&amp;D94</f>
         <v>&lt;li&gt;(93) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2143,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="1"/>
+        <f>C95&amp;"("&amp;B95&amp;") "&amp;A95&amp;D95</f>
         <v>&lt;li&gt;(94) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2158,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="1"/>
+        <f>C96&amp;"("&amp;B96&amp;") "&amp;A96&amp;D96</f>
         <v>&lt;li&gt;(95) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2173,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="1"/>
+        <f>C97&amp;"("&amp;B97&amp;") "&amp;A97&amp;D97</f>
         <v>&lt;li&gt;(96) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2188,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="1"/>
+        <f>C98&amp;"("&amp;B98&amp;") "&amp;A98&amp;D98</f>
         <v>&lt;li&gt;(97) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2203,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="1"/>
+        <f>C99&amp;"("&amp;B99&amp;") "&amp;A99&amp;D99</f>
         <v>&lt;li&gt;(98) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2218,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="1"/>
+        <f>C100&amp;"("&amp;B100&amp;") "&amp;A100&amp;D100</f>
         <v>&lt;li&gt;(99) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2233,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="1"/>
+        <f>C101&amp;"("&amp;B101&amp;") "&amp;A101&amp;D101</f>
         <v>&lt;li&gt;(100) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2248,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="1"/>
+        <f>C102&amp;"("&amp;B102&amp;") "&amp;A102&amp;D102</f>
         <v>&lt;li&gt;(101) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2263,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="1"/>
+        <f>C103&amp;"("&amp;B103&amp;") "&amp;A103&amp;D103</f>
         <v>&lt;li&gt;(102) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2278,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="1"/>
+        <f>C104&amp;"("&amp;B104&amp;") "&amp;A104&amp;D104</f>
         <v>&lt;li&gt;(103) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2293,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="1"/>
+        <f>C105&amp;"("&amp;B105&amp;") "&amp;A105&amp;D105</f>
         <v>&lt;li&gt;(104) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2308,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="1"/>
+        <f>C106&amp;"("&amp;B106&amp;") "&amp;A106&amp;D106</f>
         <v>&lt;li&gt;(105) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2323,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="1"/>
+        <f>C107&amp;"("&amp;B107&amp;") "&amp;A107&amp;D107</f>
         <v>&lt;li&gt;(106) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2338,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="1"/>
+        <f>C108&amp;"("&amp;B108&amp;") "&amp;A108&amp;D108</f>
         <v>&lt;li&gt;(107) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2353,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="1"/>
+        <f>C109&amp;"("&amp;B109&amp;") "&amp;A109&amp;D109</f>
         <v>&lt;li&gt;(108) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2368,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="1"/>
+        <f>C110&amp;"("&amp;B110&amp;") "&amp;A110&amp;D110</f>
         <v>&lt;li&gt;(109) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2383,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="1"/>
+        <f>C111&amp;"("&amp;B111&amp;") "&amp;A111&amp;D111</f>
         <v>&lt;li&gt;(110) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2398,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="1"/>
+        <f>C112&amp;"("&amp;B112&amp;") "&amp;A112&amp;D112</f>
         <v>&lt;li&gt;(111) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2413,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="1"/>
+        <f>C113&amp;"("&amp;B113&amp;") "&amp;A113&amp;D113</f>
         <v>&lt;li&gt;(112) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2428,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="1"/>
+        <f>C114&amp;"("&amp;B114&amp;") "&amp;A114&amp;D114</f>
         <v>&lt;li&gt;(113) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2443,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="1"/>
+        <f>C115&amp;"("&amp;B115&amp;") "&amp;A115&amp;D115</f>
         <v>&lt;li&gt;(114) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2458,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="1"/>
+        <f>C116&amp;"("&amp;B116&amp;") "&amp;A116&amp;D116</f>
         <v>&lt;li&gt;(115) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2473,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="1"/>
+        <f>C117&amp;"("&amp;B117&amp;") "&amp;A117&amp;D117</f>
         <v>&lt;li&gt;(116) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2488,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="1"/>
+        <f>C118&amp;"("&amp;B118&amp;") "&amp;A118&amp;D118</f>
         <v>&lt;li&gt;(117) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2503,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="1"/>
+        <f>C119&amp;"("&amp;B119&amp;") "&amp;A119&amp;D119</f>
         <v>&lt;li&gt;(118) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2518,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="1"/>
+        <f>C120&amp;"("&amp;B120&amp;") "&amp;A120&amp;D120</f>
         <v>&lt;li&gt;(119) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2533,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="1"/>
+        <f>C121&amp;"("&amp;B121&amp;") "&amp;A121&amp;D121</f>
         <v>&lt;li&gt;(120) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2548,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="1"/>
+        <f>C122&amp;"("&amp;B122&amp;") "&amp;A122&amp;D122</f>
         <v>&lt;li&gt;(121) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2563,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="1"/>
+        <f>C123&amp;"("&amp;B123&amp;") "&amp;A123&amp;D123</f>
         <v>&lt;li&gt;(122) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2578,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="1"/>
+        <f>C124&amp;"("&amp;B124&amp;") "&amp;A124&amp;D124</f>
         <v>&lt;li&gt;(123) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2593,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="1"/>
+        <f>C125&amp;"("&amp;B125&amp;") "&amp;A125&amp;D125</f>
         <v>&lt;li&gt;(124) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2608,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="1"/>
+        <f>C126&amp;"("&amp;B126&amp;") "&amp;A126&amp;D126</f>
         <v>&lt;li&gt;(125) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2623,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="1"/>
+        <f>C127&amp;"("&amp;B127&amp;") "&amp;A127&amp;D127</f>
         <v>&lt;li&gt;(126) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2638,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="1"/>
+        <f>C128&amp;"("&amp;B128&amp;") "&amp;A128&amp;D128</f>
         <v>&lt;li&gt;(127) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2653,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="1"/>
+        <f>C129&amp;"("&amp;B129&amp;") "&amp;A129&amp;D129</f>
         <v>&lt;li&gt;(128) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2668,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" si="1"/>
+        <f>C130&amp;"("&amp;B130&amp;") "&amp;A130&amp;D130</f>
         <v>&lt;li&gt;(129) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2683,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" ref="E131:E194" si="2">C131&amp;"("&amp;B131&amp;") "&amp;A131&amp;D131</f>
+        <f>C131&amp;"("&amp;B131&amp;") "&amp;A131&amp;D131</f>
         <v>&lt;li&gt;(130) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2698,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="2"/>
+        <f>C132&amp;"("&amp;B132&amp;") "&amp;A132&amp;D132</f>
         <v>&lt;li&gt;(131) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2713,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="2"/>
+        <f>C133&amp;"("&amp;B133&amp;") "&amp;A133&amp;D133</f>
         <v>&lt;li&gt;(132) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2728,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="2"/>
+        <f>C134&amp;"("&amp;B134&amp;") "&amp;A134&amp;D134</f>
         <v>&lt;li&gt;(133) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2743,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="2"/>
+        <f>C135&amp;"("&amp;B135&amp;") "&amp;A135&amp;D135</f>
         <v>&lt;li&gt;(134) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2758,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="2"/>
+        <f>C136&amp;"("&amp;B136&amp;") "&amp;A136&amp;D136</f>
         <v>&lt;li&gt;(135) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2773,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="2"/>
+        <f>C137&amp;"("&amp;B137&amp;") "&amp;A137&amp;D137</f>
         <v>&lt;li&gt;(136) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2788,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="2"/>
+        <f>C138&amp;"("&amp;B138&amp;") "&amp;A138&amp;D138</f>
         <v>&lt;li&gt;(137) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2803,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="2"/>
+        <f>C139&amp;"("&amp;B139&amp;") "&amp;A139&amp;D139</f>
         <v>&lt;li&gt;(138) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2818,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="2"/>
+        <f>C140&amp;"("&amp;B140&amp;") "&amp;A140&amp;D140</f>
         <v>&lt;li&gt;(139) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2833,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="2"/>
+        <f>C141&amp;"("&amp;B141&amp;") "&amp;A141&amp;D141</f>
         <v>&lt;li&gt;(140) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2848,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="2"/>
+        <f>C142&amp;"("&amp;B142&amp;") "&amp;A142&amp;D142</f>
         <v>&lt;li&gt;(141) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2863,7 +2977,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="2"/>
+        <f>C143&amp;"("&amp;B143&amp;") "&amp;A143&amp;D143</f>
         <v>&lt;li&gt;(142) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2878,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="2"/>
+        <f>C144&amp;"("&amp;B144&amp;") "&amp;A144&amp;D144</f>
         <v>&lt;li&gt;(143) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2893,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="2"/>
+        <f>C145&amp;"("&amp;B145&amp;") "&amp;A145&amp;D145</f>
         <v>&lt;li&gt;(144) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2908,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="2"/>
+        <f>C146&amp;"("&amp;B146&amp;") "&amp;A146&amp;D146</f>
         <v>&lt;li&gt;(145) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2923,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="2"/>
+        <f>C147&amp;"("&amp;B147&amp;") "&amp;A147&amp;D147</f>
         <v>&lt;li&gt;(146) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2938,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="2"/>
+        <f>C148&amp;"("&amp;B148&amp;") "&amp;A148&amp;D148</f>
         <v>&lt;li&gt;(147) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2953,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="2"/>
+        <f>C149&amp;"("&amp;B149&amp;") "&amp;A149&amp;D149</f>
         <v>&lt;li&gt;(148) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2968,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="2"/>
+        <f>C150&amp;"("&amp;B150&amp;") "&amp;A150&amp;D150</f>
         <v>&lt;li&gt;(149) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2983,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="2"/>
+        <f>C151&amp;"("&amp;B151&amp;") "&amp;A151&amp;D151</f>
         <v>&lt;li&gt;(150) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2998,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="2"/>
+        <f>C152&amp;"("&amp;B152&amp;") "&amp;A152&amp;D152</f>
         <v>&lt;li&gt;(151) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3013,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="2"/>
+        <f>C153&amp;"("&amp;B153&amp;") "&amp;A153&amp;D153</f>
         <v>&lt;li&gt;(152) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3028,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="2"/>
+        <f>C154&amp;"("&amp;B154&amp;") "&amp;A154&amp;D154</f>
         <v>&lt;li&gt;(153) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3043,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="2"/>
+        <f>C155&amp;"("&amp;B155&amp;") "&amp;A155&amp;D155</f>
         <v>&lt;li&gt;(154) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3058,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="2"/>
+        <f>C156&amp;"("&amp;B156&amp;") "&amp;A156&amp;D156</f>
         <v>&lt;li&gt;(155) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3073,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="2"/>
+        <f>C157&amp;"("&amp;B157&amp;") "&amp;A157&amp;D157</f>
         <v>&lt;li&gt;(156) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3088,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="2"/>
+        <f>C158&amp;"("&amp;B158&amp;") "&amp;A158&amp;D158</f>
         <v>&lt;li&gt;(157) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3103,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="2"/>
+        <f>C159&amp;"("&amp;B159&amp;") "&amp;A159&amp;D159</f>
         <v>&lt;li&gt;(158) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3118,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="2"/>
+        <f>C160&amp;"("&amp;B160&amp;") "&amp;A160&amp;D160</f>
         <v>&lt;li&gt;(159) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3133,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="2"/>
+        <f>C161&amp;"("&amp;B161&amp;") "&amp;A161&amp;D161</f>
         <v>&lt;li&gt;(160) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3148,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" si="2"/>
+        <f>C162&amp;"("&amp;B162&amp;") "&amp;A162&amp;D162</f>
         <v>&lt;li&gt;(161) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3163,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="2"/>
+        <f>C163&amp;"("&amp;B163&amp;") "&amp;A163&amp;D163</f>
         <v>&lt;li&gt;(162) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3178,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="2"/>
+        <f>C164&amp;"("&amp;B164&amp;") "&amp;A164&amp;D164</f>
         <v>&lt;li&gt;(163) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3193,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="2"/>
+        <f>C165&amp;"("&amp;B165&amp;") "&amp;A165&amp;D165</f>
         <v>&lt;li&gt;(164) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3208,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="2"/>
+        <f>C166&amp;"("&amp;B166&amp;") "&amp;A166&amp;D166</f>
         <v>&lt;li&gt;(165) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3223,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="2"/>
+        <f>C167&amp;"("&amp;B167&amp;") "&amp;A167&amp;D167</f>
         <v>&lt;li&gt;(166) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3238,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="2"/>
+        <f>C168&amp;"("&amp;B168&amp;") "&amp;A168&amp;D168</f>
         <v>&lt;li&gt;(167) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3253,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="2"/>
+        <f>C169&amp;"("&amp;B169&amp;") "&amp;A169&amp;D169</f>
         <v>&lt;li&gt;(168) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3268,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="2"/>
+        <f>C170&amp;"("&amp;B170&amp;") "&amp;A170&amp;D170</f>
         <v>&lt;li&gt;(169) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3283,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="2"/>
+        <f>C171&amp;"("&amp;B171&amp;") "&amp;A171&amp;D171</f>
         <v>&lt;li&gt;(170) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3298,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="2"/>
+        <f>C172&amp;"("&amp;B172&amp;") "&amp;A172&amp;D172</f>
         <v>&lt;li&gt;(171) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3313,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="2"/>
+        <f>C173&amp;"("&amp;B173&amp;") "&amp;A173&amp;D173</f>
         <v>&lt;li&gt;(172) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3328,7 +3442,7 @@
         <v>2</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="2"/>
+        <f>C174&amp;"("&amp;B174&amp;") "&amp;A174&amp;D174</f>
         <v>&lt;li&gt;(173) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3343,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="2"/>
+        <f>C175&amp;"("&amp;B175&amp;") "&amp;A175&amp;D175</f>
         <v>&lt;li&gt;(174) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3358,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="2"/>
+        <f>C176&amp;"("&amp;B176&amp;") "&amp;A176&amp;D176</f>
         <v>&lt;li&gt;(175) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3373,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="2"/>
+        <f>C177&amp;"("&amp;B177&amp;") "&amp;A177&amp;D177</f>
         <v>&lt;li&gt;(176) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3388,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="2"/>
+        <f>C178&amp;"("&amp;B178&amp;") "&amp;A178&amp;D178</f>
         <v>&lt;li&gt;(177) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3403,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="2"/>
+        <f>C179&amp;"("&amp;B179&amp;") "&amp;A179&amp;D179</f>
         <v>&lt;li&gt;(178) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3418,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="2"/>
+        <f>C180&amp;"("&amp;B180&amp;") "&amp;A180&amp;D180</f>
         <v>&lt;li&gt;(179) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3433,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="2"/>
+        <f>C181&amp;"("&amp;B181&amp;") "&amp;A181&amp;D181</f>
         <v>&lt;li&gt;(180) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3448,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="2"/>
+        <f>C182&amp;"("&amp;B182&amp;") "&amp;A182&amp;D182</f>
         <v>&lt;li&gt;(181) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3463,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="2"/>
+        <f>C183&amp;"("&amp;B183&amp;") "&amp;A183&amp;D183</f>
         <v>&lt;li&gt;(182) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3478,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="2"/>
+        <f>C184&amp;"("&amp;B184&amp;") "&amp;A184&amp;D184</f>
         <v>&lt;li&gt;(183) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3493,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="2"/>
+        <f>C185&amp;"("&amp;B185&amp;") "&amp;A185&amp;D185</f>
         <v>&lt;li&gt;(184) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3508,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="2"/>
+        <f>C186&amp;"("&amp;B186&amp;") "&amp;A186&amp;D186</f>
         <v>&lt;li&gt;(185) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3523,7 +3637,7 @@
         <v>2</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="2"/>
+        <f>C187&amp;"("&amp;B187&amp;") "&amp;A187&amp;D187</f>
         <v>&lt;li&gt;(186) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3538,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="2"/>
+        <f>C188&amp;"("&amp;B188&amp;") "&amp;A188&amp;D188</f>
         <v>&lt;li&gt;(187) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3553,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="2"/>
+        <f>C189&amp;"("&amp;B189&amp;") "&amp;A189&amp;D189</f>
         <v>&lt;li&gt;(188) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3568,7 +3682,7 @@
         <v>2</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="2"/>
+        <f>C190&amp;"("&amp;B190&amp;") "&amp;A190&amp;D190</f>
         <v>&lt;li&gt;(189) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3583,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="2"/>
+        <f>C191&amp;"("&amp;B191&amp;") "&amp;A191&amp;D191</f>
         <v>&lt;li&gt;(190) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3598,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="2"/>
+        <f>C192&amp;"("&amp;B192&amp;") "&amp;A192&amp;D192</f>
         <v>&lt;li&gt;(191) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3613,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="2"/>
+        <f>C193&amp;"("&amp;B193&amp;") "&amp;A193&amp;D193</f>
         <v>&lt;li&gt;(192) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3628,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="E194" t="str">
-        <f t="shared" si="2"/>
+        <f>C194&amp;"("&amp;B194&amp;") "&amp;A194&amp;D194</f>
         <v>&lt;li&gt;(193) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3643,7 +3757,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="str">
-        <f t="shared" ref="E195:E258" si="3">C195&amp;"("&amp;B195&amp;") "&amp;A195&amp;D195</f>
+        <f>C195&amp;"("&amp;B195&amp;") "&amp;A195&amp;D195</f>
         <v>&lt;li&gt;(194) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3658,7 +3772,7 @@
         <v>2</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" si="3"/>
+        <f>C196&amp;"("&amp;B196&amp;") "&amp;A196&amp;D196</f>
         <v>&lt;li&gt;(195) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3673,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="3"/>
+        <f>C197&amp;"("&amp;B197&amp;") "&amp;A197&amp;D197</f>
         <v>&lt;li&gt;(196) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3688,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="E198" t="str">
-        <f t="shared" si="3"/>
+        <f>C198&amp;"("&amp;B198&amp;") "&amp;A198&amp;D198</f>
         <v>&lt;li&gt;(197) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3703,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="E199" t="str">
-        <f t="shared" si="3"/>
+        <f>C199&amp;"("&amp;B199&amp;") "&amp;A199&amp;D199</f>
         <v>&lt;li&gt;(198) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3718,7 +3832,7 @@
         <v>2</v>
       </c>
       <c r="E200" t="str">
-        <f t="shared" si="3"/>
+        <f>C200&amp;"("&amp;B200&amp;") "&amp;A200&amp;D200</f>
         <v>&lt;li&gt;(199) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3733,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="E201" t="str">
-        <f t="shared" si="3"/>
+        <f>C201&amp;"("&amp;B201&amp;") "&amp;A201&amp;D201</f>
         <v>&lt;li&gt;(200) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3748,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="E202" t="str">
-        <f t="shared" si="3"/>
+        <f>C202&amp;"("&amp;B202&amp;") "&amp;A202&amp;D202</f>
         <v>&lt;li&gt;(201) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3763,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="E203" t="str">
-        <f t="shared" si="3"/>
+        <f>C203&amp;"("&amp;B203&amp;") "&amp;A203&amp;D203</f>
         <v>&lt;li&gt;(202) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3778,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="E204" t="str">
-        <f t="shared" si="3"/>
+        <f>C204&amp;"("&amp;B204&amp;") "&amp;A204&amp;D204</f>
         <v>&lt;li&gt;(203) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3793,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="E205" t="str">
-        <f t="shared" si="3"/>
+        <f>C205&amp;"("&amp;B205&amp;") "&amp;A205&amp;D205</f>
         <v>&lt;li&gt;(204) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3808,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="E206" t="str">
-        <f t="shared" si="3"/>
+        <f>C206&amp;"("&amp;B206&amp;") "&amp;A206&amp;D206</f>
         <v>&lt;li&gt;(205) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3823,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="E207" t="str">
-        <f t="shared" si="3"/>
+        <f>C207&amp;"("&amp;B207&amp;") "&amp;A207&amp;D207</f>
         <v>&lt;li&gt;(206) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3838,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="E208" t="str">
-        <f t="shared" si="3"/>
+        <f>C208&amp;"("&amp;B208&amp;") "&amp;A208&amp;D208</f>
         <v>&lt;li&gt;(207) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3853,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="E209" t="str">
-        <f t="shared" si="3"/>
+        <f>C209&amp;"("&amp;B209&amp;") "&amp;A209&amp;D209</f>
         <v>&lt;li&gt;(208) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3868,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="E210" t="str">
-        <f t="shared" si="3"/>
+        <f>C210&amp;"("&amp;B210&amp;") "&amp;A210&amp;D210</f>
         <v>&lt;li&gt;(209) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3883,7 +3997,7 @@
         <v>2</v>
       </c>
       <c r="E211" t="str">
-        <f t="shared" si="3"/>
+        <f>C211&amp;"("&amp;B211&amp;") "&amp;A211&amp;D211</f>
         <v>&lt;li&gt;(210) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3898,7 +4012,7 @@
         <v>2</v>
       </c>
       <c r="E212" t="str">
-        <f t="shared" si="3"/>
+        <f>C212&amp;"("&amp;B212&amp;") "&amp;A212&amp;D212</f>
         <v>&lt;li&gt;(211) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3913,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="E213" t="str">
-        <f t="shared" si="3"/>
+        <f>C213&amp;"("&amp;B213&amp;") "&amp;A213&amp;D213</f>
         <v>&lt;li&gt;(212) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3928,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="E214" t="str">
-        <f t="shared" si="3"/>
+        <f>C214&amp;"("&amp;B214&amp;") "&amp;A214&amp;D214</f>
         <v>&lt;li&gt;(213) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3943,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="E215" t="str">
-        <f t="shared" si="3"/>
+        <f>C215&amp;"("&amp;B215&amp;") "&amp;A215&amp;D215</f>
         <v>&lt;li&gt;(214) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3958,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="E216" t="str">
-        <f t="shared" si="3"/>
+        <f>C216&amp;"("&amp;B216&amp;") "&amp;A216&amp;D216</f>
         <v>&lt;li&gt;(215) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3973,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="E217" t="str">
-        <f t="shared" si="3"/>
+        <f>C217&amp;"("&amp;B217&amp;") "&amp;A217&amp;D217</f>
         <v>&lt;li&gt;(216) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3988,7 +4102,7 @@
         <v>2</v>
       </c>
       <c r="E218" t="str">
-        <f t="shared" si="3"/>
+        <f>C218&amp;"("&amp;B218&amp;") "&amp;A218&amp;D218</f>
         <v>&lt;li&gt;(217) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4003,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="E219" t="str">
-        <f t="shared" si="3"/>
+        <f>C219&amp;"("&amp;B219&amp;") "&amp;A219&amp;D219</f>
         <v>&lt;li&gt;(218) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4018,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="E220" t="str">
-        <f t="shared" si="3"/>
+        <f>C220&amp;"("&amp;B220&amp;") "&amp;A220&amp;D220</f>
         <v>&lt;li&gt;(219) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4033,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="E221" t="str">
-        <f t="shared" si="3"/>
+        <f>C221&amp;"("&amp;B221&amp;") "&amp;A221&amp;D221</f>
         <v>&lt;li&gt;(220) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4048,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="E222" t="str">
-        <f t="shared" si="3"/>
+        <f>C222&amp;"("&amp;B222&amp;") "&amp;A222&amp;D222</f>
         <v>&lt;li&gt;(221) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4063,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="E223" t="str">
-        <f t="shared" si="3"/>
+        <f>C223&amp;"("&amp;B223&amp;") "&amp;A223&amp;D223</f>
         <v>&lt;li&gt;(222) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4078,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="E224" t="str">
-        <f t="shared" si="3"/>
+        <f>C224&amp;"("&amp;B224&amp;") "&amp;A224&amp;D224</f>
         <v>&lt;li&gt;(223) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4093,7 +4207,7 @@
         <v>2</v>
       </c>
       <c r="E225" t="str">
-        <f t="shared" si="3"/>
+        <f>C225&amp;"("&amp;B225&amp;") "&amp;A225&amp;D225</f>
         <v>&lt;li&gt;(224) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4108,7 +4222,7 @@
         <v>2</v>
       </c>
       <c r="E226" t="str">
-        <f t="shared" si="3"/>
+        <f>C226&amp;"("&amp;B226&amp;") "&amp;A226&amp;D226</f>
         <v>&lt;li&gt;(225) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4123,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="E227" t="str">
-        <f t="shared" si="3"/>
+        <f>C227&amp;"("&amp;B227&amp;") "&amp;A227&amp;D227</f>
         <v>&lt;li&gt;(226) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4138,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="E228" t="str">
-        <f t="shared" si="3"/>
+        <f>C228&amp;"("&amp;B228&amp;") "&amp;A228&amp;D228</f>
         <v>&lt;li&gt;(227) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4153,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="E229" t="str">
-        <f t="shared" si="3"/>
+        <f>C229&amp;"("&amp;B229&amp;") "&amp;A229&amp;D229</f>
         <v>&lt;li&gt;(228) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4168,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="E230" t="str">
-        <f t="shared" si="3"/>
+        <f>C230&amp;"("&amp;B230&amp;") "&amp;A230&amp;D230</f>
         <v>&lt;li&gt;(229) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4183,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="E231" t="str">
-        <f t="shared" si="3"/>
+        <f>C231&amp;"("&amp;B231&amp;") "&amp;A231&amp;D231</f>
         <v>&lt;li&gt;(230) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4198,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="E232" t="str">
-        <f t="shared" si="3"/>
+        <f>C232&amp;"("&amp;B232&amp;") "&amp;A232&amp;D232</f>
         <v>&lt;li&gt;(231) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4213,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="E233" t="str">
-        <f t="shared" si="3"/>
+        <f>C233&amp;"("&amp;B233&amp;") "&amp;A233&amp;D233</f>
         <v>&lt;li&gt;(232) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4228,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="E234" t="str">
-        <f t="shared" si="3"/>
+        <f>C234&amp;"("&amp;B234&amp;") "&amp;A234&amp;D234</f>
         <v>&lt;li&gt;(233) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4243,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="E235" t="str">
-        <f t="shared" si="3"/>
+        <f>C235&amp;"("&amp;B235&amp;") "&amp;A235&amp;D235</f>
         <v>&lt;li&gt;(234) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4258,7 +4372,7 @@
         <v>2</v>
       </c>
       <c r="E236" t="str">
-        <f t="shared" si="3"/>
+        <f>C236&amp;"("&amp;B236&amp;") "&amp;A236&amp;D236</f>
         <v>&lt;li&gt;(235) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4273,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="E237" t="str">
-        <f t="shared" si="3"/>
+        <f>C237&amp;"("&amp;B237&amp;") "&amp;A237&amp;D237</f>
         <v>&lt;li&gt;(236) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4288,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="E238" t="str">
-        <f t="shared" si="3"/>
+        <f>C238&amp;"("&amp;B238&amp;") "&amp;A238&amp;D238</f>
         <v>&lt;li&gt;(237) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4303,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="E239" t="str">
-        <f t="shared" si="3"/>
+        <f>C239&amp;"("&amp;B239&amp;") "&amp;A239&amp;D239</f>
         <v>&lt;li&gt;(238) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4318,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="E240" t="str">
-        <f t="shared" si="3"/>
+        <f>C240&amp;"("&amp;B240&amp;") "&amp;A240&amp;D240</f>
         <v>&lt;li&gt;(239) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4333,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="E241" t="str">
-        <f t="shared" si="3"/>
+        <f>C241&amp;"("&amp;B241&amp;") "&amp;A241&amp;D241</f>
         <v>&lt;li&gt;(240) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4348,7 +4462,7 @@
         <v>2</v>
       </c>
       <c r="E242" t="str">
-        <f t="shared" si="3"/>
+        <f>C242&amp;"("&amp;B242&amp;") "&amp;A242&amp;D242</f>
         <v>&lt;li&gt;(241) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4363,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="E243" t="str">
-        <f t="shared" si="3"/>
+        <f>C243&amp;"("&amp;B243&amp;") "&amp;A243&amp;D243</f>
         <v>&lt;li&gt;(242) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4378,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="E244" t="str">
-        <f t="shared" si="3"/>
+        <f>C244&amp;"("&amp;B244&amp;") "&amp;A244&amp;D244</f>
         <v>&lt;li&gt;(243) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4393,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="E245" t="str">
-        <f t="shared" si="3"/>
+        <f>C245&amp;"("&amp;B245&amp;") "&amp;A245&amp;D245</f>
         <v>&lt;li&gt;(244) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4408,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="E246" t="str">
-        <f t="shared" si="3"/>
+        <f>C246&amp;"("&amp;B246&amp;") "&amp;A246&amp;D246</f>
         <v>&lt;li&gt;(245) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4423,7 +4537,7 @@
         <v>2</v>
       </c>
       <c r="E247" t="str">
-        <f t="shared" si="3"/>
+        <f>C247&amp;"("&amp;B247&amp;") "&amp;A247&amp;D247</f>
         <v>&lt;li&gt;(246) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4438,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="E248" t="str">
-        <f t="shared" si="3"/>
+        <f>C248&amp;"("&amp;B248&amp;") "&amp;A248&amp;D248</f>
         <v>&lt;li&gt;(247) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4453,7 +4567,7 @@
         <v>2</v>
       </c>
       <c r="E249" t="str">
-        <f t="shared" si="3"/>
+        <f>C249&amp;"("&amp;B249&amp;") "&amp;A249&amp;D249</f>
         <v>&lt;li&gt;(248) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4468,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="E250" t="str">
-        <f t="shared" si="3"/>
+        <f>C250&amp;"("&amp;B250&amp;") "&amp;A250&amp;D250</f>
         <v>&lt;li&gt;(249) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4483,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="E251" t="str">
-        <f t="shared" si="3"/>
+        <f>C251&amp;"("&amp;B251&amp;") "&amp;A251&amp;D251</f>
         <v>&lt;li&gt;(250) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4498,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="E252" t="str">
-        <f t="shared" si="3"/>
+        <f>C252&amp;"("&amp;B252&amp;") "&amp;A252&amp;D252</f>
         <v>&lt;li&gt;(251) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4513,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="E253" t="str">
-        <f t="shared" si="3"/>
+        <f>C253&amp;"("&amp;B253&amp;") "&amp;A253&amp;D253</f>
         <v>&lt;li&gt;(252) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4528,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="E254" t="str">
-        <f t="shared" si="3"/>
+        <f>C254&amp;"("&amp;B254&amp;") "&amp;A254&amp;D254</f>
         <v>&lt;li&gt;(253) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4543,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="E255" t="str">
-        <f t="shared" si="3"/>
+        <f>C255&amp;"("&amp;B255&amp;") "&amp;A255&amp;D255</f>
         <v>&lt;li&gt;(254) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4558,7 +4672,7 @@
         <v>2</v>
       </c>
       <c r="E256" t="str">
-        <f t="shared" si="3"/>
+        <f>C256&amp;"("&amp;B256&amp;") "&amp;A256&amp;D256</f>
         <v>&lt;li&gt;(255) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4573,7 +4687,7 @@
         <v>2</v>
       </c>
       <c r="E257" t="str">
-        <f t="shared" si="3"/>
+        <f>C257&amp;"("&amp;B257&amp;") "&amp;A257&amp;D257</f>
         <v>&lt;li&gt;(256) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4588,7 +4702,7 @@
         <v>2</v>
       </c>
       <c r="E258" t="str">
-        <f t="shared" si="3"/>
+        <f>C258&amp;"("&amp;B258&amp;") "&amp;A258&amp;D258</f>
         <v>&lt;li&gt;(257) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4603,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="E259" t="str">
-        <f t="shared" ref="E259:E300" si="4">C259&amp;"("&amp;B259&amp;") "&amp;A259&amp;D259</f>
+        <f>C259&amp;"("&amp;B259&amp;") "&amp;A259&amp;D259</f>
         <v>&lt;li&gt;(258) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4618,7 +4732,7 @@
         <v>2</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" si="4"/>
+        <f>C260&amp;"("&amp;B260&amp;") "&amp;A260&amp;D260</f>
         <v>&lt;li&gt;(259) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4633,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="E261" t="str">
-        <f t="shared" si="4"/>
+        <f>C261&amp;"("&amp;B261&amp;") "&amp;A261&amp;D261</f>
         <v>&lt;li&gt;(260) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4648,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="E262" t="str">
-        <f t="shared" si="4"/>
+        <f>C262&amp;"("&amp;B262&amp;") "&amp;A262&amp;D262</f>
         <v>&lt;li&gt;(261) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4663,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="E263" t="str">
-        <f t="shared" si="4"/>
+        <f>C263&amp;"("&amp;B263&amp;") "&amp;A263&amp;D263</f>
         <v>&lt;li&gt;(262) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4678,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="E264" t="str">
-        <f t="shared" si="4"/>
+        <f>C264&amp;"("&amp;B264&amp;") "&amp;A264&amp;D264</f>
         <v>&lt;li&gt;(263) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4693,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="E265" t="str">
-        <f t="shared" si="4"/>
+        <f>C265&amp;"("&amp;B265&amp;") "&amp;A265&amp;D265</f>
         <v>&lt;li&gt;(264) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4708,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="E266" t="str">
-        <f t="shared" si="4"/>
+        <f>C266&amp;"("&amp;B266&amp;") "&amp;A266&amp;D266</f>
         <v>&lt;li&gt;(265) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4723,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="E267" t="str">
-        <f t="shared" si="4"/>
+        <f>C267&amp;"("&amp;B267&amp;") "&amp;A267&amp;D267</f>
         <v>&lt;li&gt;(266) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4738,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="E268" t="str">
-        <f t="shared" si="4"/>
+        <f>C268&amp;"("&amp;B268&amp;") "&amp;A268&amp;D268</f>
         <v>&lt;li&gt;(267) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4753,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="E269" t="str">
-        <f t="shared" si="4"/>
+        <f>C269&amp;"("&amp;B269&amp;") "&amp;A269&amp;D269</f>
         <v>&lt;li&gt;(268) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4768,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="E270" t="str">
-        <f t="shared" si="4"/>
+        <f>C270&amp;"("&amp;B270&amp;") "&amp;A270&amp;D270</f>
         <v>&lt;li&gt;(269) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4783,7 +4897,7 @@
         <v>2</v>
       </c>
       <c r="E271" t="str">
-        <f t="shared" si="4"/>
+        <f>C271&amp;"("&amp;B271&amp;") "&amp;A271&amp;D271</f>
         <v>&lt;li&gt;(270) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4798,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="E272" t="str">
-        <f t="shared" si="4"/>
+        <f>C272&amp;"("&amp;B272&amp;") "&amp;A272&amp;D272</f>
         <v>&lt;li&gt;(271) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4813,7 +4927,7 @@
         <v>2</v>
       </c>
       <c r="E273" t="str">
-        <f t="shared" si="4"/>
+        <f>C273&amp;"("&amp;B273&amp;") "&amp;A273&amp;D273</f>
         <v>&lt;li&gt;(272) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4828,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="E274" t="str">
-        <f t="shared" si="4"/>
+        <f>C274&amp;"("&amp;B274&amp;") "&amp;A274&amp;D274</f>
         <v>&lt;li&gt;(273) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4843,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="E275" t="str">
-        <f t="shared" si="4"/>
+        <f>C275&amp;"("&amp;B275&amp;") "&amp;A275&amp;D275</f>
         <v>&lt;li&gt;(274) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4858,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="E276" t="str">
-        <f t="shared" si="4"/>
+        <f>C276&amp;"("&amp;B276&amp;") "&amp;A276&amp;D276</f>
         <v>&lt;li&gt;(275) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4873,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="E277" t="str">
-        <f t="shared" si="4"/>
+        <f>C277&amp;"("&amp;B277&amp;") "&amp;A277&amp;D277</f>
         <v>&lt;li&gt;(276) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4888,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="E278" t="str">
-        <f t="shared" si="4"/>
+        <f>C278&amp;"("&amp;B278&amp;") "&amp;A278&amp;D278</f>
         <v>&lt;li&gt;(277) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4903,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="E279" t="str">
-        <f t="shared" si="4"/>
+        <f>C279&amp;"("&amp;B279&amp;") "&amp;A279&amp;D279</f>
         <v>&lt;li&gt;(278) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4918,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="E280" t="str">
-        <f t="shared" si="4"/>
+        <f>C280&amp;"("&amp;B280&amp;") "&amp;A280&amp;D280</f>
         <v>&lt;li&gt;(279) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4933,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="E281" t="str">
-        <f t="shared" si="4"/>
+        <f>C281&amp;"("&amp;B281&amp;") "&amp;A281&amp;D281</f>
         <v>&lt;li&gt;(280) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4948,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="E282" t="str">
-        <f t="shared" si="4"/>
+        <f>C282&amp;"("&amp;B282&amp;") "&amp;A282&amp;D282</f>
         <v>&lt;li&gt;(281) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4963,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="E283" t="str">
-        <f t="shared" si="4"/>
+        <f>C283&amp;"("&amp;B283&amp;") "&amp;A283&amp;D283</f>
         <v>&lt;li&gt;(282) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4978,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="E284" t="str">
-        <f t="shared" si="4"/>
+        <f>C284&amp;"("&amp;B284&amp;") "&amp;A284&amp;D284</f>
         <v>&lt;li&gt;(283) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4993,7 +5107,7 @@
         <v>2</v>
       </c>
       <c r="E285" t="str">
-        <f t="shared" si="4"/>
+        <f>C285&amp;"("&amp;B285&amp;") "&amp;A285&amp;D285</f>
         <v>&lt;li&gt;(284) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5008,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="E286" t="str">
-        <f t="shared" si="4"/>
+        <f>C286&amp;"("&amp;B286&amp;") "&amp;A286&amp;D286</f>
         <v>&lt;li&gt;(285) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5023,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="E287" t="str">
-        <f t="shared" si="4"/>
+        <f>C287&amp;"("&amp;B287&amp;") "&amp;A287&amp;D287</f>
         <v>&lt;li&gt;(286) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5038,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="E288" t="str">
-        <f t="shared" si="4"/>
+        <f>C288&amp;"("&amp;B288&amp;") "&amp;A288&amp;D288</f>
         <v>&lt;li&gt;(287) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5053,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="E289" t="str">
-        <f t="shared" si="4"/>
+        <f>C289&amp;"("&amp;B289&amp;") "&amp;A289&amp;D289</f>
         <v>&lt;li&gt;(288) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5068,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="E290" t="str">
-        <f t="shared" si="4"/>
+        <f>C290&amp;"("&amp;B290&amp;") "&amp;A290&amp;D290</f>
         <v>&lt;li&gt;(289) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5083,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="E291" t="str">
-        <f t="shared" si="4"/>
+        <f>C291&amp;"("&amp;B291&amp;") "&amp;A291&amp;D291</f>
         <v>&lt;li&gt;(290) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5098,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="E292" t="str">
-        <f t="shared" si="4"/>
+        <f>C292&amp;"("&amp;B292&amp;") "&amp;A292&amp;D292</f>
         <v>&lt;li&gt;(291) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5113,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="E293" t="str">
-        <f t="shared" si="4"/>
+        <f>C293&amp;"("&amp;B293&amp;") "&amp;A293&amp;D293</f>
         <v>&lt;li&gt;(292) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5128,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="E294" t="str">
-        <f t="shared" si="4"/>
+        <f>C294&amp;"("&amp;B294&amp;") "&amp;A294&amp;D294</f>
         <v>&lt;li&gt;(293) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5143,7 +5257,7 @@
         <v>2</v>
       </c>
       <c r="E295" t="str">
-        <f t="shared" si="4"/>
+        <f>C295&amp;"("&amp;B295&amp;") "&amp;A295&amp;D295</f>
         <v>&lt;li&gt;(294) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5158,7 +5272,7 @@
         <v>2</v>
       </c>
       <c r="E296" t="str">
-        <f t="shared" si="4"/>
+        <f>C296&amp;"("&amp;B296&amp;") "&amp;A296&amp;D296</f>
         <v>&lt;li&gt;(295) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5173,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="E297" t="str">
-        <f t="shared" si="4"/>
+        <f>C297&amp;"("&amp;B297&amp;") "&amp;A297&amp;D297</f>
         <v>&lt;li&gt;(296) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5188,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="E298" t="str">
-        <f t="shared" si="4"/>
+        <f>C298&amp;"("&amp;B298&amp;") "&amp;A298&amp;D298</f>
         <v>&lt;li&gt;(297) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5203,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="E299" t="str">
-        <f t="shared" si="4"/>
+        <f>C299&amp;"("&amp;B299&amp;") "&amp;A299&amp;D299</f>
         <v>&lt;li&gt;(298) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5218,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="E300" t="str">
-        <f t="shared" si="4"/>
+        <f>C300&amp;"("&amp;B300&amp;") "&amp;A300&amp;D300</f>
         <v>&lt;li&gt;(299) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5238,8 +5352,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A121">
-    <sortCondition ref="A121"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A80">
+    <sortCondition ref="A80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/certificates/HTML Code.xlsx
+++ b/certificates/HTML Code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian Dave B. Custodio\Google Drive\OtherFiles\05 GitHub\cmevsu.github.io\certificates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F4AFA6-C2E8-40F6-B2A8-1994EA231B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF283129-7124-49F1-B1C6-6CA61363960F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{292162B3-C305-466A-B9FF-5656A51BBEEC}"/>
   </bookViews>
@@ -616,15 +616,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68C929E-7BEE-4152-9345-49F24B995B7B}">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E73"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <f>C2&amp;"("&amp;B2&amp;") "&amp;A2&amp;D2</f>
+        <f t="shared" ref="E2:E65" si="0">C2&amp;"("&amp;B2&amp;") "&amp;A2&amp;D2</f>
         <v>&lt;li&gt;(1) ADRIANE JOHN P. LUNCIDO&lt;/li&gt;</v>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f>C3&amp;"("&amp;B3&amp;") "&amp;A3&amp;D3</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(2) ALME GRACE B. WENCESLAO&lt;/li&gt;</v>
       </c>
     </row>
@@ -685,7 +685,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="str">
-        <f>C4&amp;"("&amp;B4&amp;") "&amp;A4&amp;D4</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(3) AMELITA A. TINGZON&lt;/li&gt;</v>
       </c>
     </row>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="str">
-        <f>C5&amp;"("&amp;B5&amp;") "&amp;A5&amp;D5</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(4) ARIEL O. TINAPAY&lt;/li&gt;</v>
       </c>
     </row>
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <f>C6&amp;"("&amp;B6&amp;") "&amp;A6&amp;D6</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(5) CARL JOSEPH IGNACIO&lt;/li&gt;</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="str">
-        <f>C7&amp;"("&amp;B7&amp;") "&amp;A7&amp;D7</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(6) CHRISTIA BALTAR&lt;/li&gt;</v>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="str">
-        <f>C8&amp;"("&amp;B8&amp;") "&amp;A8&amp;D8</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(7) CRISANTO L ABAS&lt;/li&gt;</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="str">
-        <f>C9&amp;"("&amp;B9&amp;") "&amp;A9&amp;D9</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(8) CRISTINA S. CASTAÑARES&lt;/li&gt;</v>
       </c>
     </row>
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="str">
-        <f>C10&amp;"("&amp;B10&amp;") "&amp;A10&amp;D10</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(9) DAFFODIL S. TAMPUS&lt;/li&gt;</v>
       </c>
     </row>
@@ -811,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="str">
-        <f>C11&amp;"("&amp;B11&amp;") "&amp;A11&amp;D11</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(10) DAHLIA D. FERNANDEZ&lt;/li&gt;</v>
       </c>
     </row>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="str">
-        <f>C12&amp;"("&amp;B12&amp;") "&amp;A12&amp;D12</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(11) DAISY T. BESING&lt;/li&gt;</v>
       </c>
     </row>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="str">
-        <f>C13&amp;"("&amp;B13&amp;") "&amp;A13&amp;D13</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(12) DANNICA ROSE G. AQUINO&lt;/li&gt;</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="str">
-        <f>C14&amp;"("&amp;B14&amp;") "&amp;A14&amp;D14</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(13) DHANICCA AMOR M. DOMINGO&lt;/li&gt;</v>
       </c>
     </row>
@@ -883,7 +883,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="str">
-        <f>C15&amp;"("&amp;B15&amp;") "&amp;A15&amp;D15</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(14) DHEYVID C. FACUNDO&lt;/li&gt;</v>
       </c>
     </row>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="str">
-        <f>C16&amp;"("&amp;B16&amp;") "&amp;A16&amp;D16</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(15) DR. JAMES H. SAMILLANO&lt;/li&gt;</v>
       </c>
     </row>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="E17" t="str">
-        <f>C17&amp;"("&amp;B17&amp;") "&amp;A17&amp;D17</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(16) DYMPHNA ANN C. CALUMPIANO &lt;/li&gt;</v>
       </c>
     </row>
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <f>C18&amp;"("&amp;B18&amp;") "&amp;A18&amp;D18</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(17) EDELYN NUÑEZ&lt;/li&gt;</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="E19" t="str">
-        <f>C19&amp;"("&amp;B19&amp;") "&amp;A19&amp;D19</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(18) ERICA MAE CUABO&lt;/li&gt;</v>
       </c>
     </row>
@@ -973,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="str">
-        <f>C20&amp;"("&amp;B20&amp;") "&amp;A20&amp;D20</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(19) ERN LOIS NICOLE M. BUGAYONG&lt;/li&gt;</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <f>C21&amp;"("&amp;B21&amp;") "&amp;A21&amp;D21</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(20) ERWIN E. TORRES&lt;/li&gt;</v>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="str">
-        <f>C22&amp;"("&amp;B22&amp;") "&amp;A22&amp;D22</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(21) EUGENE M. BIJE&lt;/li&gt;</v>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="str">
-        <f>C23&amp;"("&amp;B23&amp;") "&amp;A23&amp;D23</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(22) FRANCIS JOHN F. FADEROGAO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="str">
-        <f>C24&amp;"("&amp;B24&amp;") "&amp;A24&amp;D24</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(23) FRANCISCO F. BUCTOT JR&lt;/li&gt;</v>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <f>C25&amp;"("&amp;B25&amp;") "&amp;A25&amp;D25</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(24) HARRY JAY M. CAVITE&lt;/li&gt;</v>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="str">
-        <f>C26&amp;"("&amp;B26&amp;") "&amp;A26&amp;D26</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(25) HAZEL T. VICTORIANO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="str">
-        <f>C27&amp;"("&amp;B27&amp;") "&amp;A27&amp;D27</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(26) IAN DAVE B. CUSTODIO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="str">
-        <f>C28&amp;"("&amp;B28&amp;") "&amp;A28&amp;D28</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(27) JAAZIEL U. BOHOLST&lt;/li&gt;</v>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="str">
-        <f>C29&amp;"("&amp;B29&amp;") "&amp;A29&amp;D29</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(28) JAY P. PICARDAL&lt;/li&gt;</v>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="str">
-        <f>C30&amp;"("&amp;B30&amp;") "&amp;A30&amp;D30</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(29) JESSELLE S. LARANAS&lt;/li&gt;</v>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="str">
-        <f>C31&amp;"("&amp;B31&amp;") "&amp;A31&amp;D31</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(30) JEZHABETH M. VILLEGAS&lt;/li&gt;</v>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="str">
-        <f>C32&amp;"("&amp;B32&amp;") "&amp;A32&amp;D32</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(31) JIMMY J. SAÑOSA, JR. &lt;/li&gt;</v>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="str">
-        <f>C33&amp;"("&amp;B33&amp;") "&amp;A33&amp;D33</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(32) JOHANNAH MARIZ J. LUMANOG&lt;/li&gt;</v>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <f>C34&amp;"("&amp;B34&amp;") "&amp;A34&amp;D34</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(33) JOY A. BELLEN&lt;/li&gt;</v>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="str">
-        <f>C35&amp;"("&amp;B35&amp;") "&amp;A35&amp;D35</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(34) KATHLEEN IVY Z BOLOTAOLO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="str">
-        <f>C36&amp;"("&amp;B36&amp;") "&amp;A36&amp;D36</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(35) KEANE AGRAVANTE&lt;/li&gt;</v>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="E37" t="str">
-        <f>C37&amp;"("&amp;B37&amp;") "&amp;A37&amp;D37</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(36) KENNY ORIEL A. OLANA&lt;/li&gt;</v>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="str">
-        <f>C38&amp;"("&amp;B38&amp;") "&amp;A38&amp;D38</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(37) KIM JOSEPH S. SADOMIA&lt;/li&gt;</v>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="str">
-        <f>C39&amp;"("&amp;B39&amp;") "&amp;A39&amp;D39</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(38) KIMBERLY MICHELLE QUINTUA OPERARIO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="str">
-        <f>C40&amp;"("&amp;B40&amp;") "&amp;A40&amp;D40</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(39) KYLENE B. CAPIN&lt;/li&gt;</v>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="str">
-        <f>C41&amp;"("&amp;B41&amp;") "&amp;A41&amp;D41</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(40) LADY MARGRETT G. CAGAPE&lt;/li&gt;</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="str">
-        <f>C42&amp;"("&amp;B42&amp;") "&amp;A42&amp;D42</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(41) LEO A. MAMOLO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="E43" t="str">
-        <f>C43&amp;"("&amp;B43&amp;") "&amp;A43&amp;D43</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(42) LOREGIN S. PUGOSA&lt;/li&gt;</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="E44" t="str">
-        <f>C44&amp;"("&amp;B44&amp;") "&amp;A44&amp;D44</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(43) MA. ANGELICA ONDE&lt;/li&gt;</v>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
         <v>2</v>
       </c>
       <c r="E45" t="str">
-        <f>C45&amp;"("&amp;B45&amp;") "&amp;A45&amp;D45</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(44) MARCHEE T. PICARDAL&lt;/li&gt;</v>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="E46" t="str">
-        <f>C46&amp;"("&amp;B46&amp;") "&amp;A46&amp;D46</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(45) MARIA KATRINA L. COSTINIANO, RN, MAN&lt;/li&gt;</v>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
         <v>2</v>
       </c>
       <c r="E47" t="str">
-        <f>C47&amp;"("&amp;B47&amp;") "&amp;A47&amp;D47</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(46) MARIANNE KATREEN RAMOS CABAÑERO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="str">
-        <f>C48&amp;"("&amp;B48&amp;") "&amp;A48&amp;D48</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(47) MARK VINCENT LATRAS&lt;/li&gt;</v>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="E49" t="str">
-        <f>C49&amp;"("&amp;B49&amp;") "&amp;A49&amp;D49</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(48) MARRIZ M. GARCIANO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
         <v>2</v>
       </c>
       <c r="E50" t="str">
-        <f>C50&amp;"("&amp;B50&amp;") "&amp;A50&amp;D50</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(49) MARVIN M. CRUZ, MBA, DBA&lt;/li&gt;</v>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="E51" t="str">
-        <f>C51&amp;"("&amp;B51&amp;") "&amp;A51&amp;D51</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(50) MARY RODELYN A. CARIAGA&lt;/li&gt;</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="E52" t="str">
-        <f>C52&amp;"("&amp;B52&amp;") "&amp;A52&amp;D52</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(51) NORDEN LEPCHA&lt;/li&gt;</v>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="E53" t="str">
-        <f>C53&amp;"("&amp;B53&amp;") "&amp;A53&amp;D53</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(52) NYLE PARDILLO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="str">
-        <f>C54&amp;"("&amp;B54&amp;") "&amp;A54&amp;D54</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(53) NYLREM JANNE G. LLAGAS&lt;/li&gt;</v>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="str">
-        <f>C55&amp;"("&amp;B55&amp;") "&amp;A55&amp;D55</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(54) NYMPHMARY DAPHNE J. SANTIAGO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="str">
-        <f>C56&amp;"("&amp;B56&amp;") "&amp;A56&amp;D56</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(55) RANDY OROT&lt;/li&gt;</v>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="str">
-        <f>C57&amp;"("&amp;B57&amp;") "&amp;A57&amp;D57</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(56) REY A. CASTILLO &lt;/li&gt;</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="str">
-        <f>C58&amp;"("&amp;B58&amp;") "&amp;A58&amp;D58</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(57) REYVIN SABANAL&lt;/li&gt;</v>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
         <v>2</v>
       </c>
       <c r="E59" t="str">
-        <f>C59&amp;"("&amp;B59&amp;") "&amp;A59&amp;D59</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(58) RICKI MAE O. GUILING &lt;/li&gt;</v>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="str">
-        <f>C60&amp;"("&amp;B60&amp;") "&amp;A60&amp;D60</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(59) ROCHELLE C. OLANA&lt;/li&gt;</v>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
         <v>2</v>
       </c>
       <c r="E61" t="str">
-        <f>C61&amp;"("&amp;B61&amp;") "&amp;A61&amp;D61</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(60) RODULFO T. AUNZO, JR.&lt;/li&gt;</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="str">
-        <f>C62&amp;"("&amp;B62&amp;") "&amp;A62&amp;D62</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(61) RODULFO TUMACAY AUNZO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1747,7 +1747,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="str">
-        <f>C63&amp;"("&amp;B63&amp;") "&amp;A63&amp;D63</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(62) ROMEL G. QUINTE&lt;/li&gt;</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="str">
-        <f>C64&amp;"("&amp;B64&amp;") "&amp;A64&amp;D64</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(63) RONNEL C. NOLOS&lt;/li&gt;</v>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="str">
-        <f>C65&amp;"("&amp;B65&amp;") "&amp;A65&amp;D65</f>
+        <f t="shared" si="0"/>
         <v>&lt;li&gt;(64) ROY ROGER B. JAIME&lt;/li&gt;</v>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="str">
-        <f>C66&amp;"("&amp;B66&amp;") "&amp;A66&amp;D66</f>
+        <f t="shared" ref="E66:E129" si="1">C66&amp;"("&amp;B66&amp;") "&amp;A66&amp;D66</f>
         <v>&lt;li&gt;(65) SANCE J. SECONDEZ&lt;/li&gt;</v>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="E67" t="str">
-        <f>C67&amp;"("&amp;B67&amp;") "&amp;A67&amp;D67</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(66) SHEMAIAH GAIL P. PLACENCIA&lt;/li&gt;</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="str">
-        <f>C68&amp;"("&amp;B68&amp;") "&amp;A68&amp;D68</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(67) SHIELA LO-ON TIROL&lt;/li&gt;</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="E69" t="str">
-        <f>C69&amp;"("&amp;B69&amp;") "&amp;A69&amp;D69</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(68) STEPHEN PAUL G. CAJIGAS&lt;/li&gt;</v>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="E70" t="str">
-        <f>C70&amp;"("&amp;B70&amp;") "&amp;A70&amp;D70</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(69) THEA GALOS&lt;/li&gt;</v>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
         <v>2</v>
       </c>
       <c r="E71" t="str">
-        <f>C71&amp;"("&amp;B71&amp;") "&amp;A71&amp;D71</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(70) TRISTAN L. ABANDO&lt;/li&gt;</v>
       </c>
     </row>
@@ -1909,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="str">
-        <f>C72&amp;"("&amp;B72&amp;") "&amp;A72&amp;D72</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(71) WENDY C. ENERLAN&lt;/li&gt;</v>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="str">
-        <f>C73&amp;"("&amp;B73&amp;") "&amp;A73&amp;D73</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(72) WILMINA B. DAVID&lt;/li&gt;</v>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="E74" t="str">
-        <f>C74&amp;"("&amp;B74&amp;") "&amp;A74&amp;D74</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(73) &lt;/li&gt;</v>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="E75" t="str">
-        <f>C75&amp;"("&amp;B75&amp;") "&amp;A75&amp;D75</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(74) &lt;/li&gt;</v>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="str">
-        <f>C76&amp;"("&amp;B76&amp;") "&amp;A76&amp;D76</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(75) &lt;/li&gt;</v>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="E77" t="str">
-        <f>C77&amp;"("&amp;B77&amp;") "&amp;A77&amp;D77</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(76) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
         <v>2</v>
       </c>
       <c r="E78" t="str">
-        <f>C78&amp;"("&amp;B78&amp;") "&amp;A78&amp;D78</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(77) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="str">
-        <f>C79&amp;"("&amp;B79&amp;") "&amp;A79&amp;D79</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(78) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="E80" t="str">
-        <f>C80&amp;"("&amp;B80&amp;") "&amp;A80&amp;D80</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(79) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
         <v>2</v>
       </c>
       <c r="E81" t="str">
-        <f>C81&amp;"("&amp;B81&amp;") "&amp;A81&amp;D81</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(80) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="E82" t="str">
-        <f>C82&amp;"("&amp;B82&amp;") "&amp;A82&amp;D82</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(81) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="str">
-        <f>C83&amp;"("&amp;B83&amp;") "&amp;A83&amp;D83</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(82) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="E84" t="str">
-        <f>C84&amp;"("&amp;B84&amp;") "&amp;A84&amp;D84</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(83) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="E85" t="str">
-        <f>C85&amp;"("&amp;B85&amp;") "&amp;A85&amp;D85</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(84) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2122,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="E86" t="str">
-        <f>C86&amp;"("&amp;B86&amp;") "&amp;A86&amp;D86</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(85) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <f>C87&amp;"("&amp;B87&amp;") "&amp;A87&amp;D87</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(86) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="str">
-        <f>C88&amp;"("&amp;B88&amp;") "&amp;A88&amp;D88</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(87) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="str">
-        <f>C89&amp;"("&amp;B89&amp;") "&amp;A89&amp;D89</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(88) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="str">
-        <f>C90&amp;"("&amp;B90&amp;") "&amp;A90&amp;D90</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(89) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f>C91&amp;"("&amp;B91&amp;") "&amp;A91&amp;D91</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(90) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
         <v>2</v>
       </c>
       <c r="E92" t="str">
-        <f>C92&amp;"("&amp;B92&amp;") "&amp;A92&amp;D92</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(91) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="E93" t="str">
-        <f>C93&amp;"("&amp;B93&amp;") "&amp;A93&amp;D93</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(92) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="E94" t="str">
-        <f>C94&amp;"("&amp;B94&amp;") "&amp;A94&amp;D94</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(93) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2257,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="E95" t="str">
-        <f>C95&amp;"("&amp;B95&amp;") "&amp;A95&amp;D95</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(94) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="str">
-        <f>C96&amp;"("&amp;B96&amp;") "&amp;A96&amp;D96</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(95) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="str">
-        <f>C97&amp;"("&amp;B97&amp;") "&amp;A97&amp;D97</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(96) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="E98" t="str">
-        <f>C98&amp;"("&amp;B98&amp;") "&amp;A98&amp;D98</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(97) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2317,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="str">
-        <f>C99&amp;"("&amp;B99&amp;") "&amp;A99&amp;D99</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(98) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="E100" t="str">
-        <f>C100&amp;"("&amp;B100&amp;") "&amp;A100&amp;D100</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(99) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
         <v>2</v>
       </c>
       <c r="E101" t="str">
-        <f>C101&amp;"("&amp;B101&amp;") "&amp;A101&amp;D101</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(100) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="str">
-        <f>C102&amp;"("&amp;B102&amp;") "&amp;A102&amp;D102</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(101) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="str">
-        <f>C103&amp;"("&amp;B103&amp;") "&amp;A103&amp;D103</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(102) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="E104" t="str">
-        <f>C104&amp;"("&amp;B104&amp;") "&amp;A104&amp;D104</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(103) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="str">
-        <f>C105&amp;"("&amp;B105&amp;") "&amp;A105&amp;D105</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(104) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="str">
-        <f>C106&amp;"("&amp;B106&amp;") "&amp;A106&amp;D106</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(105) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2437,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="str">
-        <f>C107&amp;"("&amp;B107&amp;") "&amp;A107&amp;D107</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(106) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="str">
-        <f>C108&amp;"("&amp;B108&amp;") "&amp;A108&amp;D108</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(107) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="str">
-        <f>C109&amp;"("&amp;B109&amp;") "&amp;A109&amp;D109</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(108) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2482,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="str">
-        <f>C110&amp;"("&amp;B110&amp;") "&amp;A110&amp;D110</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(109) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="str">
-        <f>C111&amp;"("&amp;B111&amp;") "&amp;A111&amp;D111</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(110) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="E112" t="str">
-        <f>C112&amp;"("&amp;B112&amp;") "&amp;A112&amp;D112</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(111) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="str">
-        <f>C113&amp;"("&amp;B113&amp;") "&amp;A113&amp;D113</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(112) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="E114" t="str">
-        <f>C114&amp;"("&amp;B114&amp;") "&amp;A114&amp;D114</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(113) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="str">
-        <f>C115&amp;"("&amp;B115&amp;") "&amp;A115&amp;D115</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(114) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="str">
-        <f>C116&amp;"("&amp;B116&amp;") "&amp;A116&amp;D116</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(115) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="E117" t="str">
-        <f>C117&amp;"("&amp;B117&amp;") "&amp;A117&amp;D117</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(116) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2602,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="E118" t="str">
-        <f>C118&amp;"("&amp;B118&amp;") "&amp;A118&amp;D118</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(117) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
         <v>2</v>
       </c>
       <c r="E119" t="str">
-        <f>C119&amp;"("&amp;B119&amp;") "&amp;A119&amp;D119</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(118) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
         <v>2</v>
       </c>
       <c r="E120" t="str">
-        <f>C120&amp;"("&amp;B120&amp;") "&amp;A120&amp;D120</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(119) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="str">
-        <f>C121&amp;"("&amp;B121&amp;") "&amp;A121&amp;D121</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(120) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
         <v>2</v>
       </c>
       <c r="E122" t="str">
-        <f>C122&amp;"("&amp;B122&amp;") "&amp;A122&amp;D122</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(121) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="str">
-        <f>C123&amp;"("&amp;B123&amp;") "&amp;A123&amp;D123</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(122) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2692,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="E124" t="str">
-        <f>C124&amp;"("&amp;B124&amp;") "&amp;A124&amp;D124</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(123) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="E125" t="str">
-        <f>C125&amp;"("&amp;B125&amp;") "&amp;A125&amp;D125</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(124) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="str">
-        <f>C126&amp;"("&amp;B126&amp;") "&amp;A126&amp;D126</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(125) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
         <v>2</v>
       </c>
       <c r="E127" t="str">
-        <f>C127&amp;"("&amp;B127&amp;") "&amp;A127&amp;D127</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(126) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="E128" t="str">
-        <f>C128&amp;"("&amp;B128&amp;") "&amp;A128&amp;D128</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(127) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="str">
-        <f>C129&amp;"("&amp;B129&amp;") "&amp;A129&amp;D129</f>
+        <f t="shared" si="1"/>
         <v>&lt;li&gt;(128) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="str">
-        <f>C130&amp;"("&amp;B130&amp;") "&amp;A130&amp;D130</f>
+        <f t="shared" ref="E130:E193" si="2">C130&amp;"("&amp;B130&amp;") "&amp;A130&amp;D130</f>
         <v>&lt;li&gt;(129) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2797,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="E131" t="str">
-        <f>C131&amp;"("&amp;B131&amp;") "&amp;A131&amp;D131</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(130) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="E132" t="str">
-        <f>C132&amp;"("&amp;B132&amp;") "&amp;A132&amp;D132</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(131) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="E133" t="str">
-        <f>C133&amp;"("&amp;B133&amp;") "&amp;A133&amp;D133</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(132) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="E134" t="str">
-        <f>C134&amp;"("&amp;B134&amp;") "&amp;A134&amp;D134</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(133) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="E135" t="str">
-        <f>C135&amp;"("&amp;B135&amp;") "&amp;A135&amp;D135</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(134) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="str">
-        <f>C136&amp;"("&amp;B136&amp;") "&amp;A136&amp;D136</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(135) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
         <v>2</v>
       </c>
       <c r="E137" t="str">
-        <f>C137&amp;"("&amp;B137&amp;") "&amp;A137&amp;D137</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(136) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2902,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="E138" t="str">
-        <f>C138&amp;"("&amp;B138&amp;") "&amp;A138&amp;D138</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(137) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <f>C139&amp;"("&amp;B139&amp;") "&amp;A139&amp;D139</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(138) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
         <v>2</v>
       </c>
       <c r="E140" t="str">
-        <f>C140&amp;"("&amp;B140&amp;") "&amp;A140&amp;D140</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(139) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="str">
-        <f>C141&amp;"("&amp;B141&amp;") "&amp;A141&amp;D141</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(140) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
         <v>2</v>
       </c>
       <c r="E142" t="str">
-        <f>C142&amp;"("&amp;B142&amp;") "&amp;A142&amp;D142</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(141) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
         <v>2</v>
       </c>
       <c r="E143" t="str">
-        <f>C143&amp;"("&amp;B143&amp;") "&amp;A143&amp;D143</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(142) &lt;/li&gt;</v>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="str">
-        <f>C144&amp;"("&amp;B144&amp;") "&amp;A144&amp;D144</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(143) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="E145" t="str">
-        <f>C145&amp;"("&amp;B145&amp;") "&amp;A145&amp;D145</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(144) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3022,7 +3022,7 @@
         <v>2</v>
       </c>
       <c r="E146" t="str">
-        <f>C146&amp;"("&amp;B146&amp;") "&amp;A146&amp;D146</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(145) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="E147" t="str">
-        <f>C147&amp;"("&amp;B147&amp;") "&amp;A147&amp;D147</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(146) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="E148" t="str">
-        <f>C148&amp;"("&amp;B148&amp;") "&amp;A148&amp;D148</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(147) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3067,7 +3067,7 @@
         <v>2</v>
       </c>
       <c r="E149" t="str">
-        <f>C149&amp;"("&amp;B149&amp;") "&amp;A149&amp;D149</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(148) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
         <v>2</v>
       </c>
       <c r="E150" t="str">
-        <f>C150&amp;"("&amp;B150&amp;") "&amp;A150&amp;D150</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(149) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
         <v>2</v>
       </c>
       <c r="E151" t="str">
-        <f>C151&amp;"("&amp;B151&amp;") "&amp;A151&amp;D151</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(150) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="str">
-        <f>C152&amp;"("&amp;B152&amp;") "&amp;A152&amp;D152</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(151) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="str">
-        <f>C153&amp;"("&amp;B153&amp;") "&amp;A153&amp;D153</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(152) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3142,7 +3142,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="str">
-        <f>C154&amp;"("&amp;B154&amp;") "&amp;A154&amp;D154</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(153) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="E155" t="str">
-        <f>C155&amp;"("&amp;B155&amp;") "&amp;A155&amp;D155</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(154) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3172,7 +3172,7 @@
         <v>2</v>
       </c>
       <c r="E156" t="str">
-        <f>C156&amp;"("&amp;B156&amp;") "&amp;A156&amp;D156</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(155) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
         <v>2</v>
       </c>
       <c r="E157" t="str">
-        <f>C157&amp;"("&amp;B157&amp;") "&amp;A157&amp;D157</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(156) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3202,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="E158" t="str">
-        <f>C158&amp;"("&amp;B158&amp;") "&amp;A158&amp;D158</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(157) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
         <v>2</v>
       </c>
       <c r="E159" t="str">
-        <f>C159&amp;"("&amp;B159&amp;") "&amp;A159&amp;D159</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(158) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
         <v>2</v>
       </c>
       <c r="E160" t="str">
-        <f>C160&amp;"("&amp;B160&amp;") "&amp;A160&amp;D160</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(159) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3247,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="E161" t="str">
-        <f>C161&amp;"("&amp;B161&amp;") "&amp;A161&amp;D161</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(160) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="E162" t="str">
-        <f>C162&amp;"("&amp;B162&amp;") "&amp;A162&amp;D162</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(161) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
         <v>2</v>
       </c>
       <c r="E163" t="str">
-        <f>C163&amp;"("&amp;B163&amp;") "&amp;A163&amp;D163</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(162) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
         <v>2</v>
       </c>
       <c r="E164" t="str">
-        <f>C164&amp;"("&amp;B164&amp;") "&amp;A164&amp;D164</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(163) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3307,7 +3307,7 @@
         <v>2</v>
       </c>
       <c r="E165" t="str">
-        <f>C165&amp;"("&amp;B165&amp;") "&amp;A165&amp;D165</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(164) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3322,7 +3322,7 @@
         <v>2</v>
       </c>
       <c r="E166" t="str">
-        <f>C166&amp;"("&amp;B166&amp;") "&amp;A166&amp;D166</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(165) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
         <v>2</v>
       </c>
       <c r="E167" t="str">
-        <f>C167&amp;"("&amp;B167&amp;") "&amp;A167&amp;D167</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(166) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3352,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="E168" t="str">
-        <f>C168&amp;"("&amp;B168&amp;") "&amp;A168&amp;D168</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(167) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3367,7 +3367,7 @@
         <v>2</v>
       </c>
       <c r="E169" t="str">
-        <f>C169&amp;"("&amp;B169&amp;") "&amp;A169&amp;D169</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(168) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3382,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="E170" t="str">
-        <f>C170&amp;"("&amp;B170&amp;") "&amp;A170&amp;D170</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(169) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="E171" t="str">
-        <f>C171&amp;"("&amp;B171&amp;") "&amp;A171&amp;D171</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(170) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
         <v>2</v>
       </c>
       <c r="E172" t="str">
-        <f>C172&amp;"("&amp;B172&amp;") "&amp;A172&amp;D172</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(171) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
         <v>2</v>
       </c>
       <c r="E173" t="str">
-        <f>C173&amp;"("&amp;B173&amp;") "&amp;A173&amp;D173</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(172) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3442,7 +3442,7 @@
         <v>2</v>
       </c>
       <c r="E174" t="str">
-        <f>C174&amp;"("&amp;B174&amp;") "&amp;A174&amp;D174</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(173) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
         <v>2</v>
       </c>
       <c r="E175" t="str">
-        <f>C175&amp;"("&amp;B175&amp;") "&amp;A175&amp;D175</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(174) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="E176" t="str">
-        <f>C176&amp;"("&amp;B176&amp;") "&amp;A176&amp;D176</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(175) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="E177" t="str">
-        <f>C177&amp;"("&amp;B177&amp;") "&amp;A177&amp;D177</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(176) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="E178" t="str">
-        <f>C178&amp;"("&amp;B178&amp;") "&amp;A178&amp;D178</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(177) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="E179" t="str">
-        <f>C179&amp;"("&amp;B179&amp;") "&amp;A179&amp;D179</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(178) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
         <v>2</v>
       </c>
       <c r="E180" t="str">
-        <f>C180&amp;"("&amp;B180&amp;") "&amp;A180&amp;D180</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(179) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
         <v>2</v>
       </c>
       <c r="E181" t="str">
-        <f>C181&amp;"("&amp;B181&amp;") "&amp;A181&amp;D181</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(180) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
         <v>2</v>
       </c>
       <c r="E182" t="str">
-        <f>C182&amp;"("&amp;B182&amp;") "&amp;A182&amp;D182</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(181) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
         <v>2</v>
       </c>
       <c r="E183" t="str">
-        <f>C183&amp;"("&amp;B183&amp;") "&amp;A183&amp;D183</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(182) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
         <v>2</v>
       </c>
       <c r="E184" t="str">
-        <f>C184&amp;"("&amp;B184&amp;") "&amp;A184&amp;D184</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(183) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3607,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="E185" t="str">
-        <f>C185&amp;"("&amp;B185&amp;") "&amp;A185&amp;D185</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(184) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3622,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="E186" t="str">
-        <f>C186&amp;"("&amp;B186&amp;") "&amp;A186&amp;D186</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(185) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
         <v>2</v>
       </c>
       <c r="E187" t="str">
-        <f>C187&amp;"("&amp;B187&amp;") "&amp;A187&amp;D187</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(186) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
         <v>2</v>
       </c>
       <c r="E188" t="str">
-        <f>C188&amp;"("&amp;B188&amp;") "&amp;A188&amp;D188</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(187) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
         <v>2</v>
       </c>
       <c r="E189" t="str">
-        <f>C189&amp;"("&amp;B189&amp;") "&amp;A189&amp;D189</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(188) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
         <v>2</v>
       </c>
       <c r="E190" t="str">
-        <f>C190&amp;"("&amp;B190&amp;") "&amp;A190&amp;D190</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(189) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
         <v>2</v>
       </c>
       <c r="E191" t="str">
-        <f>C191&amp;"("&amp;B191&amp;") "&amp;A191&amp;D191</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(190) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
         <v>2</v>
       </c>
       <c r="E192" t="str">
-        <f>C192&amp;"("&amp;B192&amp;") "&amp;A192&amp;D192</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(191) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="E193" t="str">
-        <f>C193&amp;"("&amp;B193&amp;") "&amp;A193&amp;D193</f>
+        <f t="shared" si="2"/>
         <v>&lt;li&gt;(192) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="E194" t="str">
-        <f>C194&amp;"("&amp;B194&amp;") "&amp;A194&amp;D194</f>
+        <f t="shared" ref="E194:E257" si="3">C194&amp;"("&amp;B194&amp;") "&amp;A194&amp;D194</f>
         <v>&lt;li&gt;(193) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="str">
-        <f>C195&amp;"("&amp;B195&amp;") "&amp;A195&amp;D195</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(194) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3772,7 +3772,7 @@
         <v>2</v>
       </c>
       <c r="E196" t="str">
-        <f>C196&amp;"("&amp;B196&amp;") "&amp;A196&amp;D196</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(195) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="E197" t="str">
-        <f>C197&amp;"("&amp;B197&amp;") "&amp;A197&amp;D197</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(196) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="E198" t="str">
-        <f>C198&amp;"("&amp;B198&amp;") "&amp;A198&amp;D198</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(197) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="E199" t="str">
-        <f>C199&amp;"("&amp;B199&amp;") "&amp;A199&amp;D199</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(198) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
         <v>2</v>
       </c>
       <c r="E200" t="str">
-        <f>C200&amp;"("&amp;B200&amp;") "&amp;A200&amp;D200</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(199) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3847,7 +3847,7 @@
         <v>2</v>
       </c>
       <c r="E201" t="str">
-        <f>C201&amp;"("&amp;B201&amp;") "&amp;A201&amp;D201</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(200) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="E202" t="str">
-        <f>C202&amp;"("&amp;B202&amp;") "&amp;A202&amp;D202</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(201) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3877,7 +3877,7 @@
         <v>2</v>
       </c>
       <c r="E203" t="str">
-        <f>C203&amp;"("&amp;B203&amp;") "&amp;A203&amp;D203</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(202) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
         <v>2</v>
       </c>
       <c r="E204" t="str">
-        <f>C204&amp;"("&amp;B204&amp;") "&amp;A204&amp;D204</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(203) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="E205" t="str">
-        <f>C205&amp;"("&amp;B205&amp;") "&amp;A205&amp;D205</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(204) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3922,7 +3922,7 @@
         <v>2</v>
       </c>
       <c r="E206" t="str">
-        <f>C206&amp;"("&amp;B206&amp;") "&amp;A206&amp;D206</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(205) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="E207" t="str">
-        <f>C207&amp;"("&amp;B207&amp;") "&amp;A207&amp;D207</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(206) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="E208" t="str">
-        <f>C208&amp;"("&amp;B208&amp;") "&amp;A208&amp;D208</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(207) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3967,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="E209" t="str">
-        <f>C209&amp;"("&amp;B209&amp;") "&amp;A209&amp;D209</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(208) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="E210" t="str">
-        <f>C210&amp;"("&amp;B210&amp;") "&amp;A210&amp;D210</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(209) &lt;/li&gt;</v>
       </c>
     </row>
@@ -3997,7 +3997,7 @@
         <v>2</v>
       </c>
       <c r="E211" t="str">
-        <f>C211&amp;"("&amp;B211&amp;") "&amp;A211&amp;D211</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(210) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4012,7 +4012,7 @@
         <v>2</v>
       </c>
       <c r="E212" t="str">
-        <f>C212&amp;"("&amp;B212&amp;") "&amp;A212&amp;D212</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(211) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4027,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="E213" t="str">
-        <f>C213&amp;"("&amp;B213&amp;") "&amp;A213&amp;D213</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(212) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
         <v>2</v>
       </c>
       <c r="E214" t="str">
-        <f>C214&amp;"("&amp;B214&amp;") "&amp;A214&amp;D214</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(213) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4057,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="E215" t="str">
-        <f>C215&amp;"("&amp;B215&amp;") "&amp;A215&amp;D215</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(214) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4072,7 +4072,7 @@
         <v>2</v>
       </c>
       <c r="E216" t="str">
-        <f>C216&amp;"("&amp;B216&amp;") "&amp;A216&amp;D216</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(215) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="E217" t="str">
-        <f>C217&amp;"("&amp;B217&amp;") "&amp;A217&amp;D217</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(216) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
         <v>2</v>
       </c>
       <c r="E218" t="str">
-        <f>C218&amp;"("&amp;B218&amp;") "&amp;A218&amp;D218</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(217) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4117,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="E219" t="str">
-        <f>C219&amp;"("&amp;B219&amp;") "&amp;A219&amp;D219</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(218) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="E220" t="str">
-        <f>C220&amp;"("&amp;B220&amp;") "&amp;A220&amp;D220</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(219) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4147,7 +4147,7 @@
         <v>2</v>
       </c>
       <c r="E221" t="str">
-        <f>C221&amp;"("&amp;B221&amp;") "&amp;A221&amp;D221</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(220) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
         <v>2</v>
       </c>
       <c r="E222" t="str">
-        <f>C222&amp;"("&amp;B222&amp;") "&amp;A222&amp;D222</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(221) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="E223" t="str">
-        <f>C223&amp;"("&amp;B223&amp;") "&amp;A223&amp;D223</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(222) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4192,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="E224" t="str">
-        <f>C224&amp;"("&amp;B224&amp;") "&amp;A224&amp;D224</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(223) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4207,7 +4207,7 @@
         <v>2</v>
       </c>
       <c r="E225" t="str">
-        <f>C225&amp;"("&amp;B225&amp;") "&amp;A225&amp;D225</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(224) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4222,7 +4222,7 @@
         <v>2</v>
       </c>
       <c r="E226" t="str">
-        <f>C226&amp;"("&amp;B226&amp;") "&amp;A226&amp;D226</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(225) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="E227" t="str">
-        <f>C227&amp;"("&amp;B227&amp;") "&amp;A227&amp;D227</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(226) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="E228" t="str">
-        <f>C228&amp;"("&amp;B228&amp;") "&amp;A228&amp;D228</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(227) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
         <v>2</v>
       </c>
       <c r="E229" t="str">
-        <f>C229&amp;"("&amp;B229&amp;") "&amp;A229&amp;D229</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(228) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4282,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="E230" t="str">
-        <f>C230&amp;"("&amp;B230&amp;") "&amp;A230&amp;D230</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(229) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4297,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="E231" t="str">
-        <f>C231&amp;"("&amp;B231&amp;") "&amp;A231&amp;D231</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(230) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="E232" t="str">
-        <f>C232&amp;"("&amp;B232&amp;") "&amp;A232&amp;D232</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(231) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4327,7 +4327,7 @@
         <v>2</v>
       </c>
       <c r="E233" t="str">
-        <f>C233&amp;"("&amp;B233&amp;") "&amp;A233&amp;D233</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(232) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4342,7 +4342,7 @@
         <v>2</v>
       </c>
       <c r="E234" t="str">
-        <f>C234&amp;"("&amp;B234&amp;") "&amp;A234&amp;D234</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(233) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="E235" t="str">
-        <f>C235&amp;"("&amp;B235&amp;") "&amp;A235&amp;D235</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(234) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
         <v>2</v>
       </c>
       <c r="E236" t="str">
-        <f>C236&amp;"("&amp;B236&amp;") "&amp;A236&amp;D236</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(235) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4387,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="E237" t="str">
-        <f>C237&amp;"("&amp;B237&amp;") "&amp;A237&amp;D237</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(236) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4402,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="E238" t="str">
-        <f>C238&amp;"("&amp;B238&amp;") "&amp;A238&amp;D238</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(237) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
         <v>2</v>
       </c>
       <c r="E239" t="str">
-        <f>C239&amp;"("&amp;B239&amp;") "&amp;A239&amp;D239</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(238) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
         <v>2</v>
       </c>
       <c r="E240" t="str">
-        <f>C240&amp;"("&amp;B240&amp;") "&amp;A240&amp;D240</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(239) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="E241" t="str">
-        <f>C241&amp;"("&amp;B241&amp;") "&amp;A241&amp;D241</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(240) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4462,7 +4462,7 @@
         <v>2</v>
       </c>
       <c r="E242" t="str">
-        <f>C242&amp;"("&amp;B242&amp;") "&amp;A242&amp;D242</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(241) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4477,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="E243" t="str">
-        <f>C243&amp;"("&amp;B243&amp;") "&amp;A243&amp;D243</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(242) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4492,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="E244" t="str">
-        <f>C244&amp;"("&amp;B244&amp;") "&amp;A244&amp;D244</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(243) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
         <v>2</v>
       </c>
       <c r="E245" t="str">
-        <f>C245&amp;"("&amp;B245&amp;") "&amp;A245&amp;D245</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(244) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
         <v>2</v>
       </c>
       <c r="E246" t="str">
-        <f>C246&amp;"("&amp;B246&amp;") "&amp;A246&amp;D246</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(245) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
         <v>2</v>
       </c>
       <c r="E247" t="str">
-        <f>C247&amp;"("&amp;B247&amp;") "&amp;A247&amp;D247</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(246) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4552,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="E248" t="str">
-        <f>C248&amp;"("&amp;B248&amp;") "&amp;A248&amp;D248</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(247) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
         <v>2</v>
       </c>
       <c r="E249" t="str">
-        <f>C249&amp;"("&amp;B249&amp;") "&amp;A249&amp;D249</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(248) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4582,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="E250" t="str">
-        <f>C250&amp;"("&amp;B250&amp;") "&amp;A250&amp;D250</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(249) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="E251" t="str">
-        <f>C251&amp;"("&amp;B251&amp;") "&amp;A251&amp;D251</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(250) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4612,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="E252" t="str">
-        <f>C252&amp;"("&amp;B252&amp;") "&amp;A252&amp;D252</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(251) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="E253" t="str">
-        <f>C253&amp;"("&amp;B253&amp;") "&amp;A253&amp;D253</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(252) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
         <v>2</v>
       </c>
       <c r="E254" t="str">
-        <f>C254&amp;"("&amp;B254&amp;") "&amp;A254&amp;D254</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(253) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="E255" t="str">
-        <f>C255&amp;"("&amp;B255&amp;") "&amp;A255&amp;D255</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(254) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4672,7 +4672,7 @@
         <v>2</v>
       </c>
       <c r="E256" t="str">
-        <f>C256&amp;"("&amp;B256&amp;") "&amp;A256&amp;D256</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(255) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4687,7 +4687,7 @@
         <v>2</v>
       </c>
       <c r="E257" t="str">
-        <f>C257&amp;"("&amp;B257&amp;") "&amp;A257&amp;D257</f>
+        <f t="shared" si="3"/>
         <v>&lt;li&gt;(256) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4702,7 +4702,7 @@
         <v>2</v>
       </c>
       <c r="E258" t="str">
-        <f>C258&amp;"("&amp;B258&amp;") "&amp;A258&amp;D258</f>
+        <f t="shared" ref="E258:E321" si="4">C258&amp;"("&amp;B258&amp;") "&amp;A258&amp;D258</f>
         <v>&lt;li&gt;(257) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
         <v>2</v>
       </c>
       <c r="E259" t="str">
-        <f>C259&amp;"("&amp;B259&amp;") "&amp;A259&amp;D259</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(258) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
         <v>2</v>
       </c>
       <c r="E260" t="str">
-        <f>C260&amp;"("&amp;B260&amp;") "&amp;A260&amp;D260</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(259) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
         <v>2</v>
       </c>
       <c r="E261" t="str">
-        <f>C261&amp;"("&amp;B261&amp;") "&amp;A261&amp;D261</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(260) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4762,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="E262" t="str">
-        <f>C262&amp;"("&amp;B262&amp;") "&amp;A262&amp;D262</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(261) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4777,7 +4777,7 @@
         <v>2</v>
       </c>
       <c r="E263" t="str">
-        <f>C263&amp;"("&amp;B263&amp;") "&amp;A263&amp;D263</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(262) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4792,7 +4792,7 @@
         <v>2</v>
       </c>
       <c r="E264" t="str">
-        <f>C264&amp;"("&amp;B264&amp;") "&amp;A264&amp;D264</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(263) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="E265" t="str">
-        <f>C265&amp;"("&amp;B265&amp;") "&amp;A265&amp;D265</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(264) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4822,7 +4822,7 @@
         <v>2</v>
       </c>
       <c r="E266" t="str">
-        <f>C266&amp;"("&amp;B266&amp;") "&amp;A266&amp;D266</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(265) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4837,7 +4837,7 @@
         <v>2</v>
       </c>
       <c r="E267" t="str">
-        <f>C267&amp;"("&amp;B267&amp;") "&amp;A267&amp;D267</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(266) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
         <v>2</v>
       </c>
       <c r="E268" t="str">
-        <f>C268&amp;"("&amp;B268&amp;") "&amp;A268&amp;D268</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(267) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="E269" t="str">
-        <f>C269&amp;"("&amp;B269&amp;") "&amp;A269&amp;D269</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(268) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4882,7 +4882,7 @@
         <v>2</v>
       </c>
       <c r="E270" t="str">
-        <f>C270&amp;"("&amp;B270&amp;") "&amp;A270&amp;D270</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(269) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
         <v>2</v>
       </c>
       <c r="E271" t="str">
-        <f>C271&amp;"("&amp;B271&amp;") "&amp;A271&amp;D271</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(270) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="E272" t="str">
-        <f>C272&amp;"("&amp;B272&amp;") "&amp;A272&amp;D272</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(271) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
         <v>2</v>
       </c>
       <c r="E273" t="str">
-        <f>C273&amp;"("&amp;B273&amp;") "&amp;A273&amp;D273</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(272) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
         <v>2</v>
       </c>
       <c r="E274" t="str">
-        <f>C274&amp;"("&amp;B274&amp;") "&amp;A274&amp;D274</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(273) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
         <v>2</v>
       </c>
       <c r="E275" t="str">
-        <f>C275&amp;"("&amp;B275&amp;") "&amp;A275&amp;D275</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(274) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4972,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="E276" t="str">
-        <f>C276&amp;"("&amp;B276&amp;") "&amp;A276&amp;D276</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(275) &lt;/li&gt;</v>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="E277" t="str">
-        <f>C277&amp;"("&amp;B277&amp;") "&amp;A277&amp;D277</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(276) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5002,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="E278" t="str">
-        <f>C278&amp;"("&amp;B278&amp;") "&amp;A278&amp;D278</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(277) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5017,7 +5017,7 @@
         <v>2</v>
       </c>
       <c r="E279" t="str">
-        <f>C279&amp;"("&amp;B279&amp;") "&amp;A279&amp;D279</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(278) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="E280" t="str">
-        <f>C280&amp;"("&amp;B280&amp;") "&amp;A280&amp;D280</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(279) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
         <v>2</v>
       </c>
       <c r="E281" t="str">
-        <f>C281&amp;"("&amp;B281&amp;") "&amp;A281&amp;D281</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(280) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5062,7 +5062,7 @@
         <v>2</v>
       </c>
       <c r="E282" t="str">
-        <f>C282&amp;"("&amp;B282&amp;") "&amp;A282&amp;D282</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(281) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5077,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="E283" t="str">
-        <f>C283&amp;"("&amp;B283&amp;") "&amp;A283&amp;D283</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(282) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
         <v>2</v>
       </c>
       <c r="E284" t="str">
-        <f>C284&amp;"("&amp;B284&amp;") "&amp;A284&amp;D284</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(283) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
         <v>2</v>
       </c>
       <c r="E285" t="str">
-        <f>C285&amp;"("&amp;B285&amp;") "&amp;A285&amp;D285</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(284) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
         <v>2</v>
       </c>
       <c r="E286" t="str">
-        <f>C286&amp;"("&amp;B286&amp;") "&amp;A286&amp;D286</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(285) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="E287" t="str">
-        <f>C287&amp;"("&amp;B287&amp;") "&amp;A287&amp;D287</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(286) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="E288" t="str">
-        <f>C288&amp;"("&amp;B288&amp;") "&amp;A288&amp;D288</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(287) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5167,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="E289" t="str">
-        <f>C289&amp;"("&amp;B289&amp;") "&amp;A289&amp;D289</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(288) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="E290" t="str">
-        <f>C290&amp;"("&amp;B290&amp;") "&amp;A290&amp;D290</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(289) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5197,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="E291" t="str">
-        <f>C291&amp;"("&amp;B291&amp;") "&amp;A291&amp;D291</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(290) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5212,7 +5212,7 @@
         <v>2</v>
       </c>
       <c r="E292" t="str">
-        <f>C292&amp;"("&amp;B292&amp;") "&amp;A292&amp;D292</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(291) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5227,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="E293" t="str">
-        <f>C293&amp;"("&amp;B293&amp;") "&amp;A293&amp;D293</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(292) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5242,7 +5242,7 @@
         <v>2</v>
       </c>
       <c r="E294" t="str">
-        <f>C294&amp;"("&amp;B294&amp;") "&amp;A294&amp;D294</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(293) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5257,7 +5257,7 @@
         <v>2</v>
       </c>
       <c r="E295" t="str">
-        <f>C295&amp;"("&amp;B295&amp;") "&amp;A295&amp;D295</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(294) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
         <v>2</v>
       </c>
       <c r="E296" t="str">
-        <f>C296&amp;"("&amp;B296&amp;") "&amp;A296&amp;D296</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(295) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="E297" t="str">
-        <f>C297&amp;"("&amp;B297&amp;") "&amp;A297&amp;D297</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(296) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="E298" t="str">
-        <f>C298&amp;"("&amp;B298&amp;") "&amp;A298&amp;D298</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(297) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="E299" t="str">
-        <f>C299&amp;"("&amp;B299&amp;") "&amp;A299&amp;D299</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(298) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5332,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="E300" t="str">
-        <f>C300&amp;"("&amp;B300&amp;") "&amp;A300&amp;D300</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(299) &lt;/li&gt;</v>
       </c>
     </row>
@@ -5347,7 +5347,7 @@
         <v>2</v>
       </c>
       <c r="E301" t="str">
-        <f>C301&amp;"("&amp;B301&amp;") "&amp;A301&amp;D301</f>
+        <f t="shared" si="4"/>
         <v>&lt;li&gt;(300) &lt;/li&gt;</v>
       </c>
     </row>
